--- a/config_3.9/permission_server_config.xlsx
+++ b/config_3.9/permission_server_config.xlsx
@@ -8597,13 +8597,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>2020年11月23日23:59:59结束</t>
-  </si>
-  <si>
-    <t>2020年11月23日23:59:59结束</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>actp_own_task_p_xrqtl_new</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -9845,6 +9838,13 @@
   </si>
   <si>
     <t>cjj且大于V5</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021年3月15日23:59:59结束</t>
+  </si>
+  <si>
+    <t>2021年3月15日23:59:59结束</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -9950,7 +9950,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="22">
+  <fills count="21">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -10049,12 +10049,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -10115,7 +10109,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="114">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -10373,15 +10367,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -10390,22 +10387,13 @@
     <xf numFmtId="0" fontId="3" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -11726,7 +11714,7 @@
         <v>111</v>
       </c>
       <c r="B59" s="49" t="s">
-        <v>2112</v>
+        <v>2110</v>
       </c>
       <c r="C59" s="9">
         <v>22</v>
@@ -11741,7 +11729,7 @@
         <v>112</v>
       </c>
       <c r="B60" s="49" t="s">
-        <v>2113</v>
+        <v>2111</v>
       </c>
       <c r="C60" s="9">
         <v>22</v>
@@ -11756,7 +11744,7 @@
         <v>113</v>
       </c>
       <c r="B61" s="49" t="s">
-        <v>2114</v>
+        <v>2112</v>
       </c>
       <c r="C61" s="9">
         <v>22</v>
@@ -11771,7 +11759,7 @@
         <v>114</v>
       </c>
       <c r="B62" s="49" t="s">
-        <v>2115</v>
+        <v>2113</v>
       </c>
       <c r="C62" s="9">
         <v>24</v>
@@ -11785,7 +11773,7 @@
         <v>115</v>
       </c>
       <c r="B63" s="49" t="s">
-        <v>2116</v>
+        <v>2114</v>
       </c>
       <c r="C63" s="9">
         <v>22</v>
@@ -11799,7 +11787,7 @@
         <v>116</v>
       </c>
       <c r="B64" s="49" t="s">
-        <v>2116</v>
+        <v>2114</v>
       </c>
       <c r="C64" s="9">
         <v>22</v>
@@ -11814,7 +11802,7 @@
         <v>117</v>
       </c>
       <c r="B65" s="49" t="s">
-        <v>2116</v>
+        <v>2114</v>
       </c>
       <c r="C65" s="53">
         <v>22</v>
@@ -11829,7 +11817,7 @@
         <v>118</v>
       </c>
       <c r="B66" s="49" t="s">
-        <v>2116</v>
+        <v>2114</v>
       </c>
       <c r="C66" s="53">
         <v>23</v>
@@ -11843,7 +11831,7 @@
         <v>119</v>
       </c>
       <c r="B67" s="49" t="s">
-        <v>2116</v>
+        <v>2114</v>
       </c>
       <c r="C67" s="9">
         <v>24</v>
@@ -11861,7 +11849,7 @@
         <v>120</v>
       </c>
       <c r="B68" s="49" t="s">
-        <v>2116</v>
+        <v>2114</v>
       </c>
       <c r="C68" s="9">
         <v>25</v>
@@ -11912,7 +11900,7 @@
         <v>124</v>
       </c>
       <c r="B71" s="49" t="s">
-        <v>1944</v>
+        <v>1942</v>
       </c>
       <c r="C71" s="9"/>
       <c r="D71" s="9"/>
@@ -11948,7 +11936,7 @@
         <v>126</v>
       </c>
       <c r="B73" s="49" t="s">
-        <v>1945</v>
+        <v>1943</v>
       </c>
       <c r="C73" s="53">
         <v>22</v>
@@ -12087,7 +12075,7 @@
         <v>135</v>
       </c>
       <c r="B82" s="49" t="s">
-        <v>1946</v>
+        <v>1944</v>
       </c>
       <c r="C82" s="9">
         <v>26</v>
@@ -14611,7 +14599,7 @@
         <v>1363</v>
       </c>
       <c r="B349" s="27" t="s">
-        <v>1873</v>
+        <v>1871</v>
       </c>
       <c r="C349" s="3">
         <v>226</v>
@@ -14685,10 +14673,10 @@
     </row>
     <row r="356" spans="1:3">
       <c r="A356" s="27" t="s">
-        <v>1875</v>
+        <v>1873</v>
       </c>
       <c r="B356" s="27" t="s">
-        <v>1874</v>
+        <v>1872</v>
       </c>
       <c r="C356" s="3">
         <v>343</v>
@@ -15048,10 +15036,10 @@
     </row>
     <row r="407" spans="1:3">
       <c r="A407" s="27" t="s">
-        <v>1840</v>
+        <v>1838</v>
       </c>
       <c r="B407" s="27" t="s">
-        <v>1841</v>
+        <v>1839</v>
       </c>
       <c r="C407" s="3">
         <v>339</v>
@@ -15059,10 +15047,10 @@
     </row>
     <row r="409" spans="1:3">
       <c r="A409" s="3" t="s">
-        <v>1845</v>
+        <v>1843</v>
       </c>
       <c r="B409" s="3" t="s">
-        <v>1846</v>
+        <v>1844</v>
       </c>
       <c r="C409" s="3">
         <v>326</v>
@@ -15070,37 +15058,37 @@
     </row>
     <row r="411" spans="1:3">
       <c r="A411" s="31" t="s">
-        <v>1847</v>
+        <v>1845</v>
       </c>
       <c r="B411" s="10" t="s">
-        <v>1848</v>
+        <v>1846</v>
       </c>
       <c r="C411" s="9"/>
     </row>
     <row r="412" spans="1:3">
       <c r="A412" s="18" t="s">
-        <v>1849</v>
+        <v>1847</v>
       </c>
       <c r="B412" s="10" t="s">
-        <v>1850</v>
+        <v>1848</v>
       </c>
       <c r="C412" s="9"/>
     </row>
     <row r="413" spans="1:3">
       <c r="A413" s="18" t="s">
-        <v>1851</v>
+        <v>1849</v>
       </c>
       <c r="B413" s="10" t="s">
-        <v>1852</v>
+        <v>1850</v>
       </c>
       <c r="C413" s="9"/>
     </row>
     <row r="414" spans="1:3">
       <c r="A414" s="18" t="s">
-        <v>1853</v>
+        <v>1851</v>
       </c>
       <c r="B414" s="10" t="s">
-        <v>1854</v>
+        <v>1852</v>
       </c>
       <c r="C414" s="53">
         <v>22</v>
@@ -15108,10 +15096,10 @@
     </row>
     <row r="415" spans="1:3">
       <c r="A415" s="18" t="s">
-        <v>1855</v>
+        <v>1853</v>
       </c>
       <c r="B415" s="10" t="s">
-        <v>1856</v>
+        <v>1854</v>
       </c>
       <c r="C415" s="53">
         <v>22</v>
@@ -15119,10 +15107,10 @@
     </row>
     <row r="416" spans="1:3">
       <c r="A416" s="18" t="s">
-        <v>1857</v>
+        <v>1855</v>
       </c>
       <c r="B416" s="10" t="s">
-        <v>1858</v>
+        <v>1856</v>
       </c>
       <c r="C416" s="53">
         <v>22</v>
@@ -15130,10 +15118,10 @@
     </row>
     <row r="417" spans="1:3">
       <c r="A417" s="18" t="s">
-        <v>1859</v>
+        <v>1857</v>
       </c>
       <c r="B417" s="10" t="s">
-        <v>1860</v>
+        <v>1858</v>
       </c>
       <c r="C417" s="53">
         <v>23</v>
@@ -15141,10 +15129,10 @@
     </row>
     <row r="418" spans="1:3">
       <c r="A418" s="18" t="s">
-        <v>1861</v>
+        <v>1859</v>
       </c>
       <c r="B418" s="10" t="s">
-        <v>1862</v>
+        <v>1860</v>
       </c>
       <c r="C418" s="53">
         <v>23</v>
@@ -15152,10 +15140,10 @@
     </row>
     <row r="419" spans="1:3">
       <c r="A419" s="18" t="s">
-        <v>1863</v>
+        <v>1861</v>
       </c>
       <c r="B419" s="10" t="s">
-        <v>1864</v>
+        <v>1862</v>
       </c>
       <c r="C419" s="9">
         <v>24</v>
@@ -15163,10 +15151,10 @@
     </row>
     <row r="420" spans="1:3">
       <c r="A420" s="18" t="s">
-        <v>1865</v>
+        <v>1863</v>
       </c>
       <c r="B420" s="10" t="s">
-        <v>1866</v>
+        <v>1864</v>
       </c>
       <c r="C420" s="9">
         <v>25</v>
@@ -15174,10 +15162,10 @@
     </row>
     <row r="421" spans="1:3">
       <c r="A421" s="18" t="s">
-        <v>1867</v>
+        <v>1865</v>
       </c>
       <c r="B421" s="10" t="s">
-        <v>1868</v>
+        <v>1866</v>
       </c>
       <c r="C421" s="9">
         <v>26</v>
@@ -15185,10 +15173,10 @@
     </row>
     <row r="422" spans="1:3">
       <c r="A422" s="18" t="s">
-        <v>1869</v>
+        <v>1867</v>
       </c>
       <c r="B422" s="10" t="s">
-        <v>1870</v>
+        <v>1868</v>
       </c>
       <c r="C422" s="9">
         <v>26</v>
@@ -15196,10 +15184,10 @@
     </row>
     <row r="423" spans="1:3">
       <c r="A423" s="18" t="s">
-        <v>1871</v>
+        <v>1869</v>
       </c>
       <c r="B423" s="10" t="s">
-        <v>1872</v>
+        <v>1870</v>
       </c>
       <c r="C423" s="9">
         <v>26</v>
@@ -15207,10 +15195,10 @@
     </row>
     <row r="425" spans="1:3">
       <c r="A425" s="27" t="s">
-        <v>1876</v>
+        <v>1874</v>
       </c>
       <c r="B425" s="27" t="s">
-        <v>1877</v>
+        <v>1875</v>
       </c>
       <c r="C425" s="3">
         <v>342</v>
@@ -15218,10 +15206,10 @@
     </row>
     <row r="427" spans="1:3">
       <c r="A427" s="27" t="s">
-        <v>1935</v>
+        <v>1933</v>
       </c>
       <c r="B427" s="27" t="s">
-        <v>1930</v>
+        <v>1928</v>
       </c>
       <c r="C427" s="3">
         <v>344</v>
@@ -15229,10 +15217,10 @@
     </row>
     <row r="428" spans="1:3">
       <c r="A428" s="27" t="s">
-        <v>1931</v>
+        <v>1929</v>
       </c>
       <c r="B428" s="27" t="s">
-        <v>1932</v>
+        <v>1930</v>
       </c>
       <c r="C428" s="3">
         <v>345</v>
@@ -15240,10 +15228,10 @@
     </row>
     <row r="430" spans="1:3">
       <c r="A430" s="27" t="s">
-        <v>1916</v>
+        <v>1914</v>
       </c>
       <c r="B430" s="27" t="s">
-        <v>1904</v>
+        <v>1902</v>
       </c>
       <c r="C430" s="3">
         <v>346</v>
@@ -15251,10 +15239,10 @@
     </row>
     <row r="432" spans="1:3">
       <c r="A432" s="27" t="s">
-        <v>1919</v>
+        <v>1917</v>
       </c>
       <c r="B432" s="27" t="s">
-        <v>1918</v>
+        <v>1916</v>
       </c>
       <c r="C432" s="3">
         <v>347</v>
@@ -15262,10 +15250,10 @@
     </row>
     <row r="433" spans="1:3">
       <c r="A433" s="27" t="s">
-        <v>1920</v>
+        <v>1918</v>
       </c>
       <c r="B433" s="27" t="s">
-        <v>1921</v>
+        <v>1919</v>
       </c>
       <c r="C433" s="3">
         <v>348</v>
@@ -15273,10 +15261,10 @@
     </row>
     <row r="435" spans="1:3">
       <c r="A435" s="27" t="s">
-        <v>1936</v>
+        <v>1934</v>
       </c>
       <c r="B435" s="27" t="s">
-        <v>1937</v>
+        <v>1935</v>
       </c>
       <c r="C435" s="3">
         <v>351</v>
@@ -15284,10 +15272,10 @@
     </row>
     <row r="436" spans="1:3">
       <c r="A436" s="27" t="s">
-        <v>1938</v>
+        <v>1936</v>
       </c>
       <c r="B436" s="27" t="s">
-        <v>1939</v>
+        <v>1937</v>
       </c>
       <c r="C436" s="3">
         <v>352</v>
@@ -15295,10 +15283,10 @@
     </row>
     <row r="438" spans="1:3">
       <c r="A438" s="27" t="s">
-        <v>1947</v>
+        <v>1945</v>
       </c>
       <c r="B438" s="27" t="s">
-        <v>1948</v>
+        <v>1946</v>
       </c>
       <c r="C438" s="3">
         <v>353</v>
@@ -15306,10 +15294,10 @@
     </row>
     <row r="440" spans="1:3">
       <c r="A440" s="3" t="s">
+        <v>2012</v>
+      </c>
+      <c r="B440" s="3" t="s">
         <v>2014</v>
-      </c>
-      <c r="B440" s="3" t="s">
-        <v>2016</v>
       </c>
       <c r="C440" s="3">
         <v>354</v>
@@ -15317,10 +15305,10 @@
     </row>
     <row r="442" spans="1:3">
       <c r="A442" s="27" t="s">
-        <v>1957</v>
+        <v>1955</v>
       </c>
       <c r="B442" s="27" t="s">
-        <v>1958</v>
+        <v>1956</v>
       </c>
       <c r="C442" s="3">
         <v>355</v>
@@ -15332,10 +15320,10 @@
     </row>
     <row r="444" spans="1:3">
       <c r="A444" s="27" t="s">
-        <v>1986</v>
+        <v>1984</v>
       </c>
       <c r="B444" s="27" t="s">
-        <v>1987</v>
+        <v>1985</v>
       </c>
       <c r="C444" s="3">
         <v>368</v>
@@ -15343,10 +15331,10 @@
     </row>
     <row r="446" spans="1:3">
       <c r="A446" s="72" t="s">
-        <v>1993</v>
+        <v>1991</v>
       </c>
       <c r="B446" s="27" t="s">
-        <v>1994</v>
+        <v>1992</v>
       </c>
       <c r="C446" s="3">
         <v>356</v>
@@ -15354,10 +15342,10 @@
     </row>
     <row r="447" spans="1:3">
       <c r="A447" s="72" t="s">
-        <v>1995</v>
+        <v>1993</v>
       </c>
       <c r="B447" s="27" t="s">
-        <v>1996</v>
+        <v>1994</v>
       </c>
       <c r="C447" s="3">
         <v>360</v>
@@ -15365,10 +15353,10 @@
     </row>
     <row r="449" spans="1:3">
       <c r="A449" s="3" t="s">
-        <v>2000</v>
+        <v>1998</v>
       </c>
       <c r="B449" s="3" t="s">
-        <v>1997</v>
+        <v>1995</v>
       </c>
       <c r="C449" s="3">
         <v>369</v>
@@ -15376,10 +15364,10 @@
     </row>
     <row r="451" spans="1:3">
       <c r="A451" s="27" t="s">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="B451" s="27" t="s">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="C451" s="3">
         <v>374</v>
@@ -15387,10 +15375,10 @@
     </row>
     <row r="453" spans="1:3">
       <c r="A453" s="27" t="s">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="B453" s="27" t="s">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="C453" s="3">
         <v>375</v>
@@ -15398,10 +15386,10 @@
     </row>
     <row r="454" spans="1:3">
       <c r="A454" s="27" t="s">
-        <v>2025</v>
+        <v>2023</v>
       </c>
       <c r="B454" s="27" t="s">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="C454" s="3">
         <v>376</v>
@@ -15409,10 +15397,10 @@
     </row>
     <row r="455" spans="1:3">
       <c r="A455" s="27" t="s">
-        <v>2026</v>
+        <v>2024</v>
       </c>
       <c r="B455" s="27" t="s">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="C455" s="3">
         <v>377</v>
@@ -15420,10 +15408,10 @@
     </row>
     <row r="456" spans="1:3">
       <c r="A456" s="27" t="s">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="B456" s="27" t="s">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="C456" s="3">
         <v>378</v>
@@ -15431,10 +15419,10 @@
     </row>
     <row r="458" spans="1:3">
       <c r="A458" s="27" t="s">
-        <v>2027</v>
+        <v>2025</v>
       </c>
       <c r="B458" s="27" t="s">
-        <v>2028</v>
+        <v>2026</v>
       </c>
       <c r="C458" s="3">
         <v>379</v>
@@ -15442,10 +15430,10 @@
     </row>
     <row r="460" spans="1:3">
       <c r="A460" s="3" t="s">
-        <v>2042</v>
+        <v>2040</v>
       </c>
       <c r="B460" s="3" t="s">
-        <v>2043</v>
+        <v>2041</v>
       </c>
       <c r="C460" s="3">
         <v>381</v>
@@ -15453,10 +15441,10 @@
     </row>
     <row r="462" spans="1:3">
       <c r="A462" s="27" t="s">
-        <v>2054</v>
+        <v>2052</v>
       </c>
       <c r="B462" s="27" t="s">
-        <v>2055</v>
+        <v>2053</v>
       </c>
       <c r="C462" s="3">
         <v>385</v>
@@ -15464,10 +15452,10 @@
     </row>
     <row r="463" spans="1:3">
       <c r="A463" s="27" t="s">
-        <v>2056</v>
+        <v>2054</v>
       </c>
       <c r="B463" s="27" t="s">
-        <v>2057</v>
+        <v>2055</v>
       </c>
       <c r="C463" s="3">
         <v>386</v>
@@ -15475,18 +15463,18 @@
     </row>
     <row r="465" spans="1:3">
       <c r="A465" s="3" t="s">
-        <v>2094</v>
+        <v>2092</v>
       </c>
       <c r="B465" s="3" t="s">
-        <v>2099</v>
+        <v>2097</v>
       </c>
     </row>
     <row r="466" spans="1:3">
       <c r="A466" s="3" t="s">
-        <v>2095</v>
+        <v>2093</v>
       </c>
       <c r="B466" s="27" t="s">
-        <v>2103</v>
+        <v>2101</v>
       </c>
       <c r="C466" s="3">
         <v>22</v>
@@ -15494,10 +15482,10 @@
     </row>
     <row r="467" spans="1:3">
       <c r="A467" s="3" t="s">
-        <v>2096</v>
+        <v>2094</v>
       </c>
       <c r="B467" s="27" t="s">
-        <v>2100</v>
+        <v>2098</v>
       </c>
       <c r="C467" s="3">
         <v>23</v>
@@ -15505,10 +15493,10 @@
     </row>
     <row r="468" spans="1:3">
       <c r="A468" s="3" t="s">
-        <v>2097</v>
+        <v>2095</v>
       </c>
       <c r="B468" s="27" t="s">
-        <v>2101</v>
+        <v>2099</v>
       </c>
       <c r="C468" s="3">
         <v>24</v>
@@ -15516,10 +15504,10 @@
     </row>
     <row r="469" spans="1:3">
       <c r="A469" s="3" t="s">
-        <v>2098</v>
+        <v>2096</v>
       </c>
       <c r="B469" s="27" t="s">
-        <v>2102</v>
+        <v>2100</v>
       </c>
       <c r="C469" s="3">
         <v>26</v>
@@ -15527,10 +15515,10 @@
     </row>
     <row r="471" spans="1:3">
       <c r="A471" s="9" t="s">
+        <v>2117</v>
+      </c>
+      <c r="B471" s="27" t="s">
         <v>2119</v>
-      </c>
-      <c r="B471" s="27" t="s">
-        <v>2121</v>
       </c>
       <c r="C471" s="3">
         <v>397</v>
@@ -15538,10 +15526,10 @@
     </row>
     <row r="472" spans="1:3">
       <c r="A472" s="49" t="s">
+        <v>2118</v>
+      </c>
+      <c r="B472" s="27" t="s">
         <v>2120</v>
-      </c>
-      <c r="B472" s="27" t="s">
-        <v>2122</v>
       </c>
       <c r="C472" s="3">
         <v>398</v>
@@ -15560,10 +15548,10 @@
   <dimension ref="A1:O367"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D339" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="I272" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D366" sqref="D366"/>
+      <selection pane="bottomRight" activeCell="L294" sqref="L294"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -15605,7 +15593,7 @@
         <v>2</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>2123</v>
+        <v>2121</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>450</v>
@@ -15745,7 +15733,7 @@
         <v>1485</v>
       </c>
       <c r="N4" s="31" t="s">
-        <v>1836</v>
+        <v>1834</v>
       </c>
       <c r="O4" s="17"/>
     </row>
@@ -16429,7 +16417,7 @@
       <c r="C23" s="16" t="s">
         <v>1256</v>
       </c>
-      <c r="D23" s="107" t="s">
+      <c r="D23" s="105" t="s">
         <v>1261</v>
       </c>
       <c r="E23" s="17"/>
@@ -16465,7 +16453,7 @@
       <c r="C24" s="16" t="s">
         <v>1257</v>
       </c>
-      <c r="D24" s="107" t="s">
+      <c r="D24" s="105" t="s">
         <v>1259</v>
       </c>
       <c r="E24" s="17"/>
@@ -16501,7 +16489,7 @@
       <c r="C25" s="16" t="s">
         <v>1258</v>
       </c>
-      <c r="D25" s="107" t="s">
+      <c r="D25" s="105" t="s">
         <v>1260</v>
       </c>
       <c r="E25" s="17"/>
@@ -22164,7 +22152,7 @@
         <v>0</v>
       </c>
       <c r="C192" s="40" t="s">
-        <v>1901</v>
+        <v>1899</v>
       </c>
       <c r="D192" s="40" t="s">
         <v>790</v>
@@ -25390,12 +25378,12 @@
         <v>288</v>
       </c>
       <c r="B289" s="71">
-        <v>0</v>
-      </c>
-      <c r="C289" s="104" t="s">
+        <v>1</v>
+      </c>
+      <c r="C289" s="102" t="s">
         <v>1630</v>
       </c>
-      <c r="D289" s="104" t="s">
+      <c r="D289" s="102" t="s">
         <v>1631</v>
       </c>
       <c r="E289" s="71"/>
@@ -25413,10 +25401,10 @@
         <v>1635</v>
       </c>
       <c r="K289" s="71">
-        <v>1605542400</v>
-      </c>
-      <c r="L289" s="71" t="s">
-        <v>1831</v>
+        <v>1615248000</v>
+      </c>
+      <c r="L289" s="72" t="s">
+        <v>2131</v>
       </c>
     </row>
     <row r="290" spans="1:12" s="73" customFormat="1">
@@ -25424,12 +25412,12 @@
         <v>289</v>
       </c>
       <c r="B290" s="71">
-        <v>0</v>
-      </c>
-      <c r="C290" s="104" t="s">
+        <v>1</v>
+      </c>
+      <c r="C290" s="102" t="s">
         <v>1633</v>
       </c>
-      <c r="D290" s="104" t="s">
+      <c r="D290" s="102" t="s">
         <v>1632</v>
       </c>
       <c r="E290" s="71"/>
@@ -25447,10 +25435,10 @@
         <v>1635</v>
       </c>
       <c r="K290" s="71">
-        <v>1605542400</v>
+        <v>1615248000</v>
       </c>
       <c r="L290" s="71" t="s">
-        <v>1831</v>
+        <v>2131</v>
       </c>
     </row>
     <row r="291" spans="1:12" s="73" customFormat="1">
@@ -25458,13 +25446,13 @@
         <v>290</v>
       </c>
       <c r="B291" s="71">
-        <v>0</v>
-      </c>
-      <c r="C291" s="103" t="s">
+        <v>1</v>
+      </c>
+      <c r="C291" s="101" t="s">
         <v>1634</v>
       </c>
-      <c r="D291" s="104" t="s">
-        <v>2064</v>
+      <c r="D291" s="102" t="s">
+        <v>2062</v>
       </c>
       <c r="E291" s="71"/>
       <c r="F291" s="71"/>
@@ -25481,10 +25469,10 @@
         <v>1635</v>
       </c>
       <c r="K291" s="71">
-        <v>1605542400</v>
+        <v>1615248000</v>
       </c>
       <c r="L291" s="71" t="s">
-        <v>1831</v>
+        <v>2131</v>
       </c>
     </row>
     <row r="292" spans="1:12" s="73" customFormat="1">
@@ -25492,13 +25480,13 @@
         <v>291</v>
       </c>
       <c r="B292" s="71">
-        <v>0</v>
-      </c>
-      <c r="C292" s="103" t="s">
+        <v>1</v>
+      </c>
+      <c r="C292" s="101" t="s">
         <v>1830</v>
       </c>
-      <c r="D292" s="103" t="s">
-        <v>1952</v>
+      <c r="D292" s="101" t="s">
+        <v>1950</v>
       </c>
       <c r="E292" s="71"/>
       <c r="F292" s="71"/>
@@ -25514,11 +25502,11 @@
       <c r="J292" s="71" t="s">
         <v>1635</v>
       </c>
-      <c r="K292" s="94">
-        <v>1605542400</v>
-      </c>
-      <c r="L292" s="95" t="s">
-        <v>1832</v>
+      <c r="K292" s="71">
+        <v>1615248000</v>
+      </c>
+      <c r="L292" s="71" t="s">
+        <v>2131</v>
       </c>
     </row>
     <row r="293" spans="1:12">
@@ -25881,7 +25869,7 @@
         <v>1</v>
       </c>
       <c r="C304" s="30" t="s">
-        <v>1929</v>
+        <v>1927</v>
       </c>
       <c r="D304" s="30" t="s">
         <v>1661</v>
@@ -26419,37 +26407,37 @@
         <v>1165</v>
       </c>
     </row>
-    <row r="321" spans="1:12" s="105" customFormat="1">
-      <c r="A321" s="104">
+    <row r="321" spans="1:12" s="103" customFormat="1">
+      <c r="A321" s="102">
         <v>320</v>
       </c>
-      <c r="B321" s="104">
-        <v>1</v>
-      </c>
-      <c r="C321" s="103" t="s">
+      <c r="B321" s="102">
+        <v>1</v>
+      </c>
+      <c r="C321" s="101" t="s">
         <v>1715</v>
       </c>
-      <c r="D321" s="103" t="s">
-        <v>2062</v>
-      </c>
-      <c r="E321" s="104"/>
-      <c r="F321" s="104"/>
-      <c r="G321" s="104">
+      <c r="D321" s="101" t="s">
+        <v>2060</v>
+      </c>
+      <c r="E321" s="102"/>
+      <c r="F321" s="102"/>
+      <c r="G321" s="102">
         <v>325</v>
       </c>
-      <c r="H321" s="104" t="b">
-        <v>1</v>
-      </c>
-      <c r="I321" s="105" t="b">
-        <v>1</v>
-      </c>
-      <c r="J321" s="103" t="s">
+      <c r="H321" s="102" t="b">
+        <v>1</v>
+      </c>
+      <c r="I321" s="103" t="b">
+        <v>1</v>
+      </c>
+      <c r="J321" s="101" t="s">
         <v>1116</v>
       </c>
-      <c r="K321" s="104">
+      <c r="K321" s="102">
         <v>1601335800</v>
       </c>
-      <c r="L321" s="103" t="s">
+      <c r="L321" s="101" t="s">
         <v>1704</v>
       </c>
     </row>
@@ -26540,7 +26528,7 @@
         <v>1</v>
       </c>
       <c r="J324" s="16" t="s">
-        <v>2001</v>
+        <v>1999</v>
       </c>
       <c r="K324" s="26">
         <v>1598916600</v>
@@ -26588,10 +26576,10 @@
       <c r="B326" s="26">
         <v>0</v>
       </c>
-      <c r="C326" s="103" t="s">
+      <c r="C326" s="101" t="s">
         <v>1773</v>
       </c>
-      <c r="D326" s="103" t="s">
+      <c r="D326" s="101" t="s">
         <v>1772</v>
       </c>
       <c r="G326" s="26">
@@ -26620,10 +26608,10 @@
       <c r="B327" s="26">
         <v>0</v>
       </c>
-      <c r="C327" s="103" t="s">
+      <c r="C327" s="101" t="s">
         <v>1774</v>
       </c>
-      <c r="D327" s="103" t="s">
+      <c r="D327" s="101" t="s">
         <v>1767</v>
       </c>
       <c r="G327" s="26">
@@ -26732,7 +26720,7 @@
         <v>1</v>
       </c>
       <c r="J330" s="30" t="s">
-        <v>1838</v>
+        <v>1836</v>
       </c>
       <c r="K330" s="26">
         <v>0</v>
@@ -26781,7 +26769,7 @@
         <v>0</v>
       </c>
       <c r="C332" s="87" t="s">
-        <v>1983</v>
+        <v>1981</v>
       </c>
       <c r="D332" s="87" t="s">
         <v>1810</v>
@@ -26815,7 +26803,7 @@
         <v>1</v>
       </c>
       <c r="C333" s="30" t="s">
-        <v>1833</v>
+        <v>1831</v>
       </c>
       <c r="D333" s="26" t="s">
         <v>1823</v>
@@ -26830,7 +26818,7 @@
         <v>1</v>
       </c>
       <c r="J333" s="26" t="s">
-        <v>1834</v>
+        <v>1832</v>
       </c>
       <c r="K333" s="26">
         <v>0</v>
@@ -26847,10 +26835,10 @@
         <v>1</v>
       </c>
       <c r="C334" s="16" t="s">
-        <v>1839</v>
+        <v>1837</v>
       </c>
       <c r="D334" s="16" t="s">
-        <v>1837</v>
+        <v>1835</v>
       </c>
       <c r="E334" s="17"/>
       <c r="F334" s="17"/>
@@ -26881,10 +26869,10 @@
         <v>1</v>
       </c>
       <c r="C335" s="16" t="s">
-        <v>1878</v>
+        <v>1876</v>
       </c>
       <c r="D335" s="16" t="s">
-        <v>1879</v>
+        <v>1877</v>
       </c>
       <c r="E335" s="17"/>
       <c r="F335" s="17"/>
@@ -26915,10 +26903,10 @@
         <v>1</v>
       </c>
       <c r="C336" s="16" t="s">
-        <v>1880</v>
+        <v>1878</v>
       </c>
       <c r="D336" s="16" t="s">
-        <v>1881</v>
+        <v>1879</v>
       </c>
       <c r="E336" s="17"/>
       <c r="F336" s="17"/>
@@ -26932,7 +26920,7 @@
         <v>1</v>
       </c>
       <c r="J336" s="16" t="s">
-        <v>1971</v>
+        <v>1969</v>
       </c>
       <c r="K336" s="17">
         <v>1606176000</v>
@@ -26949,10 +26937,10 @@
         <v>1</v>
       </c>
       <c r="C337" s="30" t="s">
-        <v>1928</v>
+        <v>1926</v>
       </c>
       <c r="D337" s="30" t="s">
-        <v>1923</v>
+        <v>1921</v>
       </c>
       <c r="G337" s="17">
         <v>349</v>
@@ -26981,10 +26969,10 @@
         <v>1</v>
       </c>
       <c r="C338" s="30" t="s">
+        <v>1920</v>
+      </c>
+      <c r="D338" s="30" t="s">
         <v>1922</v>
-      </c>
-      <c r="D338" s="30" t="s">
-        <v>1924</v>
       </c>
       <c r="E338" s="17"/>
       <c r="F338" s="17"/>
@@ -27015,10 +27003,10 @@
         <v>1</v>
       </c>
       <c r="C339" s="72" t="s">
-        <v>1964</v>
+        <v>1962</v>
       </c>
       <c r="D339" s="30" t="s">
-        <v>1959</v>
+        <v>1957</v>
       </c>
       <c r="G339" s="26">
         <v>357</v>
@@ -27047,10 +27035,10 @@
         <v>1</v>
       </c>
       <c r="C340" s="72" t="s">
-        <v>1965</v>
+        <v>1963</v>
       </c>
       <c r="D340" s="30" t="s">
-        <v>1959</v>
+        <v>1957</v>
       </c>
       <c r="G340" s="26">
         <v>358</v>
@@ -27079,10 +27067,10 @@
         <v>1</v>
       </c>
       <c r="C341" s="72" t="s">
-        <v>1966</v>
+        <v>1964</v>
       </c>
       <c r="D341" s="30" t="s">
-        <v>1959</v>
+        <v>1957</v>
       </c>
       <c r="G341" s="26">
         <v>359</v>
@@ -27111,10 +27099,10 @@
         <v>1</v>
       </c>
       <c r="C342" s="72" t="s">
-        <v>1967</v>
+        <v>1965</v>
       </c>
       <c r="D342" s="30" t="s">
-        <v>1959</v>
+        <v>1957</v>
       </c>
       <c r="G342" s="26">
         <v>361</v>
@@ -27143,10 +27131,10 @@
         <v>1</v>
       </c>
       <c r="C343" s="72" t="s">
-        <v>1968</v>
+        <v>1966</v>
       </c>
       <c r="D343" s="30" t="s">
-        <v>1959</v>
+        <v>1957</v>
       </c>
       <c r="G343" s="26">
         <v>362</v>
@@ -27175,10 +27163,10 @@
         <v>1</v>
       </c>
       <c r="C344" s="72" t="s">
-        <v>1969</v>
+        <v>1967</v>
       </c>
       <c r="D344" s="30" t="s">
-        <v>1959</v>
+        <v>1957</v>
       </c>
       <c r="G344" s="26">
         <v>363</v>
@@ -27207,10 +27195,10 @@
         <v>1</v>
       </c>
       <c r="C345" s="72" t="s">
-        <v>1972</v>
+        <v>1970</v>
       </c>
       <c r="D345" s="30" t="s">
-        <v>1970</v>
+        <v>1968</v>
       </c>
       <c r="G345" s="26">
         <v>364</v>
@@ -27239,10 +27227,10 @@
         <v>1</v>
       </c>
       <c r="C346" s="30" t="s">
+        <v>1973</v>
+      </c>
+      <c r="D346" s="78" t="s">
         <v>1975</v>
-      </c>
-      <c r="D346" s="78" t="s">
-        <v>1977</v>
       </c>
       <c r="G346" s="26">
         <v>365</v>
@@ -27271,10 +27259,10 @@
         <v>1</v>
       </c>
       <c r="C347" s="30" t="s">
+        <v>1974</v>
+      </c>
+      <c r="D347" s="78" t="s">
         <v>1976</v>
-      </c>
-      <c r="D347" s="78" t="s">
-        <v>1978</v>
       </c>
       <c r="G347" s="26">
         <v>366</v>
@@ -27302,11 +27290,11 @@
       <c r="B348" s="17">
         <v>1</v>
       </c>
-      <c r="C348" s="103" t="s">
-        <v>1984</v>
-      </c>
-      <c r="D348" s="103" t="s">
-        <v>2061</v>
+      <c r="C348" s="101" t="s">
+        <v>1982</v>
+      </c>
+      <c r="D348" s="101" t="s">
+        <v>2059</v>
       </c>
       <c r="E348" s="17"/>
       <c r="F348" s="17"/>
@@ -27337,10 +27325,10 @@
         <v>0</v>
       </c>
       <c r="C349" s="16" t="s">
+        <v>2000</v>
+      </c>
+      <c r="D349" s="16" t="s">
         <v>2002</v>
-      </c>
-      <c r="D349" s="16" t="s">
-        <v>2004</v>
       </c>
       <c r="E349" s="16"/>
       <c r="F349" s="16"/>
@@ -27354,13 +27342,13 @@
         <v>1</v>
       </c>
       <c r="J349" s="16" t="s">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="K349" s="16">
         <v>1610409600</v>
       </c>
       <c r="L349" s="16" t="s">
-        <v>2081</v>
+        <v>2079</v>
       </c>
     </row>
     <row r="350" spans="1:12" s="45" customFormat="1">
@@ -27371,10 +27359,10 @@
         <v>0</v>
       </c>
       <c r="C350" s="16" t="s">
+        <v>2001</v>
+      </c>
+      <c r="D350" s="16" t="s">
         <v>2003</v>
-      </c>
-      <c r="D350" s="16" t="s">
-        <v>2005</v>
       </c>
       <c r="E350" s="16"/>
       <c r="F350" s="16"/>
@@ -27388,13 +27376,13 @@
         <v>1</v>
       </c>
       <c r="J350" s="16" t="s">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="K350" s="16">
         <v>1610409600</v>
       </c>
       <c r="L350" s="16" t="s">
-        <v>2082</v>
+        <v>2080</v>
       </c>
     </row>
     <row r="351" spans="1:12" s="45" customFormat="1">
@@ -27405,10 +27393,10 @@
         <v>0</v>
       </c>
       <c r="C351" s="16" t="s">
-        <v>2083</v>
+        <v>2081</v>
       </c>
       <c r="D351" s="16" t="s">
-        <v>2117</v>
+        <v>2115</v>
       </c>
       <c r="E351" s="16"/>
       <c r="F351" s="16"/>
@@ -27422,13 +27410,13 @@
         <v>1</v>
       </c>
       <c r="J351" s="16" t="s">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="K351" s="16">
         <v>1610380800</v>
       </c>
       <c r="L351" s="16" t="s">
-        <v>2084</v>
+        <v>2082</v>
       </c>
     </row>
     <row r="352" spans="1:12" s="45" customFormat="1">
@@ -27439,10 +27427,10 @@
         <v>0</v>
       </c>
       <c r="C352" s="16" t="s">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="D352" s="16" t="s">
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="E352" s="16"/>
       <c r="F352" s="16"/>
@@ -27456,13 +27444,13 @@
         <v>1</v>
       </c>
       <c r="J352" s="16" t="s">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="K352" s="16">
         <v>1610380800</v>
       </c>
       <c r="L352" s="16" t="s">
-        <v>2082</v>
+        <v>2080</v>
       </c>
     </row>
     <row r="353" spans="1:12" s="45" customFormat="1">
@@ -27472,11 +27460,11 @@
       <c r="B353" s="16">
         <v>1</v>
       </c>
-      <c r="C353" s="108" t="s">
-        <v>2041</v>
+      <c r="C353" s="106" t="s">
+        <v>2039</v>
       </c>
       <c r="D353" s="16" t="s">
-        <v>2033</v>
+        <v>2031</v>
       </c>
       <c r="E353" s="16"/>
       <c r="F353" s="16"/>
@@ -27495,7 +27483,7 @@
       <c r="K353" s="16">
         <v>0</v>
       </c>
-      <c r="L353" s="109">
+      <c r="L353" s="107">
         <v>44201</v>
       </c>
     </row>
@@ -27507,10 +27495,10 @@
         <v>0</v>
       </c>
       <c r="C354" s="16" t="s">
-        <v>2109</v>
+        <v>2107</v>
       </c>
       <c r="D354" s="16" t="s">
-        <v>2044</v>
+        <v>2042</v>
       </c>
       <c r="E354" s="16"/>
       <c r="F354" s="16"/>
@@ -27530,7 +27518,7 @@
         <v>1611014400</v>
       </c>
       <c r="L354" s="16" t="s">
-        <v>2045</v>
+        <v>2043</v>
       </c>
     </row>
     <row r="355" spans="1:12" s="45" customFormat="1">
@@ -27541,10 +27529,10 @@
         <v>0</v>
       </c>
       <c r="C355" s="16" t="s">
-        <v>2110</v>
+        <v>2108</v>
       </c>
       <c r="D355" s="16" t="s">
-        <v>2046</v>
+        <v>2044</v>
       </c>
       <c r="E355" s="16"/>
       <c r="F355" s="16"/>
@@ -27564,7 +27552,7 @@
         <v>1611014400</v>
       </c>
       <c r="L355" s="16" t="s">
-        <v>2047</v>
+        <v>2045</v>
       </c>
     </row>
     <row r="356" spans="1:12" s="45" customFormat="1">
@@ -27575,10 +27563,10 @@
         <v>0</v>
       </c>
       <c r="C356" s="16" t="s">
-        <v>2111</v>
+        <v>2109</v>
       </c>
       <c r="D356" s="16" t="s">
-        <v>2048</v>
+        <v>2046</v>
       </c>
       <c r="E356" s="16"/>
       <c r="F356" s="16"/>
@@ -27598,7 +27586,7 @@
         <v>1611014400</v>
       </c>
       <c r="L356" s="16" t="s">
-        <v>2045</v>
+        <v>2043</v>
       </c>
     </row>
     <row r="357" spans="1:12" s="45" customFormat="1">
@@ -27608,11 +27596,11 @@
       <c r="B357" s="16">
         <v>0</v>
       </c>
-      <c r="C357" s="108" t="s">
-        <v>2067</v>
+      <c r="C357" s="106" t="s">
+        <v>2065</v>
       </c>
       <c r="D357" s="16" t="s">
-        <v>2065</v>
+        <v>2063</v>
       </c>
       <c r="E357" s="16"/>
       <c r="F357" s="16"/>
@@ -27643,10 +27631,10 @@
         <v>0</v>
       </c>
       <c r="C358" s="16" t="s">
-        <v>2068</v>
+        <v>2066</v>
       </c>
       <c r="D358" s="16" t="s">
-        <v>2069</v>
+        <v>2067</v>
       </c>
       <c r="E358" s="16"/>
       <c r="F358" s="16"/>
@@ -27662,11 +27650,11 @@
       <c r="J358" s="16" t="s">
         <v>1116</v>
       </c>
-      <c r="K358" s="107">
+      <c r="K358" s="105">
         <v>1611590400</v>
       </c>
       <c r="L358" s="16" t="s">
-        <v>2070</v>
+        <v>2068</v>
       </c>
     </row>
     <row r="359" spans="1:12" s="45" customFormat="1" ht="16.5">
@@ -27676,11 +27664,11 @@
       <c r="B359" s="16">
         <v>0</v>
       </c>
-      <c r="C359" s="110" t="s">
-        <v>2072</v>
+      <c r="C359" s="108" t="s">
+        <v>2070</v>
       </c>
       <c r="D359" s="16" t="s">
-        <v>2075</v>
+        <v>2073</v>
       </c>
       <c r="E359" s="16"/>
       <c r="F359" s="16"/>
@@ -27696,11 +27684,11 @@
       <c r="J359" s="16" t="s">
         <v>455</v>
       </c>
-      <c r="K359" s="107">
+      <c r="K359" s="105">
         <v>1611590400</v>
       </c>
       <c r="L359" s="16" t="s">
-        <v>2070</v>
+        <v>2068</v>
       </c>
     </row>
     <row r="360" spans="1:12" s="45" customFormat="1" ht="16.5">
@@ -27710,11 +27698,11 @@
       <c r="B360" s="16">
         <v>0</v>
       </c>
-      <c r="C360" s="110" t="s">
-        <v>2073</v>
+      <c r="C360" s="108" t="s">
+        <v>2071</v>
       </c>
       <c r="D360" s="16" t="s">
-        <v>2076</v>
+        <v>2074</v>
       </c>
       <c r="E360" s="16"/>
       <c r="F360" s="16"/>
@@ -27730,11 +27718,11 @@
       <c r="J360" s="16" t="s">
         <v>455</v>
       </c>
-      <c r="K360" s="107">
+      <c r="K360" s="105">
         <v>1611590400</v>
       </c>
       <c r="L360" s="16" t="s">
-        <v>2070</v>
+        <v>2068</v>
       </c>
     </row>
     <row r="361" spans="1:12" s="45" customFormat="1" ht="16.5">
@@ -27744,11 +27732,11 @@
       <c r="B361" s="16">
         <v>0</v>
       </c>
-      <c r="C361" s="110" t="s">
-        <v>2074</v>
+      <c r="C361" s="108" t="s">
+        <v>2072</v>
       </c>
       <c r="D361" s="16" t="s">
-        <v>2077</v>
+        <v>2075</v>
       </c>
       <c r="E361" s="16"/>
       <c r="F361" s="16"/>
@@ -27764,35 +27752,35 @@
       <c r="J361" s="16" t="s">
         <v>455</v>
       </c>
-      <c r="K361" s="107">
+      <c r="K361" s="105">
         <v>1611590400</v>
       </c>
       <c r="L361" s="16" t="s">
-        <v>2070</v>
-      </c>
-    </row>
-    <row r="362" spans="1:12" s="112" customFormat="1">
+        <v>2068</v>
+      </c>
+    </row>
+    <row r="362" spans="1:12" s="110" customFormat="1">
       <c r="A362" s="16">
         <v>361</v>
       </c>
       <c r="B362" s="66">
         <v>0</v>
       </c>
-      <c r="C362" s="111" t="s">
-        <v>2085</v>
+      <c r="C362" s="109" t="s">
+        <v>2083</v>
       </c>
       <c r="D362" s="66" t="s">
-        <v>2065</v>
+        <v>2063</v>
       </c>
       <c r="E362" s="66"/>
       <c r="F362" s="66"/>
       <c r="G362" s="66">
         <v>392</v>
       </c>
-      <c r="H362" s="112" t="b">
-        <v>1</v>
-      </c>
-      <c r="I362" s="112" t="b">
+      <c r="H362" s="110" t="b">
+        <v>1</v>
+      </c>
+      <c r="I362" s="110" t="b">
         <v>1</v>
       </c>
       <c r="J362" s="66" t="s">
@@ -27813,20 +27801,20 @@
         <v>0</v>
       </c>
       <c r="C363" s="56" t="s">
+        <v>2084</v>
+      </c>
+      <c r="D363" s="29" t="s">
         <v>2086</v>
-      </c>
-      <c r="D363" s="29" t="s">
-        <v>2088</v>
       </c>
       <c r="E363" s="28"/>
       <c r="F363" s="28"/>
       <c r="G363" s="28">
         <v>393</v>
       </c>
-      <c r="H363" s="113" t="b">
-        <v>1</v>
-      </c>
-      <c r="I363" s="113" t="b">
+      <c r="H363" s="111" t="b">
+        <v>1</v>
+      </c>
+      <c r="I363" s="111" t="b">
         <v>1</v>
       </c>
       <c r="J363" s="29" t="s">
@@ -27836,7 +27824,7 @@
         <v>1612828800</v>
       </c>
       <c r="L363" s="29" t="s">
-        <v>2090</v>
+        <v>2088</v>
       </c>
     </row>
     <row r="364" spans="1:12" s="22" customFormat="1">
@@ -27847,20 +27835,20 @@
         <v>0</v>
       </c>
       <c r="C364" s="56" t="s">
+        <v>2085</v>
+      </c>
+      <c r="D364" s="29" t="s">
         <v>2087</v>
-      </c>
-      <c r="D364" s="29" t="s">
-        <v>2089</v>
       </c>
       <c r="E364" s="28"/>
       <c r="F364" s="28"/>
       <c r="G364" s="28">
         <v>394</v>
       </c>
-      <c r="H364" s="113" t="b">
-        <v>1</v>
-      </c>
-      <c r="I364" s="113" t="b">
+      <c r="H364" s="111" t="b">
+        <v>1</v>
+      </c>
+      <c r="I364" s="111" t="b">
         <v>1</v>
       </c>
       <c r="J364" s="29" t="s">
@@ -27870,7 +27858,7 @@
         <v>1612828800</v>
       </c>
       <c r="L364" s="29" t="s">
-        <v>2091</v>
+        <v>2089</v>
       </c>
     </row>
     <row r="365" spans="1:12" s="22" customFormat="1">
@@ -27881,20 +27869,20 @@
         <v>0</v>
       </c>
       <c r="C365" s="56" t="s">
-        <v>2104</v>
+        <v>2102</v>
       </c>
       <c r="D365" s="29" t="s">
-        <v>2105</v>
+        <v>2103</v>
       </c>
       <c r="E365" s="28"/>
       <c r="F365" s="28"/>
       <c r="G365" s="28">
         <v>396</v>
       </c>
-      <c r="H365" s="113" t="b">
-        <v>1</v>
-      </c>
-      <c r="I365" s="113" t="b">
+      <c r="H365" s="111" t="b">
+        <v>1</v>
+      </c>
+      <c r="I365" s="111" t="b">
         <v>1</v>
       </c>
       <c r="J365" s="29" t="s">
@@ -27904,7 +27892,7 @@
         <v>1612828800</v>
       </c>
       <c r="L365" s="29" t="s">
-        <v>2106</v>
+        <v>2104</v>
       </c>
     </row>
     <row r="366" spans="1:12" s="22" customFormat="1">
@@ -27915,10 +27903,10 @@
         <v>1</v>
       </c>
       <c r="C366" s="66" t="s">
+        <v>2127</v>
+      </c>
+      <c r="D366" s="66" t="s">
         <v>2129</v>
-      </c>
-      <c r="D366" s="66" t="s">
-        <v>2131</v>
       </c>
       <c r="E366" s="65"/>
       <c r="F366" s="65"/>
@@ -27938,7 +27926,7 @@
         <v>1615248000</v>
       </c>
       <c r="L366" s="66" t="s">
-        <v>2126</v>
+        <v>2124</v>
       </c>
     </row>
     <row r="367" spans="1:12" s="22" customFormat="1">
@@ -27949,10 +27937,10 @@
         <v>1</v>
       </c>
       <c r="C367" s="66" t="s">
+        <v>2128</v>
+      </c>
+      <c r="D367" s="66" t="s">
         <v>2130</v>
-      </c>
-      <c r="D367" s="66" t="s">
-        <v>2132</v>
       </c>
       <c r="E367" s="65"/>
       <c r="F367" s="65"/>
@@ -27972,7 +27960,7 @@
         <v>1615248000</v>
       </c>
       <c r="L367" s="66" t="s">
-        <v>2126</v>
+        <v>2132</v>
       </c>
     </row>
   </sheetData>
@@ -30189,7 +30177,7 @@
         <v>852</v>
       </c>
       <c r="D94" s="10" t="s">
-        <v>1911</v>
+        <v>1909</v>
       </c>
       <c r="E94" s="8">
         <v>2</v>
@@ -31351,152 +31339,152 @@
         <v>908</v>
       </c>
     </row>
-    <row r="145" spans="1:9" s="98" customFormat="1">
-      <c r="A145" s="98">
+    <row r="145" spans="1:9" s="96" customFormat="1">
+      <c r="A145" s="96">
         <v>144</v>
       </c>
-      <c r="B145" s="98">
+      <c r="B145" s="96">
         <v>72</v>
       </c>
-      <c r="C145" s="99" t="s">
+      <c r="C145" s="97" t="s">
         <v>852</v>
       </c>
-      <c r="D145" s="99" t="s">
+      <c r="D145" s="97" t="s">
         <v>917</v>
       </c>
-      <c r="E145" s="98">
-        <v>2</v>
-      </c>
-      <c r="F145" s="98">
-        <v>1</v>
-      </c>
-      <c r="G145" s="99" t="s">
+      <c r="E145" s="96">
+        <v>2</v>
+      </c>
+      <c r="F145" s="96">
+        <v>1</v>
+      </c>
+      <c r="G145" s="97" t="s">
         <v>918</v>
       </c>
       <c r="H145" s="8"/>
       <c r="I145" s="8"/>
     </row>
-    <row r="146" spans="1:9" s="98" customFormat="1">
-      <c r="A146" s="98">
+    <row r="146" spans="1:9" s="96" customFormat="1">
+      <c r="A146" s="96">
         <v>145</v>
       </c>
-      <c r="B146" s="98">
+      <c r="B146" s="96">
         <v>72</v>
       </c>
-      <c r="C146" s="99" t="s">
+      <c r="C146" s="97" t="s">
         <v>1032</v>
       </c>
-      <c r="D146" s="99" t="s">
+      <c r="D146" s="97" t="s">
         <v>1044</v>
       </c>
-      <c r="E146" s="98">
-        <v>2</v>
-      </c>
-      <c r="F146" s="98">
-        <v>1</v>
-      </c>
-      <c r="G146" s="99" t="s">
+      <c r="E146" s="96">
+        <v>2</v>
+      </c>
+      <c r="F146" s="96">
+        <v>1</v>
+      </c>
+      <c r="G146" s="97" t="s">
         <v>1078</v>
       </c>
       <c r="H146" s="8"/>
       <c r="I146" s="8"/>
     </row>
-    <row r="147" spans="1:9" s="98" customFormat="1">
-      <c r="A147" s="98">
+    <row r="147" spans="1:9" s="96" customFormat="1">
+      <c r="A147" s="96">
         <v>146</v>
       </c>
-      <c r="B147" s="98">
+      <c r="B147" s="96">
         <v>72</v>
       </c>
-      <c r="C147" s="99" t="s">
+      <c r="C147" s="97" t="s">
         <v>1032</v>
       </c>
-      <c r="D147" s="99" t="s">
+      <c r="D147" s="97" t="s">
         <v>1818</v>
       </c>
-      <c r="E147" s="98">
-        <v>2</v>
-      </c>
-      <c r="F147" s="98">
-        <v>2</v>
-      </c>
-      <c r="G147" s="99" t="s">
+      <c r="E147" s="96">
+        <v>2</v>
+      </c>
+      <c r="F147" s="96">
+        <v>2</v>
+      </c>
+      <c r="G147" s="97" t="s">
         <v>939</v>
       </c>
       <c r="H147" s="8"/>
       <c r="I147" s="8"/>
     </row>
-    <row r="148" spans="1:9" s="98" customFormat="1">
-      <c r="A148" s="98">
+    <row r="148" spans="1:9" s="96" customFormat="1">
+      <c r="A148" s="96">
         <v>147</v>
       </c>
-      <c r="B148" s="98">
+      <c r="B148" s="96">
         <v>72</v>
       </c>
-      <c r="C148" s="99" t="s">
+      <c r="C148" s="97" t="s">
         <v>852</v>
       </c>
-      <c r="D148" s="99" t="s">
+      <c r="D148" s="97" t="s">
         <v>924</v>
       </c>
-      <c r="E148" s="98">
-        <v>2</v>
-      </c>
-      <c r="F148" s="98">
+      <c r="E148" s="96">
+        <v>2</v>
+      </c>
+      <c r="F148" s="96">
         <v>3</v>
       </c>
-      <c r="G148" s="99" t="s">
+      <c r="G148" s="97" t="s">
         <v>944</v>
       </c>
       <c r="H148" s="8"/>
       <c r="I148" s="8"/>
     </row>
-    <row r="149" spans="1:9" s="98" customFormat="1">
-      <c r="A149" s="98">
+    <row r="149" spans="1:9" s="96" customFormat="1">
+      <c r="A149" s="96">
         <v>148</v>
       </c>
-      <c r="B149" s="98">
+      <c r="B149" s="96">
         <v>72</v>
       </c>
-      <c r="C149" s="99" t="s">
+      <c r="C149" s="97" t="s">
         <v>1032</v>
       </c>
-      <c r="D149" s="99" t="s">
+      <c r="D149" s="97" t="s">
         <v>1058</v>
       </c>
-      <c r="E149" s="98">
-        <v>2</v>
-      </c>
-      <c r="F149" s="98">
+      <c r="E149" s="96">
+        <v>2</v>
+      </c>
+      <c r="F149" s="96">
         <v>3</v>
       </c>
-      <c r="G149" s="99" t="s">
+      <c r="G149" s="97" t="s">
         <v>1072</v>
       </c>
       <c r="H149" s="8"/>
       <c r="I149" s="8"/>
     </row>
-    <row r="150" spans="1:9" s="98" customFormat="1">
-      <c r="A150" s="98">
+    <row r="150" spans="1:9" s="96" customFormat="1">
+      <c r="A150" s="96">
         <v>149</v>
       </c>
-      <c r="B150" s="98">
+      <c r="B150" s="96">
         <v>72</v>
       </c>
-      <c r="C150" s="99" t="s">
+      <c r="C150" s="97" t="s">
         <v>1032</v>
       </c>
-      <c r="D150" s="99" t="s">
-        <v>1926</v>
-      </c>
-      <c r="E150" s="98">
-        <v>2</v>
-      </c>
-      <c r="F150" s="98">
+      <c r="D150" s="97" t="s">
+        <v>1924</v>
+      </c>
+      <c r="E150" s="96">
+        <v>2</v>
+      </c>
+      <c r="F150" s="96">
         <v>4</v>
       </c>
-      <c r="G150" s="99" t="s">
-        <v>1927</v>
+      <c r="G150" s="97" t="s">
+        <v>1925</v>
       </c>
       <c r="H150" s="8"/>
       <c r="I150" s="8"/>
@@ -32179,7 +32167,7 @@
         <v>1032</v>
       </c>
       <c r="D180" s="80" t="s">
-        <v>1905</v>
+        <v>1903</v>
       </c>
       <c r="E180" s="14">
         <v>2</v>
@@ -32611,7 +32599,7 @@
         <v>1032</v>
       </c>
       <c r="D198" s="91" t="s">
-        <v>1905</v>
+        <v>1903</v>
       </c>
       <c r="E198" s="89">
         <v>2</v>
@@ -42116,7 +42104,7 @@
         <v>1142</v>
       </c>
       <c r="D600" s="15" t="s">
-        <v>1905</v>
+        <v>1903</v>
       </c>
       <c r="E600" s="14">
         <v>2</v>
@@ -42266,7 +42254,7 @@
         <v>1142</v>
       </c>
       <c r="D606" s="15" t="s">
-        <v>1905</v>
+        <v>1903</v>
       </c>
       <c r="E606" s="14">
         <v>2</v>
@@ -42416,7 +42404,7 @@
         <v>1142</v>
       </c>
       <c r="D612" s="15" t="s">
-        <v>1905</v>
+        <v>1903</v>
       </c>
       <c r="E612" s="14">
         <v>2</v>
@@ -42566,7 +42554,7 @@
         <v>1142</v>
       </c>
       <c r="D618" s="15" t="s">
-        <v>1905</v>
+        <v>1903</v>
       </c>
       <c r="E618" s="14">
         <v>2</v>
@@ -42716,7 +42704,7 @@
         <v>1142</v>
       </c>
       <c r="D624" s="15" t="s">
-        <v>1905</v>
+        <v>1903</v>
       </c>
       <c r="E624" s="14">
         <v>2</v>
@@ -42866,7 +42854,7 @@
         <v>1142</v>
       </c>
       <c r="D630" s="15" t="s">
-        <v>1905</v>
+        <v>1903</v>
       </c>
       <c r="E630" s="14">
         <v>2</v>
@@ -45472,7 +45460,7 @@
         <v>2</v>
       </c>
       <c r="G735" s="19" t="s">
-        <v>1954</v>
+        <v>1952</v>
       </c>
       <c r="H735" s="8"/>
       <c r="I735" s="8"/>
@@ -45672,7 +45660,7 @@
         <v>2</v>
       </c>
       <c r="G743" s="19" t="s">
-        <v>1953</v>
+        <v>1951</v>
       </c>
       <c r="H743" s="8"/>
       <c r="I743" s="8"/>
@@ -47213,7 +47201,7 @@
         <v>1032</v>
       </c>
       <c r="D805" s="9" t="s">
-        <v>1905</v>
+        <v>1903</v>
       </c>
       <c r="E805" s="9">
         <v>5</v>
@@ -47288,7 +47276,7 @@
         <v>1032</v>
       </c>
       <c r="D808" s="10" t="s">
-        <v>1943</v>
+        <v>1941</v>
       </c>
       <c r="E808" s="9">
         <v>5</v>
@@ -47638,7 +47626,7 @@
         <v>1032</v>
       </c>
       <c r="D822" s="9" t="s">
-        <v>1998</v>
+        <v>1996</v>
       </c>
       <c r="E822" s="9">
         <v>2</v>
@@ -47763,7 +47751,7 @@
         <v>1032</v>
       </c>
       <c r="D827" s="9" t="s">
-        <v>1905</v>
+        <v>1903</v>
       </c>
       <c r="E827" s="9">
         <v>5</v>
@@ -47813,7 +47801,7 @@
         <v>1032</v>
       </c>
       <c r="D829" s="9" t="s">
-        <v>1905</v>
+        <v>1903</v>
       </c>
       <c r="E829" s="9">
         <v>5</v>
@@ -47831,7 +47819,7 @@
       <c r="A830" s="8">
         <v>829</v>
       </c>
-      <c r="B830" s="100">
+      <c r="B830" s="98">
         <v>330</v>
       </c>
       <c r="C830" s="19" t="s">
@@ -47856,22 +47844,22 @@
       <c r="A831" s="8">
         <v>830</v>
       </c>
-      <c r="B831" s="101">
+      <c r="B831" s="99">
         <v>331</v>
       </c>
-      <c r="C831" s="101" t="s">
+      <c r="C831" s="99" t="s">
         <v>865</v>
       </c>
-      <c r="D831" s="101">
+      <c r="D831" s="99">
         <v>4</v>
       </c>
-      <c r="E831" s="101">
+      <c r="E831" s="99">
         <v>3</v>
       </c>
-      <c r="F831" s="101">
-        <v>1</v>
-      </c>
-      <c r="G831" s="102" t="s">
+      <c r="F831" s="99">
+        <v>1</v>
+      </c>
+      <c r="G831" s="100" t="s">
         <v>1765</v>
       </c>
       <c r="H831" s="8"/>
@@ -47881,22 +47869,22 @@
       <c r="A832" s="8">
         <v>831</v>
       </c>
-      <c r="B832" s="101">
+      <c r="B832" s="99">
         <v>331</v>
       </c>
-      <c r="C832" s="101" t="s">
+      <c r="C832" s="99" t="s">
         <v>865</v>
       </c>
-      <c r="D832" s="101">
+      <c r="D832" s="99">
         <v>10</v>
       </c>
-      <c r="E832" s="101">
+      <c r="E832" s="99">
         <v>4</v>
       </c>
-      <c r="F832" s="101">
-        <v>1</v>
-      </c>
-      <c r="G832" s="102" t="s">
+      <c r="F832" s="99">
+        <v>1</v>
+      </c>
+      <c r="G832" s="100" t="s">
         <v>1764</v>
       </c>
       <c r="H832" s="8"/>
@@ -47938,7 +47926,7 @@
         <v>1032</v>
       </c>
       <c r="D834" s="9" t="s">
-        <v>1905</v>
+        <v>1903</v>
       </c>
       <c r="E834" s="9">
         <v>5</v>
@@ -47988,7 +47976,7 @@
         <v>1032</v>
       </c>
       <c r="D836" s="9" t="s">
-        <v>1905</v>
+        <v>1903</v>
       </c>
       <c r="E836" s="9">
         <v>2</v>
@@ -48038,7 +48026,7 @@
         <v>1032</v>
       </c>
       <c r="D838" s="9" t="s">
-        <v>1905</v>
+        <v>1903</v>
       </c>
       <c r="E838" s="9">
         <v>2</v>
@@ -48088,7 +48076,7 @@
         <v>1032</v>
       </c>
       <c r="D840" s="9" t="s">
-        <v>1905</v>
+        <v>1903</v>
       </c>
       <c r="E840" s="9">
         <v>5</v>
@@ -48188,7 +48176,7 @@
         <v>1032</v>
       </c>
       <c r="D844" s="14" t="s">
-        <v>1905</v>
+        <v>1903</v>
       </c>
       <c r="E844" s="14">
         <v>5</v>
@@ -48197,7 +48185,7 @@
         <v>1</v>
       </c>
       <c r="G844" s="14" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
       <c r="H844" s="8"/>
       <c r="I844" s="8"/>
@@ -48210,19 +48198,19 @@
         <v>339</v>
       </c>
       <c r="C845" s="10" t="s">
-        <v>1843</v>
+        <v>1841</v>
       </c>
       <c r="D845" s="10" t="s">
+        <v>1840</v>
+      </c>
+      <c r="E845" s="8">
+        <v>2</v>
+      </c>
+      <c r="F845" s="8">
+        <v>1</v>
+      </c>
+      <c r="G845" s="10" t="s">
         <v>1842</v>
-      </c>
-      <c r="E845" s="8">
-        <v>2</v>
-      </c>
-      <c r="F845" s="8">
-        <v>1</v>
-      </c>
-      <c r="G845" s="10" t="s">
-        <v>1844</v>
       </c>
       <c r="H845" s="8" t="s">
         <v>859</v>
@@ -48242,7 +48230,7 @@
         <v>1146</v>
       </c>
       <c r="D846" s="10" t="s">
-        <v>1905</v>
+        <v>1903</v>
       </c>
       <c r="E846" s="8">
         <v>5</v>
@@ -48251,7 +48239,7 @@
         <v>1</v>
       </c>
       <c r="G846" s="10" t="s">
-        <v>1883</v>
+        <v>1881</v>
       </c>
       <c r="H846" s="8"/>
       <c r="I846" s="8"/>
@@ -48267,7 +48255,7 @@
         <v>1146</v>
       </c>
       <c r="D847" s="10" t="s">
-        <v>1905</v>
+        <v>1903</v>
       </c>
       <c r="E847" s="8">
         <v>2</v>
@@ -48276,7 +48264,7 @@
         <v>1</v>
       </c>
       <c r="G847" s="10" t="s">
-        <v>1894</v>
+        <v>1892</v>
       </c>
       <c r="H847" s="8" t="s">
         <v>863</v>
@@ -48289,23 +48277,23 @@
       <c r="A848" s="8">
         <v>847</v>
       </c>
-      <c r="B848" s="96">
+      <c r="B848" s="94">
         <v>342</v>
       </c>
-      <c r="C848" s="97" t="s">
+      <c r="C848" s="95" t="s">
         <v>1032</v>
       </c>
-      <c r="D848" s="97" t="s">
-        <v>1895</v>
-      </c>
-      <c r="E848" s="96">
-        <v>2</v>
-      </c>
-      <c r="F848" s="96">
-        <v>1</v>
-      </c>
-      <c r="G848" s="97" t="s">
-        <v>1896</v>
+      <c r="D848" s="95" t="s">
+        <v>1893</v>
+      </c>
+      <c r="E848" s="94">
+        <v>2</v>
+      </c>
+      <c r="F848" s="94">
+        <v>1</v>
+      </c>
+      <c r="G848" s="95" t="s">
+        <v>1894</v>
       </c>
       <c r="H848" s="8"/>
       <c r="I848" s="8"/>
@@ -48314,23 +48302,23 @@
       <c r="A849" s="8">
         <v>848</v>
       </c>
-      <c r="B849" s="96">
+      <c r="B849" s="94">
         <v>342</v>
       </c>
-      <c r="C849" s="96" t="s">
+      <c r="C849" s="94" t="s">
         <v>865</v>
       </c>
-      <c r="D849" s="96">
-        <v>1</v>
-      </c>
-      <c r="E849" s="96">
+      <c r="D849" s="94">
+        <v>1</v>
+      </c>
+      <c r="E849" s="94">
         <v>3</v>
       </c>
-      <c r="F849" s="96">
-        <v>1</v>
-      </c>
-      <c r="G849" s="97" t="s">
-        <v>1886</v>
+      <c r="F849" s="94">
+        <v>1</v>
+      </c>
+      <c r="G849" s="95" t="s">
+        <v>1884</v>
       </c>
       <c r="H849" s="8"/>
       <c r="I849" s="8"/>
@@ -48339,22 +48327,22 @@
       <c r="A850" s="8">
         <v>849</v>
       </c>
-      <c r="B850" s="96">
+      <c r="B850" s="94">
         <v>342</v>
       </c>
-      <c r="C850" s="97" t="s">
+      <c r="C850" s="95" t="s">
         <v>1032</v>
       </c>
-      <c r="D850" s="97" t="s">
-        <v>1892</v>
-      </c>
-      <c r="E850" s="96">
-        <v>2</v>
-      </c>
-      <c r="F850" s="96">
-        <v>2</v>
-      </c>
-      <c r="G850" s="97" t="s">
+      <c r="D850" s="95" t="s">
+        <v>1890</v>
+      </c>
+      <c r="E850" s="94">
+        <v>2</v>
+      </c>
+      <c r="F850" s="94">
+        <v>2</v>
+      </c>
+      <c r="G850" s="95" t="s">
         <v>1664</v>
       </c>
       <c r="H850" s="8"/>
@@ -48364,23 +48352,23 @@
       <c r="A851" s="8">
         <v>850</v>
       </c>
-      <c r="B851" s="96">
+      <c r="B851" s="94">
         <v>342</v>
       </c>
-      <c r="C851" s="96" t="s">
+      <c r="C851" s="94" t="s">
         <v>865</v>
       </c>
-      <c r="D851" s="96">
-        <v>1</v>
-      </c>
-      <c r="E851" s="96">
+      <c r="D851" s="94">
+        <v>1</v>
+      </c>
+      <c r="E851" s="94">
         <v>3</v>
       </c>
-      <c r="F851" s="96">
-        <v>2</v>
-      </c>
-      <c r="G851" s="97" t="s">
-        <v>1886</v>
+      <c r="F851" s="94">
+        <v>2</v>
+      </c>
+      <c r="G851" s="95" t="s">
+        <v>1884</v>
       </c>
       <c r="H851" s="8"/>
       <c r="I851" s="8"/>
@@ -48389,23 +48377,23 @@
       <c r="A852" s="8">
         <v>851</v>
       </c>
-      <c r="B852" s="96">
+      <c r="B852" s="94">
         <v>342</v>
       </c>
-      <c r="C852" s="97" t="s">
+      <c r="C852" s="95" t="s">
         <v>1032</v>
       </c>
-      <c r="D852" s="97" t="s">
-        <v>1893</v>
-      </c>
-      <c r="E852" s="96">
-        <v>2</v>
-      </c>
-      <c r="F852" s="96">
+      <c r="D852" s="95" t="s">
+        <v>1891</v>
+      </c>
+      <c r="E852" s="94">
+        <v>2</v>
+      </c>
+      <c r="F852" s="94">
         <v>3</v>
       </c>
-      <c r="G852" s="97" t="s">
-        <v>1885</v>
+      <c r="G852" s="95" t="s">
+        <v>1883</v>
       </c>
       <c r="H852" s="8"/>
       <c r="I852" s="8"/>
@@ -48414,23 +48402,23 @@
       <c r="A853" s="8">
         <v>852</v>
       </c>
-      <c r="B853" s="96">
+      <c r="B853" s="94">
         <v>342</v>
       </c>
-      <c r="C853" s="96" t="s">
+      <c r="C853" s="94" t="s">
         <v>865</v>
       </c>
-      <c r="D853" s="96">
-        <v>1</v>
-      </c>
-      <c r="E853" s="96">
+      <c r="D853" s="94">
+        <v>1</v>
+      </c>
+      <c r="E853" s="94">
         <v>3</v>
       </c>
-      <c r="F853" s="96">
+      <c r="F853" s="94">
         <v>3</v>
       </c>
-      <c r="G853" s="97" t="s">
-        <v>1886</v>
+      <c r="G853" s="95" t="s">
+        <v>1884</v>
       </c>
       <c r="H853" s="8"/>
       <c r="I853" s="8"/>
@@ -48439,23 +48427,23 @@
       <c r="A854" s="8">
         <v>853</v>
       </c>
-      <c r="B854" s="96">
+      <c r="B854" s="94">
         <v>342</v>
       </c>
-      <c r="C854" s="96" t="s">
+      <c r="C854" s="94" t="s">
         <v>1032</v>
       </c>
-      <c r="D854" s="96" t="s">
-        <v>1905</v>
-      </c>
-      <c r="E854" s="96">
-        <v>2</v>
-      </c>
-      <c r="F854" s="96">
+      <c r="D854" s="94" t="s">
+        <v>1903</v>
+      </c>
+      <c r="E854" s="94">
+        <v>2</v>
+      </c>
+      <c r="F854" s="94">
         <v>4</v>
       </c>
-      <c r="G854" s="97" t="s">
-        <v>1886</v>
+      <c r="G854" s="95" t="s">
+        <v>1884</v>
       </c>
       <c r="H854" s="8"/>
       <c r="I854" s="8"/>
@@ -48464,23 +48452,23 @@
       <c r="A855" s="8">
         <v>854</v>
       </c>
-      <c r="B855" s="96">
+      <c r="B855" s="94">
         <v>342</v>
       </c>
-      <c r="C855" s="96" t="s">
+      <c r="C855" s="94" t="s">
         <v>865</v>
       </c>
-      <c r="D855" s="96">
-        <v>1</v>
-      </c>
-      <c r="E855" s="96">
+      <c r="D855" s="94">
+        <v>1</v>
+      </c>
+      <c r="E855" s="94">
         <v>3</v>
       </c>
-      <c r="F855" s="96">
+      <c r="F855" s="94">
         <v>4</v>
       </c>
-      <c r="G855" s="97" t="s">
-        <v>1897</v>
+      <c r="G855" s="95" t="s">
+        <v>1895</v>
       </c>
     </row>
     <row r="856" spans="1:9" s="8" customFormat="1">
@@ -48491,7 +48479,7 @@
         <v>343</v>
       </c>
       <c r="C856" s="49" t="s">
-        <v>1898</v>
+        <v>1896</v>
       </c>
       <c r="D856" s="9">
         <v>1</v>
@@ -48503,7 +48491,7 @@
         <v>1</v>
       </c>
       <c r="G856" s="10" t="s">
-        <v>1899</v>
+        <v>1897</v>
       </c>
     </row>
     <row r="857" spans="1:9" s="8" customFormat="1">
@@ -48514,10 +48502,10 @@
         <v>343</v>
       </c>
       <c r="C857" s="10" t="s">
+        <v>1880</v>
+      </c>
+      <c r="D857" s="10" t="s">
         <v>1882</v>
-      </c>
-      <c r="D857" s="10" t="s">
-        <v>1884</v>
       </c>
       <c r="E857" s="8">
         <v>5</v>
@@ -48526,10 +48514,10 @@
         <v>1</v>
       </c>
       <c r="G857" s="10" t="s">
-        <v>1888</v>
-      </c>
-    </row>
-    <row r="858" spans="1:9" s="96" customFormat="1">
+        <v>1886</v>
+      </c>
+    </row>
+    <row r="858" spans="1:9" s="94" customFormat="1">
       <c r="A858" s="8">
         <v>857</v>
       </c>
@@ -48537,7 +48525,7 @@
         <v>343</v>
       </c>
       <c r="C858" s="10" t="s">
-        <v>1889</v>
+        <v>1887</v>
       </c>
       <c r="D858" s="8">
         <v>9</v>
@@ -48549,12 +48537,12 @@
         <v>2</v>
       </c>
       <c r="G858" s="10" t="s">
-        <v>1900</v>
+        <v>1898</v>
       </c>
       <c r="H858" s="8"/>
       <c r="I858" s="8"/>
     </row>
-    <row r="859" spans="1:9" s="96" customFormat="1">
+    <row r="859" spans="1:9" s="94" customFormat="1">
       <c r="A859" s="8">
         <v>858</v>
       </c>
@@ -48565,7 +48553,7 @@
         <v>1146</v>
       </c>
       <c r="D859" s="10" t="s">
-        <v>1908</v>
+        <v>1906</v>
       </c>
       <c r="E859" s="8">
         <v>5</v>
@@ -48574,12 +48562,12 @@
         <v>2</v>
       </c>
       <c r="G859" s="10" t="s">
-        <v>1890</v>
+        <v>1888</v>
       </c>
       <c r="H859" s="8"/>
       <c r="I859" s="8"/>
     </row>
-    <row r="860" spans="1:9" s="96" customFormat="1">
+    <row r="860" spans="1:9" s="94" customFormat="1">
       <c r="A860" s="8">
         <v>859</v>
       </c>
@@ -48590,7 +48578,7 @@
         <v>1146</v>
       </c>
       <c r="D860" s="10" t="s">
-        <v>1887</v>
+        <v>1885</v>
       </c>
       <c r="E860" s="8">
         <v>2</v>
@@ -48599,12 +48587,12 @@
         <v>3</v>
       </c>
       <c r="G860" s="10" t="s">
-        <v>1888</v>
+        <v>1886</v>
       </c>
       <c r="H860" s="8"/>
       <c r="I860" s="8"/>
     </row>
-    <row r="861" spans="1:9" s="96" customFormat="1">
+    <row r="861" spans="1:9" s="94" customFormat="1">
       <c r="A861" s="8">
         <v>860</v>
       </c>
@@ -48615,7 +48603,7 @@
         <v>1146</v>
       </c>
       <c r="D861" s="10" t="s">
-        <v>1905</v>
+        <v>1903</v>
       </c>
       <c r="E861" s="8">
         <v>2</v>
@@ -48624,12 +48612,12 @@
         <v>4</v>
       </c>
       <c r="G861" s="10" t="s">
-        <v>1891</v>
+        <v>1889</v>
       </c>
       <c r="H861" s="8"/>
       <c r="I861" s="8"/>
     </row>
-    <row r="862" spans="1:9" s="96" customFormat="1">
+    <row r="862" spans="1:9" s="94" customFormat="1">
       <c r="A862" s="8">
         <v>861</v>
       </c>
@@ -48640,7 +48628,7 @@
         <v>852</v>
       </c>
       <c r="D862" s="10" t="s">
-        <v>1933</v>
+        <v>1931</v>
       </c>
       <c r="E862" s="8">
         <v>5</v>
@@ -48654,7 +48642,7 @@
       <c r="H862" s="8"/>
       <c r="I862" s="8"/>
     </row>
-    <row r="863" spans="1:9" s="96" customFormat="1">
+    <row r="863" spans="1:9" s="94" customFormat="1">
       <c r="A863" s="8">
         <v>862</v>
       </c>
@@ -48679,7 +48667,7 @@
       <c r="H863" s="8"/>
       <c r="I863" s="8"/>
     </row>
-    <row r="864" spans="1:9" s="96" customFormat="1">
+    <row r="864" spans="1:9" s="94" customFormat="1">
       <c r="A864" s="8">
         <v>863</v>
       </c>
@@ -48690,7 +48678,7 @@
         <v>1032</v>
       </c>
       <c r="D864" s="10" t="s">
-        <v>1934</v>
+        <v>1932</v>
       </c>
       <c r="E864" s="8">
         <v>2</v>
@@ -48704,7 +48692,7 @@
       <c r="H864" s="8"/>
       <c r="I864" s="8"/>
     </row>
-    <row r="865" spans="1:9" s="96" customFormat="1">
+    <row r="865" spans="1:9" s="94" customFormat="1">
       <c r="A865" s="8">
         <v>864</v>
       </c>
@@ -48740,7 +48728,7 @@
         <v>852</v>
       </c>
       <c r="D866" s="10" t="s">
-        <v>1933</v>
+        <v>1931</v>
       </c>
       <c r="E866" s="8">
         <v>2</v>
@@ -48790,7 +48778,7 @@
         <v>1032</v>
       </c>
       <c r="D868" s="10" t="s">
-        <v>1917</v>
+        <v>1915</v>
       </c>
       <c r="E868" s="8">
         <v>2</v>
@@ -48840,7 +48828,7 @@
         <v>1142</v>
       </c>
       <c r="D870" s="10" t="s">
-        <v>1906</v>
+        <v>1904</v>
       </c>
       <c r="E870" s="8">
         <v>2</v>
@@ -48849,7 +48837,7 @@
         <v>1</v>
       </c>
       <c r="G870" s="10" t="s">
-        <v>1912</v>
+        <v>1910</v>
       </c>
       <c r="H870" s="8"/>
       <c r="I870" s="8"/>
@@ -48865,7 +48853,7 @@
         <v>1032</v>
       </c>
       <c r="D871" s="8" t="s">
-        <v>1907</v>
+        <v>1905</v>
       </c>
       <c r="E871" s="8">
         <v>2</v>
@@ -48874,7 +48862,7 @@
         <v>2</v>
       </c>
       <c r="G871" s="10" t="s">
-        <v>1913</v>
+        <v>1911</v>
       </c>
       <c r="H871" s="8"/>
       <c r="I871" s="8"/>
@@ -48890,7 +48878,7 @@
         <v>1032</v>
       </c>
       <c r="D872" s="10" t="s">
-        <v>1909</v>
+        <v>1907</v>
       </c>
       <c r="E872" s="8">
         <v>2</v>
@@ -48899,7 +48887,7 @@
         <v>3</v>
       </c>
       <c r="G872" s="10" t="s">
-        <v>1914</v>
+        <v>1912</v>
       </c>
     </row>
     <row r="873" spans="1:9" s="8" customFormat="1">
@@ -48913,7 +48901,7 @@
         <v>1032</v>
       </c>
       <c r="D873" s="10" t="s">
-        <v>1910</v>
+        <v>1908</v>
       </c>
       <c r="E873" s="8">
         <v>2</v>
@@ -48922,7 +48910,7 @@
         <v>4</v>
       </c>
       <c r="G873" s="10" t="s">
-        <v>1915</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="874" spans="1:9" s="8" customFormat="1">
@@ -48936,7 +48924,7 @@
         <v>1146</v>
       </c>
       <c r="D874" s="10" t="s">
-        <v>1908</v>
+        <v>1906</v>
       </c>
       <c r="E874" s="8">
         <v>2</v>
@@ -48945,7 +48933,7 @@
         <v>1</v>
       </c>
       <c r="G874" s="10" t="s">
-        <v>1890</v>
+        <v>1888</v>
       </c>
     </row>
     <row r="875" spans="1:9" s="8" customFormat="1">
@@ -48959,7 +48947,7 @@
         <v>1142</v>
       </c>
       <c r="D875" s="10" t="s">
-        <v>1908</v>
+        <v>1906</v>
       </c>
       <c r="E875" s="8">
         <v>5</v>
@@ -48968,7 +48956,7 @@
         <v>1</v>
       </c>
       <c r="G875" s="10" t="s">
-        <v>1890</v>
+        <v>1888</v>
       </c>
     </row>
     <row r="876" spans="1:9" s="8" customFormat="1">
@@ -48991,7 +48979,7 @@
         <v>1</v>
       </c>
       <c r="G876" s="10" t="s">
-        <v>1925</v>
+        <v>1923</v>
       </c>
     </row>
     <row r="877" spans="1:9" s="8" customFormat="1">
@@ -49028,7 +49016,7 @@
         <v>1142</v>
       </c>
       <c r="D878" s="10" t="s">
-        <v>1902</v>
+        <v>1900</v>
       </c>
       <c r="E878" s="8">
         <v>5</v>
@@ -49037,7 +49025,7 @@
         <v>1</v>
       </c>
       <c r="G878" s="10" t="s">
-        <v>1912</v>
+        <v>1910</v>
       </c>
     </row>
     <row r="879" spans="1:9" s="8" customFormat="1">
@@ -49051,7 +49039,7 @@
         <v>1142</v>
       </c>
       <c r="D879" s="10" t="s">
-        <v>1902</v>
+        <v>1900</v>
       </c>
       <c r="E879" s="8">
         <v>2</v>
@@ -49060,7 +49048,7 @@
         <v>1</v>
       </c>
       <c r="G879" s="10" t="s">
-        <v>1912</v>
+        <v>1910</v>
       </c>
     </row>
     <row r="880" spans="1:9">
@@ -49071,7 +49059,7 @@
         <v>352</v>
       </c>
       <c r="C880" s="10" t="s">
-        <v>1940</v>
+        <v>1938</v>
       </c>
       <c r="D880" s="10" t="s">
         <v>1600</v>
@@ -49083,7 +49071,7 @@
         <v>2</v>
       </c>
       <c r="G880" s="10" t="s">
-        <v>1941</v>
+        <v>1939</v>
       </c>
       <c r="H880" s="8"/>
       <c r="I880" s="8"/>
@@ -49108,7 +49096,7 @@
         <v>3</v>
       </c>
       <c r="G881" s="10" t="s">
-        <v>1942</v>
+        <v>1940</v>
       </c>
       <c r="H881" s="8"/>
       <c r="I881" s="8"/>
@@ -49121,19 +49109,19 @@
         <v>353</v>
       </c>
       <c r="C882" s="10" t="s">
+        <v>1947</v>
+      </c>
+      <c r="D882" s="10" t="s">
+        <v>1948</v>
+      </c>
+      <c r="E882" s="8">
+        <v>2</v>
+      </c>
+      <c r="F882" s="8">
+        <v>1</v>
+      </c>
+      <c r="G882" s="10" t="s">
         <v>1949</v>
-      </c>
-      <c r="D882" s="10" t="s">
-        <v>1950</v>
-      </c>
-      <c r="E882" s="8">
-        <v>2</v>
-      </c>
-      <c r="F882" s="8">
-        <v>1</v>
-      </c>
-      <c r="G882" s="10" t="s">
-        <v>1951</v>
       </c>
       <c r="H882" s="8"/>
       <c r="I882" s="8"/>
@@ -49158,7 +49146,7 @@
         <v>1</v>
       </c>
       <c r="G883" s="10" t="s">
-        <v>1942</v>
+        <v>1940</v>
       </c>
       <c r="H883" s="8"/>
       <c r="I883" s="8"/>
@@ -49174,7 +49162,7 @@
         <v>1032</v>
       </c>
       <c r="D884" s="10" t="s">
-        <v>1917</v>
+        <v>1915</v>
       </c>
       <c r="E884" s="8">
         <v>5</v>
@@ -49208,7 +49196,7 @@
         <v>1</v>
       </c>
       <c r="G885" s="10" t="s">
-        <v>1956</v>
+        <v>1954</v>
       </c>
       <c r="H885" s="8"/>
       <c r="I885" s="8"/>
@@ -49258,7 +49246,7 @@
         <v>2</v>
       </c>
       <c r="G887" s="10" t="s">
-        <v>1956</v>
+        <v>1954</v>
       </c>
       <c r="H887" s="8"/>
       <c r="I887" s="8"/>
@@ -49274,7 +49262,7 @@
         <v>1142</v>
       </c>
       <c r="D888" s="10" t="s">
-        <v>1917</v>
+        <v>1915</v>
       </c>
       <c r="E888" s="8">
         <v>2</v>
@@ -49299,7 +49287,7 @@
         <v>1142</v>
       </c>
       <c r="D889" s="10" t="s">
-        <v>1961</v>
+        <v>1959</v>
       </c>
       <c r="E889" s="8">
         <v>5</v>
@@ -49308,7 +49296,7 @@
         <v>1</v>
       </c>
       <c r="G889" s="10" t="s">
-        <v>1962</v>
+        <v>1960</v>
       </c>
       <c r="H889" s="8"/>
       <c r="I889" s="8"/>
@@ -49333,7 +49321,7 @@
         <v>1</v>
       </c>
       <c r="G890" s="10" t="s">
-        <v>1963</v>
+        <v>1961</v>
       </c>
       <c r="H890" s="8"/>
       <c r="I890" s="8"/>
@@ -49349,7 +49337,7 @@
         <v>1142</v>
       </c>
       <c r="D891" s="10" t="s">
-        <v>1961</v>
+        <v>1959</v>
       </c>
       <c r="E891" s="8">
         <v>5</v>
@@ -49358,7 +49346,7 @@
         <v>1</v>
       </c>
       <c r="G891" s="10" t="s">
-        <v>1962</v>
+        <v>1960</v>
       </c>
       <c r="H891" s="8"/>
       <c r="I891" s="8"/>
@@ -49383,7 +49371,7 @@
         <v>1</v>
       </c>
       <c r="G892" s="10" t="s">
-        <v>1963</v>
+        <v>1961</v>
       </c>
       <c r="H892" s="8"/>
       <c r="I892" s="8"/>
@@ -49408,7 +49396,7 @@
         <v>1</v>
       </c>
       <c r="G893" s="10" t="s">
-        <v>1963</v>
+        <v>1961</v>
       </c>
     </row>
     <row r="894" spans="1:9">
@@ -49422,7 +49410,7 @@
         <v>1142</v>
       </c>
       <c r="D894" s="10" t="s">
-        <v>1961</v>
+        <v>1959</v>
       </c>
       <c r="E894" s="8">
         <v>5</v>
@@ -49431,7 +49419,7 @@
         <v>1</v>
       </c>
       <c r="G894" s="10" t="s">
-        <v>1962</v>
+        <v>1960</v>
       </c>
       <c r="H894" s="8"/>
       <c r="I894" s="8"/>
@@ -49456,7 +49444,7 @@
         <v>1</v>
       </c>
       <c r="G895" s="10" t="s">
-        <v>1963</v>
+        <v>1961</v>
       </c>
       <c r="H895" s="8"/>
       <c r="I895" s="8"/>
@@ -49481,7 +49469,7 @@
         <v>1</v>
       </c>
       <c r="G896" s="10" t="s">
-        <v>1963</v>
+        <v>1961</v>
       </c>
       <c r="H896" s="8"/>
       <c r="I896" s="8"/>
@@ -49497,7 +49485,7 @@
         <v>1142</v>
       </c>
       <c r="D897" s="10" t="s">
-        <v>1961</v>
+        <v>1959</v>
       </c>
       <c r="E897" s="8">
         <v>5</v>
@@ -49506,7 +49494,7 @@
         <v>1</v>
       </c>
       <c r="G897" s="10" t="s">
-        <v>1962</v>
+        <v>1960</v>
       </c>
       <c r="H897" s="8"/>
       <c r="I897" s="8"/>
@@ -49531,7 +49519,7 @@
         <v>1</v>
       </c>
       <c r="G898" s="10" t="s">
-        <v>1963</v>
+        <v>1961</v>
       </c>
       <c r="H898" s="8"/>
       <c r="I898" s="8"/>
@@ -49547,7 +49535,7 @@
         <v>1142</v>
       </c>
       <c r="D899" s="10" t="s">
-        <v>1961</v>
+        <v>1959</v>
       </c>
       <c r="E899" s="8">
         <v>2</v>
@@ -49556,7 +49544,7 @@
         <v>1</v>
       </c>
       <c r="G899" s="10" t="s">
-        <v>1962</v>
+        <v>1960</v>
       </c>
       <c r="H899" s="8"/>
       <c r="I899" s="8"/>
@@ -49581,7 +49569,7 @@
         <v>1</v>
       </c>
       <c r="G900" s="10" t="s">
-        <v>1963</v>
+        <v>1961</v>
       </c>
       <c r="H900" s="8"/>
       <c r="I900" s="8"/>
@@ -49597,7 +49585,7 @@
         <v>1142</v>
       </c>
       <c r="D901" s="10" t="s">
-        <v>1961</v>
+        <v>1959</v>
       </c>
       <c r="E901" s="8">
         <v>2</v>
@@ -49606,7 +49594,7 @@
         <v>1</v>
       </c>
       <c r="G901" s="10" t="s">
-        <v>1962</v>
+        <v>1960</v>
       </c>
     </row>
     <row r="902" spans="1:9" s="8" customFormat="1">
@@ -49629,7 +49617,7 @@
         <v>1</v>
       </c>
       <c r="G902" s="10" t="s">
-        <v>1963</v>
+        <v>1961</v>
       </c>
     </row>
     <row r="903" spans="1:9" s="8" customFormat="1">
@@ -49652,7 +49640,7 @@
         <v>1</v>
       </c>
       <c r="G903" s="10" t="s">
-        <v>1963</v>
+        <v>1961</v>
       </c>
     </row>
     <row r="904" spans="1:9" s="8" customFormat="1">
@@ -49666,7 +49654,7 @@
         <v>1142</v>
       </c>
       <c r="D904" s="10" t="s">
-        <v>1961</v>
+        <v>1959</v>
       </c>
       <c r="E904" s="8">
         <v>2</v>
@@ -49675,7 +49663,7 @@
         <v>1</v>
       </c>
       <c r="G904" s="10" t="s">
-        <v>1962</v>
+        <v>1960</v>
       </c>
     </row>
     <row r="905" spans="1:9" s="8" customFormat="1">
@@ -49698,7 +49686,7 @@
         <v>1</v>
       </c>
       <c r="G905" s="10" t="s">
-        <v>1963</v>
+        <v>1961</v>
       </c>
     </row>
     <row r="906" spans="1:9" s="8" customFormat="1">
@@ -49721,7 +49709,7 @@
         <v>1</v>
       </c>
       <c r="G906" s="10" t="s">
-        <v>1963</v>
+        <v>1961</v>
       </c>
     </row>
     <row r="907" spans="1:9" s="8" customFormat="1">
@@ -49735,7 +49723,7 @@
         <v>1142</v>
       </c>
       <c r="D907" s="10" t="s">
-        <v>1961</v>
+        <v>1959</v>
       </c>
       <c r="E907" s="8">
         <v>2</v>
@@ -49744,7 +49732,7 @@
         <v>1</v>
       </c>
       <c r="G907" s="10" t="s">
-        <v>1962</v>
+        <v>1960</v>
       </c>
     </row>
     <row r="908" spans="1:9" s="8" customFormat="1">
@@ -49767,7 +49755,7 @@
         <v>1</v>
       </c>
       <c r="G908" s="10" t="s">
-        <v>1963</v>
+        <v>1961</v>
       </c>
     </row>
     <row r="909" spans="1:9" s="8" customFormat="1">
@@ -49781,7 +49769,7 @@
         <v>1142</v>
       </c>
       <c r="D909" s="10" t="s">
-        <v>1960</v>
+        <v>1958</v>
       </c>
       <c r="E909" s="8">
         <v>2</v>
@@ -49790,7 +49778,7 @@
         <v>1</v>
       </c>
       <c r="G909" s="10" t="s">
-        <v>2063</v>
+        <v>2061</v>
       </c>
     </row>
     <row r="910" spans="1:9" s="8" customFormat="1">
@@ -49813,7 +49801,7 @@
         <v>1</v>
       </c>
       <c r="G910" s="10" t="s">
-        <v>1963</v>
+        <v>1961</v>
       </c>
     </row>
     <row r="911" spans="1:9" s="8" customFormat="1">
@@ -49827,7 +49815,7 @@
         <v>1142</v>
       </c>
       <c r="D911" s="10" t="s">
-        <v>1974</v>
+        <v>1972</v>
       </c>
       <c r="E911" s="8">
         <v>2</v>
@@ -49836,7 +49824,7 @@
         <v>2</v>
       </c>
       <c r="G911" s="10" t="s">
-        <v>2006</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="912" spans="1:9" s="8" customFormat="1">
@@ -49859,7 +49847,7 @@
         <v>2</v>
       </c>
       <c r="G912" s="10" t="s">
-        <v>1963</v>
+        <v>1961</v>
       </c>
     </row>
     <row r="913" spans="1:8" s="8" customFormat="1">
@@ -49882,7 +49870,7 @@
         <v>1</v>
       </c>
       <c r="G913" s="10" t="s">
-        <v>1979</v>
+        <v>1977</v>
       </c>
     </row>
     <row r="914" spans="1:8" s="8" customFormat="1">
@@ -49905,7 +49893,7 @@
         <v>1</v>
       </c>
       <c r="G914" s="10" t="s">
-        <v>1980</v>
+        <v>1978</v>
       </c>
     </row>
     <row r="915" spans="1:8" s="8" customFormat="1">
@@ -49928,7 +49916,7 @@
         <v>1</v>
       </c>
       <c r="G915" s="8" t="s">
-        <v>1985</v>
+        <v>1983</v>
       </c>
     </row>
     <row r="916" spans="1:8" s="8" customFormat="1">
@@ -49942,7 +49930,7 @@
         <v>1142</v>
       </c>
       <c r="D916" s="10" t="s">
-        <v>1902</v>
+        <v>1900</v>
       </c>
       <c r="E916" s="8">
         <v>2</v>
@@ -49951,7 +49939,7 @@
         <v>1</v>
       </c>
       <c r="G916" s="10" t="s">
-        <v>2007</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="917" spans="1:8" s="8" customFormat="1">
@@ -49962,19 +49950,19 @@
         <v>368</v>
       </c>
       <c r="C917" s="10" t="s">
+        <v>1987</v>
+      </c>
+      <c r="D917" s="10" t="s">
+        <v>1988</v>
+      </c>
+      <c r="E917" s="8">
+        <v>2</v>
+      </c>
+      <c r="F917" s="8">
+        <v>2</v>
+      </c>
+      <c r="G917" s="10" t="s">
         <v>1989</v>
-      </c>
-      <c r="D917" s="10" t="s">
-        <v>1990</v>
-      </c>
-      <c r="E917" s="8">
-        <v>2</v>
-      </c>
-      <c r="F917" s="8">
-        <v>2</v>
-      </c>
-      <c r="G917" s="10" t="s">
-        <v>1991</v>
       </c>
     </row>
     <row r="918" spans="1:8" s="8" customFormat="1">
@@ -49988,7 +49976,7 @@
         <v>1142</v>
       </c>
       <c r="D918" s="10" t="s">
-        <v>1973</v>
+        <v>1971</v>
       </c>
       <c r="E918" s="8">
         <v>2</v>
@@ -49997,7 +49985,7 @@
         <v>1</v>
       </c>
       <c r="G918" s="10" t="s">
-        <v>2006</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="919" spans="1:8" s="8" customFormat="1">
@@ -50011,7 +49999,7 @@
         <v>1142</v>
       </c>
       <c r="D919" s="10" t="s">
-        <v>1999</v>
+        <v>1997</v>
       </c>
       <c r="E919" s="8">
         <v>5</v>
@@ -50020,7 +50008,7 @@
         <v>2</v>
       </c>
       <c r="G919" s="10" t="s">
-        <v>1988</v>
+        <v>1986</v>
       </c>
     </row>
     <row r="920" spans="1:8" s="8" customFormat="1">
@@ -50034,7 +50022,7 @@
         <v>1142</v>
       </c>
       <c r="D920" s="10" t="s">
-        <v>1960</v>
+        <v>1958</v>
       </c>
       <c r="E920" s="8">
         <v>5</v>
@@ -50057,7 +50045,7 @@
         <v>1142</v>
       </c>
       <c r="D921" s="10" t="s">
-        <v>1960</v>
+        <v>1958</v>
       </c>
       <c r="E921" s="8">
         <v>2</v>
@@ -50080,7 +50068,7 @@
         <v>1142</v>
       </c>
       <c r="D922" s="10" t="s">
-        <v>1960</v>
+        <v>1958</v>
       </c>
       <c r="E922" s="8">
         <v>5</v>
@@ -50113,7 +50101,7 @@
         <v>1</v>
       </c>
       <c r="G923" s="10" t="s">
-        <v>2118</v>
+        <v>2116</v>
       </c>
       <c r="H923" s="8"/>
     </row>
@@ -50128,7 +50116,7 @@
         <v>1142</v>
       </c>
       <c r="D924" s="10" t="s">
-        <v>1960</v>
+        <v>1958</v>
       </c>
       <c r="E924" s="8">
         <v>2</v>
@@ -50149,10 +50137,10 @@
         <v>374</v>
       </c>
       <c r="C925" s="10" t="s">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="D925" s="10" t="s">
-        <v>1905</v>
+        <v>1903</v>
       </c>
       <c r="E925" s="8">
         <v>5</v>
@@ -50161,7 +50149,7 @@
         <v>1</v>
       </c>
       <c r="G925" s="10" t="s">
-        <v>1962</v>
+        <v>1960</v>
       </c>
     </row>
     <row r="926" spans="1:8" s="8" customFormat="1">
@@ -50172,7 +50160,7 @@
         <v>375</v>
       </c>
       <c r="C926" s="10" t="s">
-        <v>1989</v>
+        <v>1987</v>
       </c>
       <c r="D926" s="10" t="s">
         <v>1600</v>
@@ -50184,7 +50172,7 @@
         <v>1</v>
       </c>
       <c r="G926" s="10" t="s">
-        <v>2023</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="927" spans="1:8" s="8" customFormat="1">
@@ -50195,19 +50183,19 @@
         <v>375</v>
       </c>
       <c r="C927" s="10" t="s">
-        <v>1989</v>
+        <v>1987</v>
       </c>
       <c r="D927" s="10" t="s">
+        <v>2020</v>
+      </c>
+      <c r="E927" s="8">
+        <v>2</v>
+      </c>
+      <c r="F927" s="8">
+        <v>2</v>
+      </c>
+      <c r="G927" s="10" t="s">
         <v>2022</v>
-      </c>
-      <c r="E927" s="8">
-        <v>2</v>
-      </c>
-      <c r="F927" s="8">
-        <v>2</v>
-      </c>
-      <c r="G927" s="10" t="s">
-        <v>2024</v>
       </c>
     </row>
     <row r="928" spans="1:8" s="8" customFormat="1">
@@ -50218,7 +50206,7 @@
         <v>376</v>
       </c>
       <c r="C928" s="10" t="s">
-        <v>1989</v>
+        <v>1987</v>
       </c>
       <c r="D928" s="10" t="s">
         <v>1820</v>
@@ -50230,7 +50218,7 @@
         <v>1</v>
       </c>
       <c r="G928" s="10" t="s">
-        <v>2031</v>
+        <v>2029</v>
       </c>
     </row>
     <row r="929" spans="1:8" s="8" customFormat="1">
@@ -50241,10 +50229,10 @@
         <v>377</v>
       </c>
       <c r="C929" s="10" t="s">
-        <v>1989</v>
+        <v>1987</v>
       </c>
       <c r="D929" s="10" t="s">
-        <v>1902</v>
+        <v>1900</v>
       </c>
       <c r="E929" s="8">
         <v>2</v>
@@ -50253,7 +50241,7 @@
         <v>1</v>
       </c>
       <c r="G929" s="10" t="s">
-        <v>2030</v>
+        <v>2028</v>
       </c>
     </row>
     <row r="930" spans="1:8" s="8" customFormat="1">
@@ -50264,10 +50252,10 @@
         <v>378</v>
       </c>
       <c r="C930" s="10" t="s">
-        <v>1989</v>
+        <v>1987</v>
       </c>
       <c r="D930" s="10" t="s">
-        <v>1926</v>
+        <v>1924</v>
       </c>
       <c r="E930" s="8">
         <v>2</v>
@@ -50276,7 +50264,7 @@
         <v>1</v>
       </c>
       <c r="G930" s="10" t="s">
-        <v>2029</v>
+        <v>2027</v>
       </c>
     </row>
     <row r="931" spans="1:8" s="8" customFormat="1">
@@ -50290,7 +50278,7 @@
         <v>1143</v>
       </c>
       <c r="D931" s="10" t="s">
-        <v>1960</v>
+        <v>1958</v>
       </c>
       <c r="E931" s="8">
         <v>2</v>
@@ -50299,7 +50287,7 @@
         <v>1</v>
       </c>
       <c r="G931" s="10" t="s">
-        <v>2007</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="932" spans="1:8" s="8" customFormat="1">
@@ -50322,7 +50310,7 @@
         <v>1</v>
       </c>
       <c r="G932" s="10" t="s">
-        <v>2032</v>
+        <v>2030</v>
       </c>
     </row>
     <row r="933" spans="1:8">
@@ -50345,7 +50333,7 @@
         <v>1</v>
       </c>
       <c r="G933" s="8" t="s">
-        <v>1985</v>
+        <v>1983</v>
       </c>
       <c r="H933" s="8"/>
     </row>
@@ -50357,19 +50345,19 @@
         <v>380</v>
       </c>
       <c r="C934" s="8" t="s">
+        <v>2032</v>
+      </c>
+      <c r="D934" s="104" t="s">
+        <v>2033</v>
+      </c>
+      <c r="E934" s="8">
+        <v>2</v>
+      </c>
+      <c r="F934" s="8">
+        <v>1</v>
+      </c>
+      <c r="G934" s="8" t="s">
         <v>2034</v>
-      </c>
-      <c r="D934" s="106" t="s">
-        <v>2035</v>
-      </c>
-      <c r="E934" s="8">
-        <v>2</v>
-      </c>
-      <c r="F934" s="8">
-        <v>1</v>
-      </c>
-      <c r="G934" s="8" t="s">
-        <v>2036</v>
       </c>
       <c r="H934" s="8"/>
     </row>
@@ -50384,7 +50372,7 @@
         <v>1032</v>
       </c>
       <c r="D935" s="8" t="s">
-        <v>1907</v>
+        <v>1905</v>
       </c>
       <c r="E935" s="8">
         <v>2</v>
@@ -50393,7 +50381,7 @@
         <v>2</v>
       </c>
       <c r="G935" s="10" t="s">
-        <v>2037</v>
+        <v>2035</v>
       </c>
       <c r="H935" s="8"/>
     </row>
@@ -50405,19 +50393,19 @@
         <v>380</v>
       </c>
       <c r="C936" s="8" t="s">
+        <v>2036</v>
+      </c>
+      <c r="D936" s="10" t="s">
+        <v>2037</v>
+      </c>
+      <c r="E936" s="8">
+        <v>2</v>
+      </c>
+      <c r="F936" s="8">
+        <v>2</v>
+      </c>
+      <c r="G936" s="8" t="s">
         <v>2038</v>
-      </c>
-      <c r="D936" s="10" t="s">
-        <v>2039</v>
-      </c>
-      <c r="E936" s="8">
-        <v>2</v>
-      </c>
-      <c r="F936" s="8">
-        <v>2</v>
-      </c>
-      <c r="G936" s="8" t="s">
-        <v>2040</v>
       </c>
       <c r="H936" s="8"/>
     </row>
@@ -50441,7 +50429,7 @@
         <v>1</v>
       </c>
       <c r="G937" s="10" t="s">
-        <v>2032</v>
+        <v>2030</v>
       </c>
     </row>
     <row r="938" spans="1:8">
@@ -50488,7 +50476,7 @@
         <v>2</v>
       </c>
       <c r="G939" s="10" t="s">
-        <v>2049</v>
+        <v>2047</v>
       </c>
       <c r="H939" s="8"/>
     </row>
@@ -50512,7 +50500,7 @@
         <v>3</v>
       </c>
       <c r="G940" s="10" t="s">
-        <v>2050</v>
+        <v>2048</v>
       </c>
       <c r="H940" s="8"/>
     </row>
@@ -50536,7 +50524,7 @@
         <v>1</v>
       </c>
       <c r="G941" s="10" t="s">
-        <v>2051</v>
+        <v>2049</v>
       </c>
       <c r="H941" s="8"/>
     </row>
@@ -50560,7 +50548,7 @@
         <v>1</v>
       </c>
       <c r="G942" s="10" t="s">
-        <v>2052</v>
+        <v>2050</v>
       </c>
       <c r="H942" s="8"/>
     </row>
@@ -50584,7 +50572,7 @@
         <v>1</v>
       </c>
       <c r="G943" s="10" t="s">
-        <v>2053</v>
+        <v>2051</v>
       </c>
       <c r="H943" s="8"/>
     </row>
@@ -50608,7 +50596,7 @@
         <v>1</v>
       </c>
       <c r="G944" s="10" t="s">
-        <v>2051</v>
+        <v>2049</v>
       </c>
       <c r="H944" s="8"/>
     </row>
@@ -50632,7 +50620,7 @@
         <v>1</v>
       </c>
       <c r="G945" s="10" t="s">
-        <v>2052</v>
+        <v>2050</v>
       </c>
       <c r="H945" s="8"/>
     </row>
@@ -50656,7 +50644,7 @@
         <v>1</v>
       </c>
       <c r="G946" s="10" t="s">
-        <v>2053</v>
+        <v>2051</v>
       </c>
       <c r="H946" s="8"/>
     </row>
@@ -50680,7 +50668,7 @@
         <v>1</v>
       </c>
       <c r="G947" s="10" t="s">
-        <v>2058</v>
+        <v>2056</v>
       </c>
     </row>
     <row r="948" spans="1:8" s="8" customFormat="1">
@@ -50691,7 +50679,7 @@
         <v>386</v>
       </c>
       <c r="C948" s="10" t="s">
-        <v>2059</v>
+        <v>2057</v>
       </c>
       <c r="D948" s="10">
         <v>1</v>
@@ -50703,7 +50691,7 @@
         <v>1</v>
       </c>
       <c r="G948" s="10" t="s">
-        <v>2060</v>
+        <v>2058</v>
       </c>
     </row>
     <row r="949" spans="1:8">
@@ -50726,7 +50714,7 @@
         <v>1</v>
       </c>
       <c r="G949" s="9" t="s">
-        <v>2066</v>
+        <v>2064</v>
       </c>
     </row>
     <row r="950" spans="1:8" s="8" customFormat="1">
@@ -50737,10 +50725,10 @@
         <v>388</v>
       </c>
       <c r="C950" s="10" t="s">
-        <v>2071</v>
+        <v>2069</v>
       </c>
       <c r="D950" s="10" t="s">
-        <v>2080</v>
+        <v>2078</v>
       </c>
       <c r="E950" s="8">
         <v>5</v>
@@ -50760,10 +50748,10 @@
         <v>388</v>
       </c>
       <c r="C951" s="10" t="s">
-        <v>2071</v>
+        <v>2069</v>
       </c>
       <c r="D951" s="10" t="s">
-        <v>2080</v>
+        <v>2078</v>
       </c>
       <c r="E951" s="8">
         <v>2</v>
@@ -50818,7 +50806,7 @@
         <v>2</v>
       </c>
       <c r="G953" s="10" t="s">
-        <v>2078</v>
+        <v>2076</v>
       </c>
     </row>
     <row r="954" spans="1:8" s="8" customFormat="1">
@@ -50841,7 +50829,7 @@
         <v>1</v>
       </c>
       <c r="G954" s="10" t="s">
-        <v>2079</v>
+        <v>2077</v>
       </c>
     </row>
     <row r="955" spans="1:8" s="8" customFormat="1">
@@ -50864,7 +50852,7 @@
         <v>1</v>
       </c>
       <c r="G955" s="10" t="s">
-        <v>2052</v>
+        <v>2050</v>
       </c>
     </row>
     <row r="956" spans="1:8" s="8" customFormat="1">
@@ -50887,7 +50875,7 @@
         <v>1</v>
       </c>
       <c r="G956" s="10" t="s">
-        <v>2053</v>
+        <v>2051</v>
       </c>
     </row>
     <row r="957" spans="1:8" s="8" customFormat="1">
@@ -50910,7 +50898,7 @@
         <v>1</v>
       </c>
       <c r="G957" s="10" t="s">
-        <v>2051</v>
+        <v>2049</v>
       </c>
     </row>
     <row r="958" spans="1:8" s="8" customFormat="1">
@@ -50921,7 +50909,7 @@
         <v>391</v>
       </c>
       <c r="C958" s="10" t="s">
-        <v>2127</v>
+        <v>2125</v>
       </c>
       <c r="D958" s="8">
         <v>12</v>
@@ -50933,7 +50921,7 @@
         <v>1</v>
       </c>
       <c r="G958" s="10" t="s">
-        <v>2052</v>
+        <v>2050</v>
       </c>
     </row>
     <row r="959" spans="1:8" s="8" customFormat="1">
@@ -50956,7 +50944,7 @@
         <v>1</v>
       </c>
       <c r="G959" s="10" t="s">
-        <v>2053</v>
+        <v>2051</v>
       </c>
     </row>
     <row r="960" spans="1:8" s="8" customFormat="1">
@@ -50979,7 +50967,7 @@
         <v>1</v>
       </c>
       <c r="G960" s="8" t="s">
-        <v>2053</v>
+        <v>2051</v>
       </c>
     </row>
     <row r="961" spans="1:9" s="8" customFormat="1">
@@ -50993,7 +50981,7 @@
         <v>1143</v>
       </c>
       <c r="D961" s="10" t="s">
-        <v>1960</v>
+        <v>1958</v>
       </c>
       <c r="E961" s="8">
         <v>5</v>
@@ -51002,7 +50990,7 @@
         <v>1</v>
       </c>
       <c r="G961" s="10" t="s">
-        <v>2092</v>
+        <v>2090</v>
       </c>
     </row>
     <row r="962" spans="1:9" s="8" customFormat="1">
@@ -51016,7 +51004,7 @@
         <v>1143</v>
       </c>
       <c r="D962" s="10" t="s">
-        <v>1960</v>
+        <v>1958</v>
       </c>
       <c r="E962" s="8">
         <v>2</v>
@@ -51025,7 +51013,7 @@
         <v>1</v>
       </c>
       <c r="G962" s="10" t="s">
-        <v>2093</v>
+        <v>2091</v>
       </c>
     </row>
     <row r="963" spans="1:9" s="8" customFormat="1">
@@ -51039,7 +51027,7 @@
         <v>1142</v>
       </c>
       <c r="D963" s="10" t="s">
-        <v>1960</v>
+        <v>1958</v>
       </c>
       <c r="E963" s="8">
         <v>2</v>
@@ -51048,7 +51036,7 @@
         <v>1</v>
       </c>
       <c r="G963" s="10" t="s">
-        <v>2093</v>
+        <v>2091</v>
       </c>
     </row>
     <row r="964" spans="1:9" s="8" customFormat="1">
@@ -51071,7 +51059,7 @@
         <v>1</v>
       </c>
       <c r="G964" s="8" t="s">
-        <v>2107</v>
+        <v>2105</v>
       </c>
     </row>
     <row r="965" spans="1:9" s="8" customFormat="1">
@@ -51085,7 +51073,7 @@
         <v>1142</v>
       </c>
       <c r="D965" s="64" t="s">
-        <v>1917</v>
+        <v>1915</v>
       </c>
       <c r="E965" s="8">
         <v>2</v>
@@ -51094,7 +51082,7 @@
         <v>2</v>
       </c>
       <c r="G965" s="10" t="s">
-        <v>2108</v>
+        <v>2106</v>
       </c>
     </row>
     <row r="966" spans="1:9" s="8" customFormat="1">
@@ -51108,7 +51096,7 @@
         <v>1142</v>
       </c>
       <c r="D966" s="64" t="s">
-        <v>1960</v>
+        <v>1958</v>
       </c>
       <c r="E966" s="8">
         <v>5</v>
@@ -51117,7 +51105,7 @@
         <v>2</v>
       </c>
       <c r="G966" s="10" t="s">
-        <v>2124</v>
+        <v>2122</v>
       </c>
     </row>
     <row r="967" spans="1:9" s="8" customFormat="1">
@@ -51140,7 +51128,7 @@
         <v>1</v>
       </c>
       <c r="G967" s="10" t="s">
-        <v>1844</v>
+        <v>1842</v>
       </c>
     </row>
     <row r="968" spans="1:9" s="8" customFormat="1">
@@ -51154,7 +51142,7 @@
         <v>1142</v>
       </c>
       <c r="D968" s="64" t="s">
-        <v>1960</v>
+        <v>1958</v>
       </c>
       <c r="E968" s="8">
         <v>2</v>
@@ -51163,7 +51151,7 @@
         <v>2</v>
       </c>
       <c r="G968" s="10" t="s">
-        <v>2125</v>
+        <v>2123</v>
       </c>
     </row>
     <row r="969" spans="1:9" s="8" customFormat="1">
@@ -51186,7 +51174,7 @@
         <v>1</v>
       </c>
       <c r="G969" s="10" t="s">
-        <v>1844</v>
+        <v>1842</v>
       </c>
     </row>
     <row r="970" spans="1:9">
@@ -51200,7 +51188,7 @@
         <v>1142</v>
       </c>
       <c r="D970" s="21" t="s">
-        <v>1905</v>
+        <v>1903</v>
       </c>
       <c r="E970" s="20">
         <v>5</v>
@@ -51209,7 +51197,7 @@
         <v>1</v>
       </c>
       <c r="G970" s="21" t="s">
-        <v>1883</v>
+        <v>1881</v>
       </c>
       <c r="H970" s="8"/>
       <c r="I970" s="8"/>
@@ -51234,7 +51222,7 @@
         <v>1</v>
       </c>
       <c r="G971" s="21" t="s">
-        <v>2128</v>
+        <v>2126</v>
       </c>
       <c r="H971" s="8"/>
       <c r="I971" s="8"/>
@@ -51250,7 +51238,7 @@
         <v>1142</v>
       </c>
       <c r="D972" s="21" t="s">
-        <v>1905</v>
+        <v>1903</v>
       </c>
       <c r="E972" s="20">
         <v>2</v>
@@ -51259,7 +51247,7 @@
         <v>1</v>
       </c>
       <c r="G972" s="21" t="s">
-        <v>1894</v>
+        <v>1892</v>
       </c>
       <c r="H972" s="8" t="s">
         <v>863</v>
@@ -51288,7 +51276,7 @@
         <v>1</v>
       </c>
       <c r="G973" s="21" t="s">
-        <v>2128</v>
+        <v>2126</v>
       </c>
       <c r="H973" s="8" t="s">
         <v>863</v>
@@ -51470,7 +51458,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="64" t="s">
-        <v>1955</v>
+        <v>1953</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>884</v>
@@ -51522,7 +51510,7 @@
         <v>884</v>
       </c>
       <c r="D8" s="49" t="s">
-        <v>1992</v>
+        <v>1990</v>
       </c>
       <c r="E8">
         <v>2</v>
@@ -51539,13 +51527,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="64" t="s">
-        <v>1973</v>
+        <v>1971</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>884</v>
       </c>
       <c r="D9" s="49" t="s">
-        <v>1981</v>
+        <v>1979</v>
       </c>
       <c r="E9">
         <v>2</v>
@@ -51562,13 +51550,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="64" t="s">
-        <v>1917</v>
+        <v>1915</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>884</v>
       </c>
       <c r="D10" s="49" t="s">
-        <v>1982</v>
+        <v>1980</v>
       </c>
       <c r="E10">
         <v>2</v>
@@ -51585,13 +51573,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="64" t="s">
-        <v>1902</v>
+        <v>1900</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>884</v>
       </c>
       <c r="D11" s="49" t="s">
-        <v>1903</v>
+        <v>1901</v>
       </c>
       <c r="E11">
         <v>2</v>

--- a/config_3.9/permission_server_config.xlsx
+++ b/config_3.9/permission_server_config.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4948" uniqueCount="2133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4945" uniqueCount="2132">
   <si>
     <t>key|唯一标识</t>
   </si>
@@ -9778,10 +9778,6 @@
   </si>
   <si>
     <t>欢乐福利（欢乐捕鱼）--非cps</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>不是CPS渠道</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
@@ -10109,7 +10105,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -10409,11 +10405,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -15515,10 +15507,10 @@
     </row>
     <row r="471" spans="1:3">
       <c r="A471" s="9" t="s">
-        <v>2117</v>
+        <v>2116</v>
       </c>
       <c r="B471" s="27" t="s">
-        <v>2119</v>
+        <v>2118</v>
       </c>
       <c r="C471" s="3">
         <v>397</v>
@@ -15526,10 +15518,10 @@
     </row>
     <row r="472" spans="1:3">
       <c r="A472" s="49" t="s">
-        <v>2118</v>
+        <v>2117</v>
       </c>
       <c r="B472" s="27" t="s">
-        <v>2120</v>
+        <v>2119</v>
       </c>
       <c r="C472" s="3">
         <v>398</v>
@@ -15548,10 +15540,10 @@
   <dimension ref="A1:O367"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="I272" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D329" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="L294" sqref="L294"/>
+      <selection pane="bottomRight" activeCell="C353" sqref="C353"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -15593,7 +15585,7 @@
         <v>2</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>2121</v>
+        <v>2120</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>450</v>
@@ -25404,7 +25396,7 @@
         <v>1615248000</v>
       </c>
       <c r="L289" s="72" t="s">
-        <v>2131</v>
+        <v>2130</v>
       </c>
     </row>
     <row r="290" spans="1:12" s="73" customFormat="1">
@@ -25438,7 +25430,7 @@
         <v>1615248000</v>
       </c>
       <c r="L290" s="71" t="s">
-        <v>2131</v>
+        <v>2130</v>
       </c>
     </row>
     <row r="291" spans="1:12" s="73" customFormat="1">
@@ -25472,7 +25464,7 @@
         <v>1615248000</v>
       </c>
       <c r="L291" s="71" t="s">
-        <v>2131</v>
+        <v>2130</v>
       </c>
     </row>
     <row r="292" spans="1:12" s="73" customFormat="1">
@@ -25506,7 +25498,7 @@
         <v>1615248000</v>
       </c>
       <c r="L292" s="71" t="s">
-        <v>2131</v>
+        <v>2130</v>
       </c>
     </row>
     <row r="293" spans="1:12">
@@ -27386,70 +27378,70 @@
       </c>
     </row>
     <row r="351" spans="1:12" s="45" customFormat="1">
-      <c r="A351" s="16">
+      <c r="A351" s="66">
         <v>350</v>
       </c>
-      <c r="B351" s="16">
-        <v>0</v>
-      </c>
-      <c r="C351" s="16" t="s">
+      <c r="B351" s="66">
+        <v>1</v>
+      </c>
+      <c r="C351" s="66" t="s">
         <v>2081</v>
       </c>
-      <c r="D351" s="16" t="s">
+      <c r="D351" s="66" t="s">
         <v>2115</v>
       </c>
-      <c r="E351" s="16"/>
-      <c r="F351" s="16"/>
-      <c r="G351" s="16">
+      <c r="E351" s="66"/>
+      <c r="F351" s="66"/>
+      <c r="G351" s="66">
         <v>372</v>
       </c>
-      <c r="H351" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="I351" s="45" t="b">
-        <v>1</v>
-      </c>
-      <c r="J351" s="16" t="s">
+      <c r="H351" s="66" t="b">
+        <v>1</v>
+      </c>
+      <c r="I351" s="109" t="b">
+        <v>1</v>
+      </c>
+      <c r="J351" s="66" t="s">
         <v>2006</v>
       </c>
-      <c r="K351" s="16">
+      <c r="K351" s="66">
         <v>1610380800</v>
       </c>
-      <c r="L351" s="16" t="s">
+      <c r="L351" s="66" t="s">
         <v>2082</v>
       </c>
     </row>
     <row r="352" spans="1:12" s="45" customFormat="1">
-      <c r="A352" s="16">
+      <c r="A352" s="66">
         <v>351</v>
       </c>
-      <c r="B352" s="16">
-        <v>0</v>
-      </c>
-      <c r="C352" s="16" t="s">
+      <c r="B352" s="66">
+        <v>1</v>
+      </c>
+      <c r="C352" s="66" t="s">
         <v>2007</v>
       </c>
-      <c r="D352" s="16" t="s">
+      <c r="D352" s="66" t="s">
         <v>2008</v>
       </c>
-      <c r="E352" s="16"/>
-      <c r="F352" s="16"/>
-      <c r="G352" s="16">
+      <c r="E352" s="66"/>
+      <c r="F352" s="66"/>
+      <c r="G352" s="66">
         <v>373</v>
       </c>
-      <c r="H352" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="I352" s="45" t="b">
-        <v>1</v>
-      </c>
-      <c r="J352" s="16" t="s">
+      <c r="H352" s="66" t="b">
+        <v>1</v>
+      </c>
+      <c r="I352" s="109" t="b">
+        <v>1</v>
+      </c>
+      <c r="J352" s="66" t="s">
         <v>2006</v>
       </c>
-      <c r="K352" s="16">
+      <c r="K352" s="66">
         <v>1610380800</v>
       </c>
-      <c r="L352" s="16" t="s">
+      <c r="L352" s="66" t="s">
         <v>2080</v>
       </c>
     </row>
@@ -27759,37 +27751,37 @@
         <v>2068</v>
       </c>
     </row>
-    <row r="362" spans="1:12" s="110" customFormat="1">
+    <row r="362" spans="1:12" s="45" customFormat="1">
       <c r="A362" s="16">
         <v>361</v>
       </c>
-      <c r="B362" s="66">
+      <c r="B362" s="16">
         <v>0</v>
       </c>
-      <c r="C362" s="109" t="s">
+      <c r="C362" s="106" t="s">
         <v>2083</v>
       </c>
-      <c r="D362" s="66" t="s">
+      <c r="D362" s="16" t="s">
         <v>2063</v>
       </c>
-      <c r="E362" s="66"/>
-      <c r="F362" s="66"/>
-      <c r="G362" s="66">
+      <c r="E362" s="16"/>
+      <c r="F362" s="16"/>
+      <c r="G362" s="16">
         <v>392</v>
       </c>
-      <c r="H362" s="110" t="b">
-        <v>1</v>
-      </c>
-      <c r="I362" s="110" t="b">
-        <v>1</v>
-      </c>
-      <c r="J362" s="66" t="s">
+      <c r="H362" s="45" t="b">
+        <v>1</v>
+      </c>
+      <c r="I362" s="45" t="b">
+        <v>1</v>
+      </c>
+      <c r="J362" s="16" t="s">
         <v>455</v>
       </c>
-      <c r="K362" s="66">
+      <c r="K362" s="16">
         <v>1588028400</v>
       </c>
-      <c r="L362" s="66" t="s">
+      <c r="L362" s="16" t="s">
         <v>1165</v>
       </c>
     </row>
@@ -27797,33 +27789,33 @@
       <c r="A363" s="16">
         <v>362</v>
       </c>
-      <c r="B363" s="28">
+      <c r="B363" s="17">
         <v>0</v>
       </c>
-      <c r="C363" s="56" t="s">
+      <c r="C363" s="31" t="s">
         <v>2084</v>
       </c>
-      <c r="D363" s="29" t="s">
+      <c r="D363" s="16" t="s">
         <v>2086</v>
       </c>
-      <c r="E363" s="28"/>
-      <c r="F363" s="28"/>
-      <c r="G363" s="28">
+      <c r="E363" s="17"/>
+      <c r="F363" s="17"/>
+      <c r="G363" s="17">
         <v>393</v>
       </c>
-      <c r="H363" s="111" t="b">
-        <v>1</v>
-      </c>
-      <c r="I363" s="111" t="b">
-        <v>1</v>
-      </c>
-      <c r="J363" s="29" t="s">
+      <c r="H363" s="45" t="b">
+        <v>1</v>
+      </c>
+      <c r="I363" s="45" t="b">
+        <v>1</v>
+      </c>
+      <c r="J363" s="16" t="s">
         <v>455</v>
       </c>
-      <c r="K363" s="29">
+      <c r="K363" s="16">
         <v>1612828800</v>
       </c>
-      <c r="L363" s="29" t="s">
+      <c r="L363" s="16" t="s">
         <v>2088</v>
       </c>
     </row>
@@ -27831,33 +27823,33 @@
       <c r="A364" s="16">
         <v>363</v>
       </c>
-      <c r="B364" s="28">
+      <c r="B364" s="17">
         <v>0</v>
       </c>
-      <c r="C364" s="56" t="s">
+      <c r="C364" s="31" t="s">
         <v>2085</v>
       </c>
-      <c r="D364" s="29" t="s">
+      <c r="D364" s="16" t="s">
         <v>2087</v>
       </c>
-      <c r="E364" s="28"/>
-      <c r="F364" s="28"/>
-      <c r="G364" s="28">
+      <c r="E364" s="17"/>
+      <c r="F364" s="17"/>
+      <c r="G364" s="17">
         <v>394</v>
       </c>
-      <c r="H364" s="111" t="b">
-        <v>1</v>
-      </c>
-      <c r="I364" s="111" t="b">
-        <v>1</v>
-      </c>
-      <c r="J364" s="29" t="s">
+      <c r="H364" s="45" t="b">
+        <v>1</v>
+      </c>
+      <c r="I364" s="45" t="b">
+        <v>1</v>
+      </c>
+      <c r="J364" s="16" t="s">
         <v>455</v>
       </c>
-      <c r="K364" s="29">
+      <c r="K364" s="16">
         <v>1612828800</v>
       </c>
-      <c r="L364" s="29" t="s">
+      <c r="L364" s="16" t="s">
         <v>2089</v>
       </c>
     </row>
@@ -27865,33 +27857,33 @@
       <c r="A365" s="16">
         <v>364</v>
       </c>
-      <c r="B365" s="28">
+      <c r="B365" s="17">
         <v>0</v>
       </c>
-      <c r="C365" s="56" t="s">
+      <c r="C365" s="31" t="s">
         <v>2102</v>
       </c>
-      <c r="D365" s="29" t="s">
+      <c r="D365" s="16" t="s">
         <v>2103</v>
       </c>
-      <c r="E365" s="28"/>
-      <c r="F365" s="28"/>
-      <c r="G365" s="28">
+      <c r="E365" s="17"/>
+      <c r="F365" s="17"/>
+      <c r="G365" s="17">
         <v>396</v>
       </c>
-      <c r="H365" s="111" t="b">
-        <v>1</v>
-      </c>
-      <c r="I365" s="111" t="b">
-        <v>1</v>
-      </c>
-      <c r="J365" s="29" t="s">
+      <c r="H365" s="45" t="b">
+        <v>1</v>
+      </c>
+      <c r="I365" s="45" t="b">
+        <v>1</v>
+      </c>
+      <c r="J365" s="16" t="s">
         <v>455</v>
       </c>
-      <c r="K365" s="29">
+      <c r="K365" s="16">
         <v>1612828800</v>
       </c>
-      <c r="L365" s="29" t="s">
+      <c r="L365" s="16" t="s">
         <v>2104</v>
       </c>
     </row>
@@ -27903,10 +27895,10 @@
         <v>1</v>
       </c>
       <c r="C366" s="66" t="s">
-        <v>2127</v>
+        <v>2126</v>
       </c>
       <c r="D366" s="66" t="s">
-        <v>2129</v>
+        <v>2128</v>
       </c>
       <c r="E366" s="65"/>
       <c r="F366" s="65"/>
@@ -27926,7 +27918,7 @@
         <v>1615248000</v>
       </c>
       <c r="L366" s="66" t="s">
-        <v>2124</v>
+        <v>2123</v>
       </c>
     </row>
     <row r="367" spans="1:12" s="22" customFormat="1">
@@ -27937,10 +27929,10 @@
         <v>1</v>
       </c>
       <c r="C367" s="66" t="s">
-        <v>2128</v>
+        <v>2127</v>
       </c>
       <c r="D367" s="66" t="s">
-        <v>2130</v>
+        <v>2129</v>
       </c>
       <c r="E367" s="65"/>
       <c r="F367" s="65"/>
@@ -27960,7 +27952,7 @@
         <v>1615248000</v>
       </c>
       <c r="L367" s="66" t="s">
-        <v>2132</v>
+        <v>2131</v>
       </c>
     </row>
   </sheetData>
@@ -27974,13 +27966,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:I979"/>
+  <dimension ref="A1:I978"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C955" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C916" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B979" sqref="B979"/>
+      <selection pane="bottomRight" activeCell="D963" sqref="D963"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -49850,7 +49842,7 @@
         <v>1961</v>
       </c>
     </row>
-    <row r="913" spans="1:8" s="8" customFormat="1">
+    <row r="913" spans="1:7" s="8" customFormat="1">
       <c r="A913" s="8">
         <v>912</v>
       </c>
@@ -49873,7 +49865,7 @@
         <v>1977</v>
       </c>
     </row>
-    <row r="914" spans="1:8" s="8" customFormat="1">
+    <row r="914" spans="1:7" s="8" customFormat="1">
       <c r="A914" s="8">
         <v>913</v>
       </c>
@@ -49896,7 +49888,7 @@
         <v>1978</v>
       </c>
     </row>
-    <row r="915" spans="1:8" s="8" customFormat="1">
+    <row r="915" spans="1:7" s="8" customFormat="1">
       <c r="A915" s="8">
         <v>914</v>
       </c>
@@ -49919,7 +49911,7 @@
         <v>1983</v>
       </c>
     </row>
-    <row r="916" spans="1:8" s="8" customFormat="1">
+    <row r="916" spans="1:7" s="8" customFormat="1">
       <c r="A916" s="8">
         <v>915</v>
       </c>
@@ -49942,7 +49934,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="917" spans="1:8" s="8" customFormat="1">
+    <row r="917" spans="1:7" s="8" customFormat="1">
       <c r="A917" s="8">
         <v>916</v>
       </c>
@@ -49965,7 +49957,7 @@
         <v>1989</v>
       </c>
     </row>
-    <row r="918" spans="1:8" s="8" customFormat="1">
+    <row r="918" spans="1:7" s="8" customFormat="1">
       <c r="A918" s="8">
         <v>917</v>
       </c>
@@ -49988,7 +49980,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="919" spans="1:8" s="8" customFormat="1">
+    <row r="919" spans="1:7" s="8" customFormat="1">
       <c r="A919" s="8">
         <v>918</v>
       </c>
@@ -50011,7 +50003,7 @@
         <v>1986</v>
       </c>
     </row>
-    <row r="920" spans="1:8" s="8" customFormat="1">
+    <row r="920" spans="1:7" s="8" customFormat="1">
       <c r="A920" s="8">
         <v>919</v>
       </c>
@@ -50034,7 +50026,7 @@
         <v>1780</v>
       </c>
     </row>
-    <row r="921" spans="1:8" s="8" customFormat="1">
+    <row r="921" spans="1:7" s="8" customFormat="1">
       <c r="A921" s="8">
         <v>920</v>
       </c>
@@ -50057,102 +50049,99 @@
         <v>1717</v>
       </c>
     </row>
-    <row r="922" spans="1:8">
+    <row r="922" spans="1:7" s="20" customFormat="1">
       <c r="A922" s="8">
         <v>921</v>
       </c>
-      <c r="B922" s="8">
+      <c r="B922" s="20">
         <v>372</v>
       </c>
-      <c r="C922" s="10" t="s">
+      <c r="C922" s="21" t="s">
         <v>1142</v>
       </c>
-      <c r="D922" s="10" t="s">
+      <c r="D922" s="21" t="s">
         <v>1958</v>
       </c>
-      <c r="E922" s="8">
+      <c r="E922" s="20">
         <v>5</v>
       </c>
-      <c r="F922" s="8">
-        <v>1</v>
-      </c>
-      <c r="G922" s="10" t="s">
+      <c r="F922" s="20">
+        <v>1</v>
+      </c>
+      <c r="G922" s="21" t="s">
         <v>1780</v>
       </c>
-      <c r="H922" s="8"/>
-    </row>
-    <row r="923" spans="1:8">
+    </row>
+    <row r="923" spans="1:7" s="20" customFormat="1">
       <c r="A923" s="8">
         <v>922</v>
       </c>
-      <c r="B923" s="8">
-        <v>372</v>
-      </c>
-      <c r="C923" s="10" t="s">
+      <c r="B923" s="20">
+        <v>373</v>
+      </c>
+      <c r="C923" s="21" t="s">
         <v>1142</v>
       </c>
-      <c r="D923" s="8" t="s">
-        <v>1657</v>
-      </c>
-      <c r="E923" s="8">
-        <v>5</v>
-      </c>
-      <c r="F923" s="8">
-        <v>1</v>
-      </c>
-      <c r="G923" s="10" t="s">
-        <v>2116</v>
-      </c>
-      <c r="H923" s="8"/>
-    </row>
-    <row r="924" spans="1:8">
+      <c r="D923" s="21" t="s">
+        <v>1958</v>
+      </c>
+      <c r="E923" s="20">
+        <v>2</v>
+      </c>
+      <c r="F923" s="20">
+        <v>1</v>
+      </c>
+      <c r="G923" s="21" t="s">
+        <v>1717</v>
+      </c>
+    </row>
+    <row r="924" spans="1:7" s="8" customFormat="1">
       <c r="A924" s="8">
         <v>923</v>
       </c>
       <c r="B924" s="8">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C924" s="10" t="s">
-        <v>1142</v>
+        <v>2011</v>
       </c>
       <c r="D924" s="10" t="s">
-        <v>1958</v>
+        <v>1903</v>
       </c>
       <c r="E924" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F924" s="8">
         <v>1</v>
       </c>
       <c r="G924" s="10" t="s">
-        <v>1717</v>
-      </c>
-      <c r="H924" s="8"/>
-    </row>
-    <row r="925" spans="1:8" s="8" customFormat="1">
+        <v>1960</v>
+      </c>
+    </row>
+    <row r="925" spans="1:7" s="8" customFormat="1">
       <c r="A925" s="8">
         <v>924</v>
       </c>
       <c r="B925" s="8">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C925" s="10" t="s">
-        <v>2011</v>
+        <v>1987</v>
       </c>
       <c r="D925" s="10" t="s">
-        <v>1903</v>
+        <v>1600</v>
       </c>
       <c r="E925" s="8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F925" s="8">
         <v>1</v>
       </c>
       <c r="G925" s="10" t="s">
-        <v>1960</v>
-      </c>
-    </row>
-    <row r="926" spans="1:8" s="8" customFormat="1">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="926" spans="1:7" s="8" customFormat="1">
       <c r="A926" s="8">
         <v>925</v>
       </c>
@@ -50163,53 +50152,53 @@
         <v>1987</v>
       </c>
       <c r="D926" s="10" t="s">
-        <v>1600</v>
+        <v>2020</v>
       </c>
       <c r="E926" s="8">
         <v>2</v>
       </c>
       <c r="F926" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G926" s="10" t="s">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="927" spans="1:8" s="8" customFormat="1">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="927" spans="1:7" s="8" customFormat="1">
       <c r="A927" s="8">
         <v>926</v>
       </c>
       <c r="B927" s="8">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C927" s="10" t="s">
         <v>1987</v>
       </c>
       <c r="D927" s="10" t="s">
-        <v>2020</v>
+        <v>1820</v>
       </c>
       <c r="E927" s="8">
         <v>2</v>
       </c>
       <c r="F927" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G927" s="10" t="s">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="928" spans="1:8" s="8" customFormat="1">
+        <v>2029</v>
+      </c>
+    </row>
+    <row r="928" spans="1:7" s="8" customFormat="1">
       <c r="A928" s="8">
         <v>927</v>
       </c>
       <c r="B928" s="8">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C928" s="10" t="s">
         <v>1987</v>
       </c>
       <c r="D928" s="10" t="s">
-        <v>1820</v>
+        <v>1900</v>
       </c>
       <c r="E928" s="8">
         <v>2</v>
@@ -50218,7 +50207,7 @@
         <v>1</v>
       </c>
       <c r="G928" s="10" t="s">
-        <v>2029</v>
+        <v>2028</v>
       </c>
     </row>
     <row r="929" spans="1:8" s="8" customFormat="1">
@@ -50226,13 +50215,13 @@
         <v>928</v>
       </c>
       <c r="B929" s="8">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C929" s="10" t="s">
         <v>1987</v>
       </c>
       <c r="D929" s="10" t="s">
-        <v>1900</v>
+        <v>1924</v>
       </c>
       <c r="E929" s="8">
         <v>2</v>
@@ -50241,7 +50230,7 @@
         <v>1</v>
       </c>
       <c r="G929" s="10" t="s">
-        <v>2028</v>
+        <v>2027</v>
       </c>
     </row>
     <row r="930" spans="1:8" s="8" customFormat="1">
@@ -50249,13 +50238,13 @@
         <v>929</v>
       </c>
       <c r="B930" s="8">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C930" s="10" t="s">
-        <v>1987</v>
+        <v>1143</v>
       </c>
       <c r="D930" s="10" t="s">
-        <v>1924</v>
+        <v>1958</v>
       </c>
       <c r="E930" s="8">
         <v>2</v>
@@ -50264,7 +50253,7 @@
         <v>1</v>
       </c>
       <c r="G930" s="10" t="s">
-        <v>2027</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="931" spans="1:8" s="8" customFormat="1">
@@ -50275,10 +50264,10 @@
         <v>379</v>
       </c>
       <c r="C931" s="10" t="s">
-        <v>1143</v>
-      </c>
-      <c r="D931" s="10" t="s">
-        <v>1958</v>
+        <v>1117</v>
+      </c>
+      <c r="D931" s="10">
+        <v>0</v>
       </c>
       <c r="E931" s="8">
         <v>2</v>
@@ -50287,33 +50276,34 @@
         <v>1</v>
       </c>
       <c r="G931" s="10" t="s">
-        <v>2005</v>
-      </c>
-    </row>
-    <row r="932" spans="1:8" s="8" customFormat="1">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="932" spans="1:8">
       <c r="A932" s="8">
         <v>931</v>
       </c>
       <c r="B932" s="8">
-        <v>379</v>
-      </c>
-      <c r="C932" s="10" t="s">
-        <v>1117</v>
-      </c>
-      <c r="D932" s="10">
-        <v>0</v>
+        <v>380</v>
+      </c>
+      <c r="C932" s="8" t="s">
+        <v>1032</v>
+      </c>
+      <c r="D932" s="8" t="s">
+        <v>1657</v>
       </c>
       <c r="E932" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F932" s="8">
         <v>1</v>
       </c>
-      <c r="G932" s="10" t="s">
-        <v>2030</v>
-      </c>
-    </row>
-    <row r="933" spans="1:8">
+      <c r="G932" s="8" t="s">
+        <v>1983</v>
+      </c>
+      <c r="H932" s="8"/>
+    </row>
+    <row r="933" spans="1:8" ht="16.5">
       <c r="A933" s="8">
         <v>932</v>
       </c>
@@ -50321,23 +50311,23 @@
         <v>380</v>
       </c>
       <c r="C933" s="8" t="s">
-        <v>1032</v>
-      </c>
-      <c r="D933" s="8" t="s">
-        <v>1657</v>
+        <v>2032</v>
+      </c>
+      <c r="D933" s="104" t="s">
+        <v>2033</v>
       </c>
       <c r="E933" s="8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F933" s="8">
         <v>1</v>
       </c>
       <c r="G933" s="8" t="s">
-        <v>1983</v>
+        <v>2034</v>
       </c>
       <c r="H933" s="8"/>
     </row>
-    <row r="934" spans="1:8" ht="16.5">
+    <row r="934" spans="1:8">
       <c r="A934" s="8">
         <v>933</v>
       </c>
@@ -50345,19 +50335,19 @@
         <v>380</v>
       </c>
       <c r="C934" s="8" t="s">
-        <v>2032</v>
-      </c>
-      <c r="D934" s="104" t="s">
-        <v>2033</v>
+        <v>1032</v>
+      </c>
+      <c r="D934" s="8" t="s">
+        <v>1905</v>
       </c>
       <c r="E934" s="8">
         <v>2</v>
       </c>
       <c r="F934" s="8">
-        <v>1</v>
-      </c>
-      <c r="G934" s="8" t="s">
-        <v>2034</v>
+        <v>2</v>
+      </c>
+      <c r="G934" s="10" t="s">
+        <v>2035</v>
       </c>
       <c r="H934" s="8"/>
     </row>
@@ -50369,10 +50359,10 @@
         <v>380</v>
       </c>
       <c r="C935" s="8" t="s">
-        <v>1032</v>
-      </c>
-      <c r="D935" s="8" t="s">
-        <v>1905</v>
+        <v>2036</v>
+      </c>
+      <c r="D935" s="10" t="s">
+        <v>2037</v>
       </c>
       <c r="E935" s="8">
         <v>2</v>
@@ -50380,47 +50370,46 @@
       <c r="F935" s="8">
         <v>2</v>
       </c>
-      <c r="G935" s="10" t="s">
-        <v>2035</v>
+      <c r="G935" s="8" t="s">
+        <v>2038</v>
       </c>
       <c r="H935" s="8"/>
     </row>
-    <row r="936" spans="1:8">
+    <row r="936" spans="1:8" s="8" customFormat="1">
       <c r="A936" s="8">
         <v>935</v>
       </c>
       <c r="B936" s="8">
-        <v>380</v>
-      </c>
-      <c r="C936" s="8" t="s">
-        <v>2036</v>
-      </c>
-      <c r="D936" s="10" t="s">
-        <v>2037</v>
+        <v>381</v>
+      </c>
+      <c r="C936" s="10" t="s">
+        <v>1117</v>
+      </c>
+      <c r="D936" s="10">
+        <v>0</v>
       </c>
       <c r="E936" s="8">
         <v>2</v>
       </c>
       <c r="F936" s="8">
-        <v>2</v>
-      </c>
-      <c r="G936" s="8" t="s">
-        <v>2038</v>
-      </c>
-      <c r="H936" s="8"/>
-    </row>
-    <row r="937" spans="1:8" s="8" customFormat="1">
+        <v>1</v>
+      </c>
+      <c r="G936" s="10" t="s">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="937" spans="1:8">
       <c r="A937" s="8">
         <v>936</v>
       </c>
       <c r="B937" s="8">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C937" s="10" t="s">
-        <v>1117</v>
-      </c>
-      <c r="D937" s="10">
-        <v>0</v>
+        <v>1052</v>
+      </c>
+      <c r="D937" s="10" t="s">
+        <v>1212</v>
       </c>
       <c r="E937" s="8">
         <v>2</v>
@@ -50429,8 +50418,9 @@
         <v>1</v>
       </c>
       <c r="G937" s="10" t="s">
-        <v>2030</v>
-      </c>
+        <v>1176</v>
+      </c>
+      <c r="H937" s="8"/>
     </row>
     <row r="938" spans="1:8">
       <c r="A938" s="8">
@@ -50440,19 +50430,19 @@
         <v>382</v>
       </c>
       <c r="C938" s="10" t="s">
-        <v>1052</v>
+        <v>852</v>
       </c>
       <c r="D938" s="10" t="s">
-        <v>1212</v>
+        <v>857</v>
       </c>
       <c r="E938" s="8">
         <v>2</v>
       </c>
       <c r="F938" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G938" s="10" t="s">
-        <v>1176</v>
+        <v>2047</v>
       </c>
       <c r="H938" s="8"/>
     </row>
@@ -50467,16 +50457,16 @@
         <v>852</v>
       </c>
       <c r="D939" s="10" t="s">
-        <v>857</v>
+        <v>861</v>
       </c>
       <c r="E939" s="8">
         <v>2</v>
       </c>
       <c r="F939" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G939" s="10" t="s">
-        <v>2047</v>
+        <v>2048</v>
       </c>
       <c r="H939" s="8"/>
     </row>
@@ -50485,22 +50475,22 @@
         <v>939</v>
       </c>
       <c r="B940" s="8">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C940" s="10" t="s">
-        <v>852</v>
-      </c>
-      <c r="D940" s="10" t="s">
-        <v>861</v>
+        <v>1117</v>
+      </c>
+      <c r="D940" s="8">
+        <v>1</v>
       </c>
       <c r="E940" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F940" s="8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G940" s="10" t="s">
-        <v>2048</v>
+        <v>2049</v>
       </c>
       <c r="H940" s="8"/>
     </row>
@@ -50515,16 +50505,16 @@
         <v>1117</v>
       </c>
       <c r="D941" s="8">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E941" s="8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F941" s="8">
         <v>1</v>
       </c>
       <c r="G941" s="10" t="s">
-        <v>2049</v>
+        <v>2050</v>
       </c>
       <c r="H941" s="8"/>
     </row>
@@ -50535,20 +50525,20 @@
       <c r="B942" s="8">
         <v>383</v>
       </c>
-      <c r="C942" s="10" t="s">
-        <v>1117</v>
-      </c>
-      <c r="D942" s="8">
-        <v>7</v>
+      <c r="C942" s="8" t="s">
+        <v>852</v>
+      </c>
+      <c r="D942" s="8" t="s">
+        <v>853</v>
       </c>
       <c r="E942" s="8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F942" s="8">
         <v>1</v>
       </c>
       <c r="G942" s="10" t="s">
-        <v>2050</v>
+        <v>2051</v>
       </c>
       <c r="H942" s="8"/>
     </row>
@@ -50557,22 +50547,22 @@
         <v>942</v>
       </c>
       <c r="B943" s="8">
-        <v>383</v>
-      </c>
-      <c r="C943" s="8" t="s">
-        <v>852</v>
-      </c>
-      <c r="D943" s="8" t="s">
-        <v>853</v>
+        <v>384</v>
+      </c>
+      <c r="C943" s="10" t="s">
+        <v>1117</v>
+      </c>
+      <c r="D943" s="8">
+        <v>8</v>
       </c>
       <c r="E943" s="8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F943" s="8">
         <v>1</v>
       </c>
       <c r="G943" s="10" t="s">
-        <v>2051</v>
+        <v>2049</v>
       </c>
       <c r="H943" s="8"/>
     </row>
@@ -50587,16 +50577,16 @@
         <v>1117</v>
       </c>
       <c r="D944" s="8">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E944" s="8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F944" s="8">
         <v>1</v>
       </c>
       <c r="G944" s="10" t="s">
-        <v>2049</v>
+        <v>2050</v>
       </c>
       <c r="H944" s="8"/>
     </row>
@@ -50607,114 +50597,113 @@
       <c r="B945" s="8">
         <v>384</v>
       </c>
-      <c r="C945" s="10" t="s">
-        <v>1117</v>
-      </c>
-      <c r="D945" s="8">
-        <v>12</v>
+      <c r="C945" s="8" t="s">
+        <v>852</v>
+      </c>
+      <c r="D945" s="8" t="s">
+        <v>853</v>
       </c>
       <c r="E945" s="8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F945" s="8">
         <v>1</v>
       </c>
       <c r="G945" s="10" t="s">
-        <v>2050</v>
+        <v>2051</v>
       </c>
       <c r="H945" s="8"/>
     </row>
-    <row r="946" spans="1:8">
+    <row r="946" spans="1:8" s="8" customFormat="1">
       <c r="A946" s="8">
         <v>945</v>
       </c>
       <c r="B946" s="8">
-        <v>384</v>
-      </c>
-      <c r="C946" s="8" t="s">
-        <v>852</v>
-      </c>
-      <c r="D946" s="8" t="s">
-        <v>853</v>
+        <v>385</v>
+      </c>
+      <c r="C946" s="10" t="s">
+        <v>1117</v>
+      </c>
+      <c r="D946" s="10">
+        <v>0</v>
       </c>
       <c r="E946" s="8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F946" s="8">
         <v>1</v>
       </c>
       <c r="G946" s="10" t="s">
-        <v>2051</v>
-      </c>
-      <c r="H946" s="8"/>
+        <v>2056</v>
+      </c>
     </row>
     <row r="947" spans="1:8" s="8" customFormat="1">
       <c r="A947" s="8">
         <v>946</v>
       </c>
       <c r="B947" s="8">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C947" s="10" t="s">
-        <v>1117</v>
+        <v>2057</v>
       </c>
       <c r="D947" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E947" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F947" s="8">
         <v>1</v>
       </c>
       <c r="G947" s="10" t="s">
-        <v>2056</v>
-      </c>
-    </row>
-    <row r="948" spans="1:8" s="8" customFormat="1">
+        <v>2058</v>
+      </c>
+    </row>
+    <row r="948" spans="1:8">
       <c r="A948" s="8">
         <v>947</v>
       </c>
-      <c r="B948" s="8">
-        <v>386</v>
-      </c>
-      <c r="C948" s="10" t="s">
-        <v>2057</v>
-      </c>
-      <c r="D948" s="10">
-        <v>1</v>
-      </c>
-      <c r="E948" s="8">
-        <v>3</v>
-      </c>
-      <c r="F948" s="8">
-        <v>1</v>
-      </c>
-      <c r="G948" s="10" t="s">
-        <v>2058</v>
-      </c>
-    </row>
-    <row r="949" spans="1:8">
+      <c r="B948" s="9">
+        <v>387</v>
+      </c>
+      <c r="C948" s="8" t="s">
+        <v>852</v>
+      </c>
+      <c r="D948" s="8" t="s">
+        <v>853</v>
+      </c>
+      <c r="E948" s="9">
+        <v>5</v>
+      </c>
+      <c r="F948" s="9">
+        <v>1</v>
+      </c>
+      <c r="G948" s="9" t="s">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="949" spans="1:8" s="8" customFormat="1">
       <c r="A949" s="8">
         <v>948</v>
       </c>
-      <c r="B949" s="9">
-        <v>387</v>
-      </c>
-      <c r="C949" s="8" t="s">
-        <v>852</v>
-      </c>
-      <c r="D949" s="8" t="s">
-        <v>853</v>
-      </c>
-      <c r="E949" s="9">
+      <c r="B949" s="8">
+        <v>388</v>
+      </c>
+      <c r="C949" s="10" t="s">
+        <v>2069</v>
+      </c>
+      <c r="D949" s="10" t="s">
+        <v>2078</v>
+      </c>
+      <c r="E949" s="8">
         <v>5</v>
       </c>
-      <c r="F949" s="9">
-        <v>1</v>
-      </c>
-      <c r="G949" s="9" t="s">
-        <v>2064</v>
+      <c r="F949" s="8">
+        <v>1</v>
+      </c>
+      <c r="G949" s="10" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="950" spans="1:8" s="8" customFormat="1">
@@ -50731,13 +50720,13 @@
         <v>2078</v>
       </c>
       <c r="E950" s="8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F950" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G950" s="10" t="s">
-        <v>911</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="951" spans="1:8" s="8" customFormat="1">
@@ -50745,19 +50734,19 @@
         <v>950</v>
       </c>
       <c r="B951" s="8">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C951" s="10" t="s">
-        <v>2069</v>
+        <v>1052</v>
       </c>
       <c r="D951" s="10" t="s">
-        <v>2078</v>
+        <v>1212</v>
       </c>
       <c r="E951" s="8">
         <v>2</v>
       </c>
       <c r="F951" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G951" s="10" t="s">
         <v>1176</v>
@@ -50771,19 +50760,19 @@
         <v>389</v>
       </c>
       <c r="C952" s="10" t="s">
-        <v>1052</v>
-      </c>
-      <c r="D952" s="10" t="s">
-        <v>1212</v>
+        <v>1117</v>
+      </c>
+      <c r="D952" s="8">
+        <v>3</v>
       </c>
       <c r="E952" s="8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F952" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G952" s="10" t="s">
-        <v>1176</v>
+        <v>2076</v>
       </c>
     </row>
     <row r="953" spans="1:8" s="8" customFormat="1">
@@ -50791,22 +50780,22 @@
         <v>952</v>
       </c>
       <c r="B953" s="8">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C953" s="10" t="s">
         <v>1117</v>
       </c>
       <c r="D953" s="8">
+        <v>4</v>
+      </c>
+      <c r="E953" s="8">
         <v>3</v>
       </c>
-      <c r="E953" s="8">
-        <v>4</v>
-      </c>
       <c r="F953" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G953" s="10" t="s">
-        <v>2076</v>
+        <v>2077</v>
       </c>
     </row>
     <row r="954" spans="1:8" s="8" customFormat="1">
@@ -50820,16 +50809,16 @@
         <v>1117</v>
       </c>
       <c r="D954" s="8">
+        <v>7</v>
+      </c>
+      <c r="E954" s="8">
         <v>4</v>
       </c>
-      <c r="E954" s="8">
-        <v>3</v>
-      </c>
       <c r="F954" s="8">
         <v>1</v>
       </c>
       <c r="G954" s="10" t="s">
-        <v>2077</v>
+        <v>2050</v>
       </c>
     </row>
     <row r="955" spans="1:8" s="8" customFormat="1">
@@ -50839,20 +50828,20 @@
       <c r="B955" s="8">
         <v>390</v>
       </c>
-      <c r="C955" s="10" t="s">
-        <v>1117</v>
-      </c>
-      <c r="D955" s="8">
-        <v>7</v>
+      <c r="C955" s="8" t="s">
+        <v>852</v>
+      </c>
+      <c r="D955" s="8" t="s">
+        <v>853</v>
       </c>
       <c r="E955" s="8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F955" s="8">
         <v>1</v>
       </c>
       <c r="G955" s="10" t="s">
-        <v>2050</v>
+        <v>2051</v>
       </c>
     </row>
     <row r="956" spans="1:8" s="8" customFormat="1">
@@ -50860,22 +50849,22 @@
         <v>955</v>
       </c>
       <c r="B956" s="8">
-        <v>390</v>
-      </c>
-      <c r="C956" s="8" t="s">
-        <v>852</v>
-      </c>
-      <c r="D956" s="8" t="s">
-        <v>853</v>
+        <v>391</v>
+      </c>
+      <c r="C956" s="10" t="s">
+        <v>1117</v>
+      </c>
+      <c r="D956" s="8">
+        <v>8</v>
       </c>
       <c r="E956" s="8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F956" s="8">
         <v>1</v>
       </c>
       <c r="G956" s="10" t="s">
-        <v>2051</v>
+        <v>2049</v>
       </c>
     </row>
     <row r="957" spans="1:8" s="8" customFormat="1">
@@ -50886,19 +50875,19 @@
         <v>391</v>
       </c>
       <c r="C957" s="10" t="s">
-        <v>1117</v>
+        <v>2124</v>
       </c>
       <c r="D957" s="8">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E957" s="8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F957" s="8">
         <v>1</v>
       </c>
       <c r="G957" s="10" t="s">
-        <v>2049</v>
+        <v>2050</v>
       </c>
     </row>
     <row r="958" spans="1:8" s="8" customFormat="1">
@@ -50908,20 +50897,20 @@
       <c r="B958" s="8">
         <v>391</v>
       </c>
-      <c r="C958" s="10" t="s">
-        <v>2125</v>
-      </c>
-      <c r="D958" s="8">
-        <v>12</v>
+      <c r="C958" s="8" t="s">
+        <v>852</v>
+      </c>
+      <c r="D958" s="8" t="s">
+        <v>853</v>
       </c>
       <c r="E958" s="8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F958" s="8">
         <v>1</v>
       </c>
       <c r="G958" s="10" t="s">
-        <v>2050</v>
+        <v>2051</v>
       </c>
     </row>
     <row r="959" spans="1:8" s="8" customFormat="1">
@@ -50929,7 +50918,7 @@
         <v>958</v>
       </c>
       <c r="B959" s="8">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C959" s="8" t="s">
         <v>852</v>
@@ -50943,7 +50932,7 @@
       <c r="F959" s="8">
         <v>1</v>
       </c>
-      <c r="G959" s="10" t="s">
+      <c r="G959" s="8" t="s">
         <v>2051</v>
       </c>
     </row>
@@ -50952,13 +50941,13 @@
         <v>959</v>
       </c>
       <c r="B960" s="8">
-        <v>392</v>
-      </c>
-      <c r="C960" s="8" t="s">
-        <v>852</v>
-      </c>
-      <c r="D960" s="8" t="s">
-        <v>853</v>
+        <v>393</v>
+      </c>
+      <c r="C960" s="10" t="s">
+        <v>1143</v>
+      </c>
+      <c r="D960" s="10" t="s">
+        <v>1958</v>
       </c>
       <c r="E960" s="8">
         <v>5</v>
@@ -50966,8 +50955,8 @@
       <c r="F960" s="8">
         <v>1</v>
       </c>
-      <c r="G960" s="8" t="s">
-        <v>2051</v>
+      <c r="G960" s="10" t="s">
+        <v>2090</v>
       </c>
     </row>
     <row r="961" spans="1:9" s="8" customFormat="1">
@@ -50975,7 +50964,7 @@
         <v>960</v>
       </c>
       <c r="B961" s="8">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C961" s="10" t="s">
         <v>1143</v>
@@ -50984,13 +50973,13 @@
         <v>1958</v>
       </c>
       <c r="E961" s="8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F961" s="8">
         <v>1</v>
       </c>
       <c r="G961" s="10" t="s">
-        <v>2090</v>
+        <v>2091</v>
       </c>
     </row>
     <row r="962" spans="1:9" s="8" customFormat="1">
@@ -50998,10 +50987,10 @@
         <v>961</v>
       </c>
       <c r="B962" s="8">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C962" s="10" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="D962" s="10" t="s">
         <v>1958</v>
@@ -51021,13 +51010,13 @@
         <v>962</v>
       </c>
       <c r="B963" s="8">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C963" s="10" t="s">
         <v>1142</v>
       </c>
-      <c r="D963" s="10" t="s">
-        <v>1958</v>
+      <c r="D963" s="64" t="s">
+        <v>1818</v>
       </c>
       <c r="E963" s="8">
         <v>2</v>
@@ -51035,8 +51024,8 @@
       <c r="F963" s="8">
         <v>1</v>
       </c>
-      <c r="G963" s="10" t="s">
-        <v>2091</v>
+      <c r="G963" s="8" t="s">
+        <v>2105</v>
       </c>
     </row>
     <row r="964" spans="1:9" s="8" customFormat="1">
@@ -51050,16 +51039,16 @@
         <v>1142</v>
       </c>
       <c r="D964" s="64" t="s">
-        <v>1818</v>
+        <v>1915</v>
       </c>
       <c r="E964" s="8">
         <v>2</v>
       </c>
       <c r="F964" s="8">
-        <v>1</v>
-      </c>
-      <c r="G964" s="8" t="s">
-        <v>2105</v>
+        <v>2</v>
+      </c>
+      <c r="G964" s="10" t="s">
+        <v>2106</v>
       </c>
     </row>
     <row r="965" spans="1:9" s="8" customFormat="1">
@@ -51067,22 +51056,22 @@
         <v>964</v>
       </c>
       <c r="B965" s="8">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C965" s="10" t="s">
         <v>1142</v>
       </c>
       <c r="D965" s="64" t="s">
-        <v>1915</v>
+        <v>1958</v>
       </c>
       <c r="E965" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F965" s="8">
         <v>2</v>
       </c>
       <c r="G965" s="10" t="s">
-        <v>2106</v>
+        <v>2121</v>
       </c>
     </row>
     <row r="966" spans="1:9" s="8" customFormat="1">
@@ -51092,20 +51081,20 @@
       <c r="B966" s="8">
         <v>397</v>
       </c>
-      <c r="C966" s="10" t="s">
-        <v>1142</v>
-      </c>
-      <c r="D966" s="64" t="s">
-        <v>1958</v>
+      <c r="C966" s="8" t="s">
+        <v>852</v>
+      </c>
+      <c r="D966" s="8" t="s">
+        <v>853</v>
       </c>
       <c r="E966" s="8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F966" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G966" s="10" t="s">
-        <v>2122</v>
+        <v>1842</v>
       </c>
     </row>
     <row r="967" spans="1:9" s="8" customFormat="1">
@@ -51113,22 +51102,22 @@
         <v>966</v>
       </c>
       <c r="B967" s="8">
-        <v>397</v>
-      </c>
-      <c r="C967" s="8" t="s">
-        <v>852</v>
-      </c>
-      <c r="D967" s="8" t="s">
-        <v>853</v>
+        <v>398</v>
+      </c>
+      <c r="C967" s="10" t="s">
+        <v>1142</v>
+      </c>
+      <c r="D967" s="64" t="s">
+        <v>1958</v>
       </c>
       <c r="E967" s="8">
         <v>2</v>
       </c>
       <c r="F967" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G967" s="10" t="s">
-        <v>1842</v>
+        <v>2122</v>
       </c>
     </row>
     <row r="968" spans="1:9" s="8" customFormat="1">
@@ -51138,44 +51127,46 @@
       <c r="B968" s="8">
         <v>398</v>
       </c>
-      <c r="C968" s="10" t="s">
-        <v>1142</v>
-      </c>
-      <c r="D968" s="64" t="s">
-        <v>1958</v>
+      <c r="C968" s="8" t="s">
+        <v>852</v>
+      </c>
+      <c r="D968" s="8" t="s">
+        <v>853</v>
       </c>
       <c r="E968" s="8">
         <v>2</v>
       </c>
       <c r="F968" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G968" s="10" t="s">
-        <v>2123</v>
-      </c>
-    </row>
-    <row r="969" spans="1:9" s="8" customFormat="1">
+        <v>1842</v>
+      </c>
+    </row>
+    <row r="969" spans="1:9">
       <c r="A969" s="8">
         <v>968</v>
       </c>
-      <c r="B969" s="8">
-        <v>398</v>
-      </c>
-      <c r="C969" s="8" t="s">
-        <v>852</v>
-      </c>
-      <c r="D969" s="8" t="s">
-        <v>853</v>
-      </c>
-      <c r="E969" s="8">
-        <v>2</v>
-      </c>
-      <c r="F969" s="8">
-        <v>1</v>
-      </c>
-      <c r="G969" s="10" t="s">
-        <v>1842</v>
-      </c>
+      <c r="B969" s="20">
+        <v>399</v>
+      </c>
+      <c r="C969" s="21" t="s">
+        <v>1142</v>
+      </c>
+      <c r="D969" s="21" t="s">
+        <v>1903</v>
+      </c>
+      <c r="E969" s="20">
+        <v>5</v>
+      </c>
+      <c r="F969" s="20">
+        <v>1</v>
+      </c>
+      <c r="G969" s="21" t="s">
+        <v>1881</v>
+      </c>
+      <c r="H969" s="8"/>
+      <c r="I969" s="8"/>
     </row>
     <row r="970" spans="1:9">
       <c r="A970" s="8">
@@ -51185,19 +51176,19 @@
         <v>399</v>
       </c>
       <c r="C970" s="21" t="s">
-        <v>1142</v>
-      </c>
-      <c r="D970" s="21" t="s">
-        <v>1903</v>
+        <v>1129</v>
+      </c>
+      <c r="D970" s="21">
+        <v>5</v>
       </c>
       <c r="E970" s="20">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F970" s="20">
         <v>1</v>
       </c>
       <c r="G970" s="21" t="s">
-        <v>1881</v>
+        <v>2125</v>
       </c>
       <c r="H970" s="8"/>
       <c r="I970" s="8"/>
@@ -51207,25 +51198,29 @@
         <v>970</v>
       </c>
       <c r="B971" s="20">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C971" s="21" t="s">
-        <v>1129</v>
-      </c>
-      <c r="D971" s="21">
-        <v>5</v>
+        <v>1142</v>
+      </c>
+      <c r="D971" s="21" t="s">
+        <v>1903</v>
       </c>
       <c r="E971" s="20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F971" s="20">
         <v>1</v>
       </c>
       <c r="G971" s="21" t="s">
-        <v>2126</v>
-      </c>
-      <c r="H971" s="8"/>
-      <c r="I971" s="8"/>
+        <v>1892</v>
+      </c>
+      <c r="H971" s="8" t="s">
+        <v>863</v>
+      </c>
+      <c r="I971" s="8" t="s">
+        <v>864</v>
+      </c>
     </row>
     <row r="972" spans="1:9">
       <c r="A972" s="8">
@@ -51235,19 +51230,19 @@
         <v>400</v>
       </c>
       <c r="C972" s="21" t="s">
-        <v>1142</v>
-      </c>
-      <c r="D972" s="21" t="s">
-        <v>1903</v>
+        <v>1129</v>
+      </c>
+      <c r="D972" s="21">
+        <v>5</v>
       </c>
       <c r="E972" s="20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F972" s="20">
         <v>1</v>
       </c>
       <c r="G972" s="21" t="s">
-        <v>1892</v>
+        <v>2125</v>
       </c>
       <c r="H972" s="8" t="s">
         <v>863</v>
@@ -51256,46 +51251,22 @@
         <v>864</v>
       </c>
     </row>
-    <row r="973" spans="1:9">
-      <c r="A973" s="8">
-        <v>972</v>
-      </c>
-      <c r="B973" s="20">
-        <v>400</v>
-      </c>
-      <c r="C973" s="21" t="s">
-        <v>1129</v>
-      </c>
-      <c r="D973" s="21">
-        <v>5</v>
-      </c>
-      <c r="E973" s="20">
-        <v>3</v>
-      </c>
-      <c r="F973" s="20">
-        <v>1</v>
-      </c>
-      <c r="G973" s="21" t="s">
-        <v>2126</v>
-      </c>
-      <c r="H973" s="8" t="s">
-        <v>863</v>
-      </c>
-      <c r="I973" s="8" t="s">
-        <v>864</v>
-      </c>
+    <row r="973" spans="1:9" s="8" customFormat="1">
+      <c r="C973" s="10"/>
+      <c r="D973" s="10"/>
+      <c r="G973" s="10"/>
     </row>
     <row r="974" spans="1:9" s="8" customFormat="1">
       <c r="C974" s="10"/>
       <c r="D974" s="10"/>
       <c r="G974" s="10"/>
     </row>
-    <row r="975" spans="1:9" s="8" customFormat="1">
-      <c r="C975" s="10"/>
-      <c r="D975" s="10"/>
-      <c r="G975" s="10"/>
-    </row>
-    <row r="976" spans="1:9" s="8" customFormat="1"/>
+    <row r="975" spans="1:9" s="8" customFormat="1"/>
+    <row r="976" spans="1:9" s="8" customFormat="1">
+      <c r="C976" s="10"/>
+      <c r="D976" s="10"/>
+      <c r="G976" s="10"/>
+    </row>
     <row r="977" spans="3:7" s="8" customFormat="1">
       <c r="C977" s="10"/>
       <c r="D977" s="10"/>
@@ -51305,11 +51276,6 @@
       <c r="C978" s="10"/>
       <c r="D978" s="10"/>
       <c r="G978" s="10"/>
-    </row>
-    <row r="979" spans="3:7" s="8" customFormat="1">
-      <c r="C979" s="10"/>
-      <c r="D979" s="10"/>
-      <c r="G979" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>

--- a/config_3.9/permission_server_config.xlsx
+++ b/config_3.9/permission_server_config.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4945" uniqueCount="2132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4957" uniqueCount="2137">
   <si>
     <t>key|唯一标识</t>
   </si>
@@ -9841,6 +9841,39 @@
   </si>
   <si>
     <t>2021年3月15日23:59:59结束</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>actp_own_task_gehk</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_v3</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>小于等于V3</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_own_task_gehk_v4v12</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>大于等于V4</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>大于V4</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -15537,13 +15570,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:O367"/>
+  <dimension ref="A1:O369"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D329" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="G341" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C353" sqref="C353"/>
+      <selection pane="bottomRight" activeCell="G372" sqref="G372"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -27955,6 +27988,74 @@
         <v>2131</v>
       </c>
     </row>
+    <row r="368" spans="1:12">
+      <c r="A368" s="16">
+        <v>367</v>
+      </c>
+      <c r="B368" s="65">
+        <v>1</v>
+      </c>
+      <c r="C368" s="66" t="s">
+        <v>2132</v>
+      </c>
+      <c r="D368" s="66" t="s">
+        <v>2133</v>
+      </c>
+      <c r="E368" s="65"/>
+      <c r="F368" s="65"/>
+      <c r="G368" s="65">
+        <v>401</v>
+      </c>
+      <c r="H368" s="65" t="b">
+        <v>1</v>
+      </c>
+      <c r="I368" s="67" t="b">
+        <v>1</v>
+      </c>
+      <c r="J368" s="66" t="s">
+        <v>1116</v>
+      </c>
+      <c r="K368" s="65">
+        <v>1615248000</v>
+      </c>
+      <c r="L368" s="66" t="s">
+        <v>2123</v>
+      </c>
+    </row>
+    <row r="369" spans="1:12">
+      <c r="A369" s="16">
+        <v>368</v>
+      </c>
+      <c r="B369" s="65">
+        <v>1</v>
+      </c>
+      <c r="C369" s="66" t="s">
+        <v>2134</v>
+      </c>
+      <c r="D369" s="66" t="s">
+        <v>2135</v>
+      </c>
+      <c r="E369" s="65"/>
+      <c r="F369" s="65"/>
+      <c r="G369" s="65">
+        <v>402</v>
+      </c>
+      <c r="H369" s="65" t="b">
+        <v>1</v>
+      </c>
+      <c r="I369" s="67" t="b">
+        <v>1</v>
+      </c>
+      <c r="J369" s="66" t="s">
+        <v>1116</v>
+      </c>
+      <c r="K369" s="65">
+        <v>1615248000</v>
+      </c>
+      <c r="L369" s="66" t="s">
+        <v>2123</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:N224"/>
   <phoneticPr fontId="9" type="noConversion"/>
@@ -27969,10 +28070,10 @@
   <dimension ref="A1:I978"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C916" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C949" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D963" sqref="D963"/>
+      <selection pane="bottomRight" activeCell="B979" sqref="B979"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -51252,14 +51353,50 @@
       </c>
     </row>
     <row r="973" spans="1:9" s="8" customFormat="1">
-      <c r="C973" s="10"/>
-      <c r="D973" s="10"/>
-      <c r="G973" s="10"/>
+      <c r="A973" s="8">
+        <v>972</v>
+      </c>
+      <c r="B973" s="20">
+        <v>401</v>
+      </c>
+      <c r="C973" s="21" t="s">
+        <v>1117</v>
+      </c>
+      <c r="D973" s="20">
+        <v>3</v>
+      </c>
+      <c r="E973" s="20">
+        <v>4</v>
+      </c>
+      <c r="F973" s="20">
+        <v>1</v>
+      </c>
+      <c r="G973" s="21" t="s">
+        <v>2076</v>
+      </c>
     </row>
     <row r="974" spans="1:9" s="8" customFormat="1">
-      <c r="C974" s="10"/>
-      <c r="D974" s="10"/>
-      <c r="G974" s="10"/>
+      <c r="A974" s="8">
+        <v>973</v>
+      </c>
+      <c r="B974" s="20">
+        <v>402</v>
+      </c>
+      <c r="C974" s="21" t="s">
+        <v>1117</v>
+      </c>
+      <c r="D974" s="20">
+        <v>4</v>
+      </c>
+      <c r="E974" s="20">
+        <v>3</v>
+      </c>
+      <c r="F974" s="20">
+        <v>1</v>
+      </c>
+      <c r="G974" s="21" t="s">
+        <v>2136</v>
+      </c>
     </row>
     <row r="975" spans="1:9" s="8" customFormat="1"/>
     <row r="976" spans="1:9" s="8" customFormat="1">

--- a/config_3.9/permission_server_config.xlsx
+++ b/config_3.9/permission_server_config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_3.9\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_3.9\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4957" uniqueCount="2137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4961" uniqueCount="2137">
   <si>
     <t>key|唯一标识</t>
   </si>
@@ -9781,22 +9781,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>p_xrxsfl_hlby</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>p_xrxsfl_cjj</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>新人限时福利-欢乐捕鱼</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>新人限时福利-冲金鸡</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>is_dynamic_codi|条件是否动态达成，TRUE第一次及其以后某个身份   FALSE第一次的获得这个任务的身份</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -9874,6 +9858,22 @@
   </si>
   <si>
     <t>大于V4</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_own_task_p_xrxsfl_hlby</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_own_task_p_xrxsfl_cjj</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>新人限时福利（欢乐捕鱼）</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>新人限时福利（冲金鸡）</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -10716,11 +10716,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Q472"/>
+  <dimension ref="A1:Q469"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A442" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B470" sqref="B470"/>
+      <selection pane="bottomLeft" activeCell="B462" sqref="B462"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -15538,28 +15538,6 @@
         <v>26</v>
       </c>
     </row>
-    <row r="471" spans="1:3">
-      <c r="A471" s="9" t="s">
-        <v>2116</v>
-      </c>
-      <c r="B471" s="27" t="s">
-        <v>2118</v>
-      </c>
-      <c r="C471" s="3">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="472" spans="1:3">
-      <c r="A472" s="49" t="s">
-        <v>2117</v>
-      </c>
-      <c r="B472" s="27" t="s">
-        <v>2119</v>
-      </c>
-      <c r="C472" s="3">
-        <v>398</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -15570,13 +15548,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:O369"/>
+  <dimension ref="A1:O371"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="G341" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="I344" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G372" sqref="G372"/>
+      <selection pane="bottomRight" activeCell="L371" sqref="L371"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -15618,7 +15596,7 @@
         <v>2</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>2120</v>
+        <v>2116</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>450</v>
@@ -25429,7 +25407,7 @@
         <v>1615248000</v>
       </c>
       <c r="L289" s="72" t="s">
-        <v>2130</v>
+        <v>2126</v>
       </c>
     </row>
     <row r="290" spans="1:12" s="73" customFormat="1">
@@ -25463,7 +25441,7 @@
         <v>1615248000</v>
       </c>
       <c r="L290" s="71" t="s">
-        <v>2130</v>
+        <v>2126</v>
       </c>
     </row>
     <row r="291" spans="1:12" s="73" customFormat="1">
@@ -25497,7 +25475,7 @@
         <v>1615248000</v>
       </c>
       <c r="L291" s="71" t="s">
-        <v>2130</v>
+        <v>2126</v>
       </c>
     </row>
     <row r="292" spans="1:12" s="73" customFormat="1">
@@ -25531,7 +25509,7 @@
         <v>1615248000</v>
       </c>
       <c r="L292" s="71" t="s">
-        <v>2130</v>
+        <v>2126</v>
       </c>
     </row>
     <row r="293" spans="1:12">
@@ -27928,10 +27906,10 @@
         <v>1</v>
       </c>
       <c r="C366" s="66" t="s">
-        <v>2126</v>
+        <v>2122</v>
       </c>
       <c r="D366" s="66" t="s">
-        <v>2128</v>
+        <v>2124</v>
       </c>
       <c r="E366" s="65"/>
       <c r="F366" s="65"/>
@@ -27951,7 +27929,7 @@
         <v>1615248000</v>
       </c>
       <c r="L366" s="66" t="s">
-        <v>2123</v>
+        <v>2119</v>
       </c>
     </row>
     <row r="367" spans="1:12" s="22" customFormat="1">
@@ -27962,10 +27940,10 @@
         <v>1</v>
       </c>
       <c r="C367" s="66" t="s">
-        <v>2127</v>
+        <v>2123</v>
       </c>
       <c r="D367" s="66" t="s">
-        <v>2129</v>
+        <v>2125</v>
       </c>
       <c r="E367" s="65"/>
       <c r="F367" s="65"/>
@@ -27985,7 +27963,7 @@
         <v>1615248000</v>
       </c>
       <c r="L367" s="66" t="s">
-        <v>2131</v>
+        <v>2127</v>
       </c>
     </row>
     <row r="368" spans="1:12">
@@ -27996,10 +27974,10 @@
         <v>1</v>
       </c>
       <c r="C368" s="66" t="s">
-        <v>2132</v>
+        <v>2128</v>
       </c>
       <c r="D368" s="66" t="s">
-        <v>2133</v>
+        <v>2129</v>
       </c>
       <c r="E368" s="65"/>
       <c r="F368" s="65"/>
@@ -28019,7 +27997,7 @@
         <v>1615248000</v>
       </c>
       <c r="L368" s="66" t="s">
-        <v>2123</v>
+        <v>2119</v>
       </c>
     </row>
     <row r="369" spans="1:12">
@@ -28030,10 +28008,10 @@
         <v>1</v>
       </c>
       <c r="C369" s="66" t="s">
-        <v>2134</v>
+        <v>2130</v>
       </c>
       <c r="D369" s="66" t="s">
-        <v>2135</v>
+        <v>2131</v>
       </c>
       <c r="E369" s="65"/>
       <c r="F369" s="65"/>
@@ -28053,7 +28031,75 @@
         <v>1615248000</v>
       </c>
       <c r="L369" s="66" t="s">
-        <v>2123</v>
+        <v>2119</v>
+      </c>
+    </row>
+    <row r="370" spans="1:12">
+      <c r="A370" s="16">
+        <v>369</v>
+      </c>
+      <c r="B370" s="65">
+        <v>1</v>
+      </c>
+      <c r="C370" s="66" t="s">
+        <v>2133</v>
+      </c>
+      <c r="D370" s="16" t="s">
+        <v>2135</v>
+      </c>
+      <c r="E370" s="65"/>
+      <c r="F370" s="65"/>
+      <c r="G370" s="16">
+        <v>370</v>
+      </c>
+      <c r="H370" s="65" t="b">
+        <v>1</v>
+      </c>
+      <c r="I370" s="67" t="b">
+        <v>1</v>
+      </c>
+      <c r="J370" s="66" t="s">
+        <v>1116</v>
+      </c>
+      <c r="K370" s="65">
+        <v>1615248000</v>
+      </c>
+      <c r="L370" s="16" t="s">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="371" spans="1:12">
+      <c r="A371" s="16">
+        <v>370</v>
+      </c>
+      <c r="B371" s="65">
+        <v>1</v>
+      </c>
+      <c r="C371" s="66" t="s">
+        <v>2134</v>
+      </c>
+      <c r="D371" s="16" t="s">
+        <v>2136</v>
+      </c>
+      <c r="E371" s="65"/>
+      <c r="F371" s="65"/>
+      <c r="G371" s="16">
+        <v>371</v>
+      </c>
+      <c r="H371" s="65" t="b">
+        <v>1</v>
+      </c>
+      <c r="I371" s="67" t="b">
+        <v>1</v>
+      </c>
+      <c r="J371" s="66" t="s">
+        <v>1116</v>
+      </c>
+      <c r="K371" s="65">
+        <v>1615248000</v>
+      </c>
+      <c r="L371" s="16" t="s">
+        <v>1165</v>
       </c>
     </row>
   </sheetData>
@@ -28070,10 +28116,10 @@
   <dimension ref="A1:I978"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C949" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C910" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B979" sqref="B979"/>
+      <selection pane="bottomRight" activeCell="A920" sqref="A920:XFD921"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -50976,7 +51022,7 @@
         <v>391</v>
       </c>
       <c r="C957" s="10" t="s">
-        <v>2124</v>
+        <v>2120</v>
       </c>
       <c r="D957" s="8">
         <v>12</v>
@@ -51172,7 +51218,7 @@
         <v>2</v>
       </c>
       <c r="G965" s="10" t="s">
-        <v>2121</v>
+        <v>2117</v>
       </c>
     </row>
     <row r="966" spans="1:9" s="8" customFormat="1">
@@ -51218,7 +51264,7 @@
         <v>2</v>
       </c>
       <c r="G967" s="10" t="s">
-        <v>2122</v>
+        <v>2118</v>
       </c>
     </row>
     <row r="968" spans="1:9" s="8" customFormat="1">
@@ -51289,7 +51335,7 @@
         <v>1</v>
       </c>
       <c r="G970" s="21" t="s">
-        <v>2125</v>
+        <v>2121</v>
       </c>
       <c r="H970" s="8"/>
       <c r="I970" s="8"/>
@@ -51343,7 +51389,7 @@
         <v>1</v>
       </c>
       <c r="G972" s="21" t="s">
-        <v>2125</v>
+        <v>2121</v>
       </c>
       <c r="H972" s="8" t="s">
         <v>863</v>
@@ -51395,7 +51441,7 @@
         <v>1</v>
       </c>
       <c r="G974" s="21" t="s">
-        <v>2136</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="975" spans="1:9" s="8" customFormat="1"/>

--- a/config_3.9/permission_server_config.xlsx
+++ b/config_3.9/permission_server_config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_3.9\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_3.9\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4961" uniqueCount="2137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4969" uniqueCount="2140">
   <si>
     <t>key|唯一标识</t>
   </si>
@@ -9874,6 +9874,18 @@
   </si>
   <si>
     <t>新人限时福利（冲金鸡）</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>礼盒排行榜--非cjj</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_rank_kh315_008_lhphb_rank</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_rank_xxlzb_005_rank</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -10718,7 +10730,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Q469"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A442" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B462" sqref="B462"/>
     </sheetView>
@@ -15548,13 +15560,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:O371"/>
+  <dimension ref="A1:O373"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="I344" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D344" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="L371" sqref="L371"/>
+      <selection pane="bottomRight" activeCell="C376" sqref="C376"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -28100,6 +28112,74 @@
       </c>
       <c r="L371" s="16" t="s">
         <v>1165</v>
+      </c>
+    </row>
+    <row r="372" spans="1:12" s="22" customFormat="1">
+      <c r="A372" s="16">
+        <v>371</v>
+      </c>
+      <c r="B372" s="65">
+        <v>0</v>
+      </c>
+      <c r="C372" s="58" t="s">
+        <v>2138</v>
+      </c>
+      <c r="D372" s="66" t="s">
+        <v>2137</v>
+      </c>
+      <c r="E372" s="65"/>
+      <c r="F372" s="65"/>
+      <c r="G372" s="65">
+        <v>393</v>
+      </c>
+      <c r="H372" s="109" t="b">
+        <v>1</v>
+      </c>
+      <c r="I372" s="109" t="b">
+        <v>1</v>
+      </c>
+      <c r="J372" s="66" t="s">
+        <v>455</v>
+      </c>
+      <c r="K372" s="65">
+        <v>1615248000</v>
+      </c>
+      <c r="L372" s="66" t="s">
+        <v>2119</v>
+      </c>
+    </row>
+    <row r="373" spans="1:12" s="22" customFormat="1">
+      <c r="A373" s="16">
+        <v>372</v>
+      </c>
+      <c r="B373" s="65">
+        <v>0</v>
+      </c>
+      <c r="C373" s="58" t="s">
+        <v>2139</v>
+      </c>
+      <c r="D373" s="66" t="s">
+        <v>2087</v>
+      </c>
+      <c r="E373" s="65"/>
+      <c r="F373" s="65"/>
+      <c r="G373" s="65">
+        <v>394</v>
+      </c>
+      <c r="H373" s="109" t="b">
+        <v>1</v>
+      </c>
+      <c r="I373" s="109" t="b">
+        <v>1</v>
+      </c>
+      <c r="J373" s="66" t="s">
+        <v>455</v>
+      </c>
+      <c r="K373" s="65">
+        <v>1615248000</v>
+      </c>
+      <c r="L373" s="66" t="s">
+        <v>2119</v>
       </c>
     </row>
   </sheetData>

--- a/config_3.9/permission_server_config.xlsx
+++ b/config_3.9/permission_server_config.xlsx
@@ -15563,10 +15563,10 @@
   <dimension ref="A1:O373"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D344" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D347" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C376" sqref="C376"/>
+      <selection pane="bottomRight" activeCell="B373" sqref="B373"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -28119,7 +28119,7 @@
         <v>371</v>
       </c>
       <c r="B372" s="65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C372" s="58" t="s">
         <v>2138</v>
@@ -28153,7 +28153,7 @@
         <v>372</v>
       </c>
       <c r="B373" s="65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C373" s="58" t="s">
         <v>2139</v>
@@ -28196,10 +28196,10 @@
   <dimension ref="A1:I978"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C910" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C955" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A920" sqref="A920:XFD921"/>
+      <selection pane="bottomRight" activeCell="A956" sqref="A956:A974"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>

--- a/config_3.9/permission_server_config.xlsx
+++ b/config_3.9/permission_server_config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_3.9\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_3.9\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4926" uniqueCount="2127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4948" uniqueCount="2133">
   <si>
     <t>key|唯一标识</t>
   </si>
@@ -9331,23 +9331,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>021年1月18日23:59:59结束</t>
-    </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>actp_own_task_p_hljnh_046_hlfl_cjj</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -9834,6 +9817,34 @@
   </si>
   <si>
     <t>是冲金鸡</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021年3月15日23:59:59结束</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>vip_level</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>大于V5</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_no_cjj_gej_exchange_V5</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_cjj_gej_exchange_V5</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>非cjj且大于V</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>cjj且大于V5</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -9939,7 +9950,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="23">
+  <fills count="22">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -10066,12 +10077,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -10110,7 +10115,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -10394,9 +10399,6 @@
     <xf numFmtId="0" fontId="3" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -10424,15 +10426,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -10712,7 +10705,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Q472"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A442" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B470" sqref="B470"/>
     </sheetView>
@@ -11733,7 +11726,7 @@
         <v>111</v>
       </c>
       <c r="B59" s="49" t="s">
-        <v>2113</v>
+        <v>2112</v>
       </c>
       <c r="C59" s="9">
         <v>22</v>
@@ -11748,7 +11741,7 @@
         <v>112</v>
       </c>
       <c r="B60" s="49" t="s">
-        <v>2114</v>
+        <v>2113</v>
       </c>
       <c r="C60" s="9">
         <v>22</v>
@@ -11763,7 +11756,7 @@
         <v>113</v>
       </c>
       <c r="B61" s="49" t="s">
-        <v>2115</v>
+        <v>2114</v>
       </c>
       <c r="C61" s="9">
         <v>22</v>
@@ -11778,7 +11771,7 @@
         <v>114</v>
       </c>
       <c r="B62" s="49" t="s">
-        <v>2116</v>
+        <v>2115</v>
       </c>
       <c r="C62" s="9">
         <v>24</v>
@@ -11792,7 +11785,7 @@
         <v>115</v>
       </c>
       <c r="B63" s="49" t="s">
-        <v>2117</v>
+        <v>2116</v>
       </c>
       <c r="C63" s="9">
         <v>22</v>
@@ -11806,7 +11799,7 @@
         <v>116</v>
       </c>
       <c r="B64" s="49" t="s">
-        <v>2117</v>
+        <v>2116</v>
       </c>
       <c r="C64" s="9">
         <v>22</v>
@@ -11821,7 +11814,7 @@
         <v>117</v>
       </c>
       <c r="B65" s="49" t="s">
-        <v>2117</v>
+        <v>2116</v>
       </c>
       <c r="C65" s="53">
         <v>22</v>
@@ -11836,7 +11829,7 @@
         <v>118</v>
       </c>
       <c r="B66" s="49" t="s">
-        <v>2117</v>
+        <v>2116</v>
       </c>
       <c r="C66" s="53">
         <v>23</v>
@@ -11850,7 +11843,7 @@
         <v>119</v>
       </c>
       <c r="B67" s="49" t="s">
-        <v>2117</v>
+        <v>2116</v>
       </c>
       <c r="C67" s="9">
         <v>24</v>
@@ -11868,7 +11861,7 @@
         <v>120</v>
       </c>
       <c r="B68" s="49" t="s">
-        <v>2117</v>
+        <v>2116</v>
       </c>
       <c r="C68" s="9">
         <v>25</v>
@@ -15313,10 +15306,10 @@
     </row>
     <row r="440" spans="1:3">
       <c r="A440" s="3" t="s">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="B440" s="3" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="C440" s="3">
         <v>354</v>
@@ -15383,10 +15376,10 @@
     </row>
     <row r="451" spans="1:3">
       <c r="A451" s="27" t="s">
+        <v>2011</v>
+      </c>
+      <c r="B451" s="27" t="s">
         <v>2012</v>
-      </c>
-      <c r="B451" s="27" t="s">
-        <v>2013</v>
       </c>
       <c r="C451" s="3">
         <v>374</v>
@@ -15394,10 +15387,10 @@
     </row>
     <row r="453" spans="1:3">
       <c r="A453" s="27" t="s">
+        <v>2017</v>
+      </c>
+      <c r="B453" s="27" t="s">
         <v>2018</v>
-      </c>
-      <c r="B453" s="27" t="s">
-        <v>2019</v>
       </c>
       <c r="C453" s="3">
         <v>375</v>
@@ -15405,10 +15398,10 @@
     </row>
     <row r="454" spans="1:3">
       <c r="A454" s="27" t="s">
-        <v>2026</v>
+        <v>2025</v>
       </c>
       <c r="B454" s="27" t="s">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="C454" s="3">
         <v>376</v>
@@ -15416,10 +15409,10 @@
     </row>
     <row r="455" spans="1:3">
       <c r="A455" s="27" t="s">
-        <v>2027</v>
+        <v>2026</v>
       </c>
       <c r="B455" s="27" t="s">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="C455" s="3">
         <v>377</v>
@@ -15427,10 +15420,10 @@
     </row>
     <row r="456" spans="1:3">
       <c r="A456" s="27" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="B456" s="27" t="s">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="C456" s="3">
         <v>378</v>
@@ -15438,10 +15431,10 @@
     </row>
     <row r="458" spans="1:3">
       <c r="A458" s="27" t="s">
+        <v>2027</v>
+      </c>
+      <c r="B458" s="27" t="s">
         <v>2028</v>
-      </c>
-      <c r="B458" s="27" t="s">
-        <v>2029</v>
       </c>
       <c r="C458" s="3">
         <v>379</v>
@@ -15449,10 +15442,10 @@
     </row>
     <row r="460" spans="1:3">
       <c r="A460" s="3" t="s">
+        <v>2042</v>
+      </c>
+      <c r="B460" s="3" t="s">
         <v>2043</v>
-      </c>
-      <c r="B460" s="3" t="s">
-        <v>2044</v>
       </c>
       <c r="C460" s="3">
         <v>381</v>
@@ -15460,10 +15453,10 @@
     </row>
     <row r="462" spans="1:3">
       <c r="A462" s="27" t="s">
+        <v>2054</v>
+      </c>
+      <c r="B462" s="27" t="s">
         <v>2055</v>
-      </c>
-      <c r="B462" s="27" t="s">
-        <v>2056</v>
       </c>
       <c r="C462" s="3">
         <v>385</v>
@@ -15471,10 +15464,10 @@
     </row>
     <row r="463" spans="1:3">
       <c r="A463" s="27" t="s">
+        <v>2056</v>
+      </c>
+      <c r="B463" s="27" t="s">
         <v>2057</v>
-      </c>
-      <c r="B463" s="27" t="s">
-        <v>2058</v>
       </c>
       <c r="C463" s="3">
         <v>386</v>
@@ -15482,18 +15475,18 @@
     </row>
     <row r="465" spans="1:3">
       <c r="A465" s="3" t="s">
-        <v>2095</v>
+        <v>2094</v>
       </c>
       <c r="B465" s="3" t="s">
-        <v>2100</v>
+        <v>2099</v>
       </c>
     </row>
     <row r="466" spans="1:3">
       <c r="A466" s="3" t="s">
-        <v>2096</v>
+        <v>2095</v>
       </c>
       <c r="B466" s="27" t="s">
-        <v>2104</v>
+        <v>2103</v>
       </c>
       <c r="C466" s="3">
         <v>22</v>
@@ -15501,10 +15494,10 @@
     </row>
     <row r="467" spans="1:3">
       <c r="A467" s="3" t="s">
-        <v>2097</v>
+        <v>2096</v>
       </c>
       <c r="B467" s="27" t="s">
-        <v>2101</v>
+        <v>2100</v>
       </c>
       <c r="C467" s="3">
         <v>23</v>
@@ -15512,10 +15505,10 @@
     </row>
     <row r="468" spans="1:3">
       <c r="A468" s="3" t="s">
-        <v>2098</v>
+        <v>2097</v>
       </c>
       <c r="B468" s="27" t="s">
-        <v>2102</v>
+        <v>2101</v>
       </c>
       <c r="C468" s="3">
         <v>24</v>
@@ -15523,10 +15516,10 @@
     </row>
     <row r="469" spans="1:3">
       <c r="A469" s="3" t="s">
-        <v>2099</v>
+        <v>2098</v>
       </c>
       <c r="B469" s="27" t="s">
-        <v>2103</v>
+        <v>2102</v>
       </c>
       <c r="C469" s="3">
         <v>26</v>
@@ -15534,10 +15527,10 @@
     </row>
     <row r="471" spans="1:3">
       <c r="A471" s="9" t="s">
-        <v>2120</v>
+        <v>2119</v>
       </c>
       <c r="B471" s="27" t="s">
-        <v>2122</v>
+        <v>2121</v>
       </c>
       <c r="C471" s="3">
         <v>397</v>
@@ -15545,10 +15538,10 @@
     </row>
     <row r="472" spans="1:3">
       <c r="A472" s="49" t="s">
-        <v>2121</v>
+        <v>2120</v>
       </c>
       <c r="B472" s="27" t="s">
-        <v>2123</v>
+        <v>2122</v>
       </c>
       <c r="C472" s="3">
         <v>398</v>
@@ -15564,13 +15557,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:O365"/>
+  <dimension ref="A1:O367"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D335" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D339" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A358" sqref="A358"/>
+      <selection pane="bottomRight" activeCell="D366" sqref="D366"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -15612,7 +15605,7 @@
         <v>2</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>2124</v>
+        <v>2123</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>450</v>
@@ -16436,7 +16429,7 @@
       <c r="C23" s="16" t="s">
         <v>1256</v>
       </c>
-      <c r="D23" s="108" t="s">
+      <c r="D23" s="107" t="s">
         <v>1261</v>
       </c>
       <c r="E23" s="17"/>
@@ -16472,7 +16465,7 @@
       <c r="C24" s="16" t="s">
         <v>1257</v>
       </c>
-      <c r="D24" s="108" t="s">
+      <c r="D24" s="107" t="s">
         <v>1259</v>
       </c>
       <c r="E24" s="17"/>
@@ -16508,7 +16501,7 @@
       <c r="C25" s="16" t="s">
         <v>1258</v>
       </c>
-      <c r="D25" s="108" t="s">
+      <c r="D25" s="107" t="s">
         <v>1260</v>
       </c>
       <c r="E25" s="17"/>
@@ -25399,10 +25392,10 @@
       <c r="B289" s="71">
         <v>0</v>
       </c>
-      <c r="C289" s="105" t="s">
+      <c r="C289" s="104" t="s">
         <v>1630</v>
       </c>
-      <c r="D289" s="105" t="s">
+      <c r="D289" s="104" t="s">
         <v>1631</v>
       </c>
       <c r="E289" s="71"/>
@@ -25433,10 +25426,10 @@
       <c r="B290" s="71">
         <v>0</v>
       </c>
-      <c r="C290" s="105" t="s">
+      <c r="C290" s="104" t="s">
         <v>1633</v>
       </c>
-      <c r="D290" s="105" t="s">
+      <c r="D290" s="104" t="s">
         <v>1632</v>
       </c>
       <c r="E290" s="71"/>
@@ -25467,11 +25460,11 @@
       <c r="B291" s="71">
         <v>0</v>
       </c>
-      <c r="C291" s="104" t="s">
+      <c r="C291" s="103" t="s">
         <v>1634</v>
       </c>
-      <c r="D291" s="105" t="s">
-        <v>2065</v>
+      <c r="D291" s="104" t="s">
+        <v>2064</v>
       </c>
       <c r="E291" s="71"/>
       <c r="F291" s="71"/>
@@ -25501,10 +25494,10 @@
       <c r="B292" s="71">
         <v>0</v>
       </c>
-      <c r="C292" s="104" t="s">
+      <c r="C292" s="103" t="s">
         <v>1830</v>
       </c>
-      <c r="D292" s="104" t="s">
+      <c r="D292" s="103" t="s">
         <v>1952</v>
       </c>
       <c r="E292" s="71"/>
@@ -26426,37 +26419,37 @@
         <v>1165</v>
       </c>
     </row>
-    <row r="321" spans="1:12" s="106" customFormat="1">
-      <c r="A321" s="105">
+    <row r="321" spans="1:12" s="105" customFormat="1">
+      <c r="A321" s="104">
         <v>320</v>
       </c>
-      <c r="B321" s="105">
-        <v>1</v>
-      </c>
-      <c r="C321" s="104" t="s">
+      <c r="B321" s="104">
+        <v>1</v>
+      </c>
+      <c r="C321" s="103" t="s">
         <v>1715</v>
       </c>
-      <c r="D321" s="104" t="s">
-        <v>2063</v>
-      </c>
-      <c r="E321" s="105"/>
-      <c r="F321" s="105"/>
-      <c r="G321" s="105">
+      <c r="D321" s="103" t="s">
+        <v>2062</v>
+      </c>
+      <c r="E321" s="104"/>
+      <c r="F321" s="104"/>
+      <c r="G321" s="104">
         <v>325</v>
       </c>
-      <c r="H321" s="105" t="b">
-        <v>1</v>
-      </c>
-      <c r="I321" s="106" t="b">
-        <v>1</v>
-      </c>
-      <c r="J321" s="104" t="s">
+      <c r="H321" s="104" t="b">
+        <v>1</v>
+      </c>
+      <c r="I321" s="105" t="b">
+        <v>1</v>
+      </c>
+      <c r="J321" s="103" t="s">
         <v>1116</v>
       </c>
-      <c r="K321" s="105">
+      <c r="K321" s="104">
         <v>1601335800</v>
       </c>
-      <c r="L321" s="104" t="s">
+      <c r="L321" s="103" t="s">
         <v>1704</v>
       </c>
     </row>
@@ -26595,10 +26588,10 @@
       <c r="B326" s="26">
         <v>0</v>
       </c>
-      <c r="C326" s="104" t="s">
+      <c r="C326" s="103" t="s">
         <v>1773</v>
       </c>
-      <c r="D326" s="104" t="s">
+      <c r="D326" s="103" t="s">
         <v>1772</v>
       </c>
       <c r="G326" s="26">
@@ -26627,10 +26620,10 @@
       <c r="B327" s="26">
         <v>0</v>
       </c>
-      <c r="C327" s="104" t="s">
+      <c r="C327" s="103" t="s">
         <v>1774</v>
       </c>
-      <c r="D327" s="104" t="s">
+      <c r="D327" s="103" t="s">
         <v>1767</v>
       </c>
       <c r="G327" s="26">
@@ -26910,8 +26903,8 @@
       <c r="K335" s="17">
         <v>1606176000</v>
       </c>
-      <c r="L335" s="103" t="s">
-        <v>2009</v>
+      <c r="L335" s="26" t="s">
+        <v>456</v>
       </c>
     </row>
     <row r="336" spans="1:12" s="22" customFormat="1">
@@ -26944,8 +26937,8 @@
       <c r="K336" s="17">
         <v>1606176000</v>
       </c>
-      <c r="L336" s="103" t="s">
-        <v>2009</v>
+      <c r="L336" s="26" t="s">
+        <v>456</v>
       </c>
     </row>
     <row r="337" spans="1:12">
@@ -27309,11 +27302,11 @@
       <c r="B348" s="17">
         <v>1</v>
       </c>
-      <c r="C348" s="104" t="s">
+      <c r="C348" s="103" t="s">
         <v>1984</v>
       </c>
-      <c r="D348" s="104" t="s">
-        <v>2062</v>
+      <c r="D348" s="103" t="s">
+        <v>2061</v>
       </c>
       <c r="E348" s="17"/>
       <c r="F348" s="17"/>
@@ -27341,7 +27334,7 @@
         <v>348</v>
       </c>
       <c r="B349" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C349" s="16" t="s">
         <v>2002</v>
@@ -27367,7 +27360,7 @@
         <v>1610409600</v>
       </c>
       <c r="L349" s="16" t="s">
-        <v>2082</v>
+        <v>2081</v>
       </c>
     </row>
     <row r="350" spans="1:12" s="45" customFormat="1">
@@ -27375,7 +27368,7 @@
         <v>349</v>
       </c>
       <c r="B350" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C350" s="16" t="s">
         <v>2003</v>
@@ -27401,7 +27394,7 @@
         <v>1610409600</v>
       </c>
       <c r="L350" s="16" t="s">
-        <v>2083</v>
+        <v>2082</v>
       </c>
     </row>
     <row r="351" spans="1:12" s="45" customFormat="1">
@@ -27409,13 +27402,13 @@
         <v>350</v>
       </c>
       <c r="B351" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C351" s="16" t="s">
-        <v>2084</v>
+        <v>2083</v>
       </c>
       <c r="D351" s="16" t="s">
-        <v>2118</v>
+        <v>2117</v>
       </c>
       <c r="E351" s="16"/>
       <c r="F351" s="16"/>
@@ -27435,7 +27428,7 @@
         <v>1610380800</v>
       </c>
       <c r="L351" s="16" t="s">
-        <v>2085</v>
+        <v>2084</v>
       </c>
     </row>
     <row r="352" spans="1:12" s="45" customFormat="1">
@@ -27443,13 +27436,13 @@
         <v>351</v>
       </c>
       <c r="B352" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C352" s="16" t="s">
+        <v>2009</v>
+      </c>
+      <c r="D352" s="16" t="s">
         <v>2010</v>
-      </c>
-      <c r="D352" s="16" t="s">
-        <v>2011</v>
       </c>
       <c r="E352" s="16"/>
       <c r="F352" s="16"/>
@@ -27469,7 +27462,7 @@
         <v>1610380800</v>
       </c>
       <c r="L352" s="16" t="s">
-        <v>2083</v>
+        <v>2082</v>
       </c>
     </row>
     <row r="353" spans="1:12" s="45" customFormat="1">
@@ -27479,11 +27472,11 @@
       <c r="B353" s="16">
         <v>1</v>
       </c>
-      <c r="C353" s="109" t="s">
-        <v>2042</v>
+      <c r="C353" s="108" t="s">
+        <v>2041</v>
       </c>
       <c r="D353" s="16" t="s">
-        <v>2034</v>
+        <v>2033</v>
       </c>
       <c r="E353" s="16"/>
       <c r="F353" s="16"/>
@@ -27502,7 +27495,7 @@
       <c r="K353" s="16">
         <v>0</v>
       </c>
-      <c r="L353" s="110">
+      <c r="L353" s="109">
         <v>44201</v>
       </c>
     </row>
@@ -27511,13 +27504,13 @@
         <v>353</v>
       </c>
       <c r="B354" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C354" s="16" t="s">
-        <v>2110</v>
+        <v>2109</v>
       </c>
       <c r="D354" s="16" t="s">
-        <v>2045</v>
+        <v>2044</v>
       </c>
       <c r="E354" s="16"/>
       <c r="F354" s="16"/>
@@ -27537,7 +27530,7 @@
         <v>1611014400</v>
       </c>
       <c r="L354" s="16" t="s">
-        <v>2046</v>
+        <v>2045</v>
       </c>
     </row>
     <row r="355" spans="1:12" s="45" customFormat="1">
@@ -27545,13 +27538,13 @@
         <v>354</v>
       </c>
       <c r="B355" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C355" s="16" t="s">
-        <v>2111</v>
+        <v>2110</v>
       </c>
       <c r="D355" s="16" t="s">
-        <v>2047</v>
+        <v>2046</v>
       </c>
       <c r="E355" s="16"/>
       <c r="F355" s="16"/>
@@ -27571,7 +27564,7 @@
         <v>1611014400</v>
       </c>
       <c r="L355" s="16" t="s">
-        <v>2048</v>
+        <v>2047</v>
       </c>
     </row>
     <row r="356" spans="1:12" s="45" customFormat="1">
@@ -27579,13 +27572,13 @@
         <v>355</v>
       </c>
       <c r="B356" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C356" s="16" t="s">
-        <v>2112</v>
+        <v>2111</v>
       </c>
       <c r="D356" s="16" t="s">
-        <v>2049</v>
+        <v>2048</v>
       </c>
       <c r="E356" s="16"/>
       <c r="F356" s="16"/>
@@ -27605,7 +27598,7 @@
         <v>1611014400</v>
       </c>
       <c r="L356" s="16" t="s">
-        <v>2046</v>
+        <v>2045</v>
       </c>
     </row>
     <row r="357" spans="1:12" s="45" customFormat="1">
@@ -27613,13 +27606,13 @@
         <v>356</v>
       </c>
       <c r="B357" s="16">
-        <v>1</v>
-      </c>
-      <c r="C357" s="109" t="s">
-        <v>2068</v>
+        <v>0</v>
+      </c>
+      <c r="C357" s="108" t="s">
+        <v>2067</v>
       </c>
       <c r="D357" s="16" t="s">
-        <v>2066</v>
+        <v>2065</v>
       </c>
       <c r="E357" s="16"/>
       <c r="F357" s="16"/>
@@ -27647,13 +27640,13 @@
         <v>357</v>
       </c>
       <c r="B358" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C358" s="16" t="s">
+        <v>2068</v>
+      </c>
+      <c r="D358" s="16" t="s">
         <v>2069</v>
-      </c>
-      <c r="D358" s="16" t="s">
-        <v>2070</v>
       </c>
       <c r="E358" s="16"/>
       <c r="F358" s="16"/>
@@ -27669,11 +27662,11 @@
       <c r="J358" s="16" t="s">
         <v>1116</v>
       </c>
-      <c r="K358" s="108">
+      <c r="K358" s="107">
         <v>1611590400</v>
       </c>
       <c r="L358" s="16" t="s">
-        <v>2071</v>
+        <v>2070</v>
       </c>
     </row>
     <row r="359" spans="1:12" s="45" customFormat="1" ht="16.5">
@@ -27681,13 +27674,13 @@
         <v>358</v>
       </c>
       <c r="B359" s="16">
-        <v>1</v>
-      </c>
-      <c r="C359" s="111" t="s">
-        <v>2073</v>
+        <v>0</v>
+      </c>
+      <c r="C359" s="110" t="s">
+        <v>2072</v>
       </c>
       <c r="D359" s="16" t="s">
-        <v>2076</v>
+        <v>2075</v>
       </c>
       <c r="E359" s="16"/>
       <c r="F359" s="16"/>
@@ -27703,11 +27696,11 @@
       <c r="J359" s="16" t="s">
         <v>455</v>
       </c>
-      <c r="K359" s="108">
+      <c r="K359" s="107">
         <v>1611590400</v>
       </c>
       <c r="L359" s="16" t="s">
-        <v>2071</v>
+        <v>2070</v>
       </c>
     </row>
     <row r="360" spans="1:12" s="45" customFormat="1" ht="16.5">
@@ -27715,13 +27708,13 @@
         <v>359</v>
       </c>
       <c r="B360" s="16">
-        <v>1</v>
-      </c>
-      <c r="C360" s="111" t="s">
-        <v>2074</v>
+        <v>0</v>
+      </c>
+      <c r="C360" s="110" t="s">
+        <v>2073</v>
       </c>
       <c r="D360" s="16" t="s">
-        <v>2077</v>
+        <v>2076</v>
       </c>
       <c r="E360" s="16"/>
       <c r="F360" s="16"/>
@@ -27737,11 +27730,11 @@
       <c r="J360" s="16" t="s">
         <v>455</v>
       </c>
-      <c r="K360" s="108">
+      <c r="K360" s="107">
         <v>1611590400</v>
       </c>
       <c r="L360" s="16" t="s">
-        <v>2071</v>
+        <v>2070</v>
       </c>
     </row>
     <row r="361" spans="1:12" s="45" customFormat="1" ht="16.5">
@@ -27749,13 +27742,13 @@
         <v>360</v>
       </c>
       <c r="B361" s="16">
-        <v>1</v>
-      </c>
-      <c r="C361" s="111" t="s">
-        <v>2075</v>
+        <v>0</v>
+      </c>
+      <c r="C361" s="110" t="s">
+        <v>2074</v>
       </c>
       <c r="D361" s="16" t="s">
-        <v>2078</v>
+        <v>2077</v>
       </c>
       <c r="E361" s="16"/>
       <c r="F361" s="16"/>
@@ -27771,35 +27764,35 @@
       <c r="J361" s="16" t="s">
         <v>455</v>
       </c>
-      <c r="K361" s="108">
+      <c r="K361" s="107">
         <v>1611590400</v>
       </c>
       <c r="L361" s="16" t="s">
-        <v>2071</v>
-      </c>
-    </row>
-    <row r="362" spans="1:12" s="113" customFormat="1">
+        <v>2070</v>
+      </c>
+    </row>
+    <row r="362" spans="1:12" s="112" customFormat="1">
       <c r="A362" s="16">
         <v>361</v>
       </c>
       <c r="B362" s="66">
-        <v>1</v>
-      </c>
-      <c r="C362" s="112" t="s">
-        <v>2086</v>
+        <v>0</v>
+      </c>
+      <c r="C362" s="111" t="s">
+        <v>2085</v>
       </c>
       <c r="D362" s="66" t="s">
-        <v>2066</v>
+        <v>2065</v>
       </c>
       <c r="E362" s="66"/>
       <c r="F362" s="66"/>
       <c r="G362" s="66">
         <v>392</v>
       </c>
-      <c r="H362" s="113" t="b">
-        <v>1</v>
-      </c>
-      <c r="I362" s="113" t="b">
+      <c r="H362" s="112" t="b">
+        <v>1</v>
+      </c>
+      <c r="I362" s="112" t="b">
         <v>1</v>
       </c>
       <c r="J362" s="66" t="s">
@@ -27817,23 +27810,23 @@
         <v>362</v>
       </c>
       <c r="B363" s="28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C363" s="56" t="s">
-        <v>2087</v>
+        <v>2086</v>
       </c>
       <c r="D363" s="29" t="s">
-        <v>2089</v>
+        <v>2088</v>
       </c>
       <c r="E363" s="28"/>
       <c r="F363" s="28"/>
       <c r="G363" s="28">
         <v>393</v>
       </c>
-      <c r="H363" s="114" t="b">
-        <v>1</v>
-      </c>
-      <c r="I363" s="114" t="b">
+      <c r="H363" s="113" t="b">
+        <v>1</v>
+      </c>
+      <c r="I363" s="113" t="b">
         <v>1</v>
       </c>
       <c r="J363" s="29" t="s">
@@ -27843,7 +27836,7 @@
         <v>1612828800</v>
       </c>
       <c r="L363" s="29" t="s">
-        <v>2091</v>
+        <v>2090</v>
       </c>
     </row>
     <row r="364" spans="1:12" s="22" customFormat="1">
@@ -27851,23 +27844,23 @@
         <v>363</v>
       </c>
       <c r="B364" s="28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C364" s="56" t="s">
-        <v>2088</v>
+        <v>2087</v>
       </c>
       <c r="D364" s="29" t="s">
-        <v>2090</v>
+        <v>2089</v>
       </c>
       <c r="E364" s="28"/>
       <c r="F364" s="28"/>
       <c r="G364" s="28">
         <v>394</v>
       </c>
-      <c r="H364" s="114" t="b">
-        <v>1</v>
-      </c>
-      <c r="I364" s="114" t="b">
+      <c r="H364" s="113" t="b">
+        <v>1</v>
+      </c>
+      <c r="I364" s="113" t="b">
         <v>1</v>
       </c>
       <c r="J364" s="29" t="s">
@@ -27877,7 +27870,7 @@
         <v>1612828800</v>
       </c>
       <c r="L364" s="29" t="s">
-        <v>2092</v>
+        <v>2091</v>
       </c>
     </row>
     <row r="365" spans="1:12" s="22" customFormat="1">
@@ -27885,23 +27878,23 @@
         <v>364</v>
       </c>
       <c r="B365" s="28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C365" s="56" t="s">
+        <v>2104</v>
+      </c>
+      <c r="D365" s="29" t="s">
         <v>2105</v>
-      </c>
-      <c r="D365" s="29" t="s">
-        <v>2106</v>
       </c>
       <c r="E365" s="28"/>
       <c r="F365" s="28"/>
       <c r="G365" s="28">
         <v>396</v>
       </c>
-      <c r="H365" s="114" t="b">
-        <v>1</v>
-      </c>
-      <c r="I365" s="114" t="b">
+      <c r="H365" s="113" t="b">
+        <v>1</v>
+      </c>
+      <c r="I365" s="113" t="b">
         <v>1</v>
       </c>
       <c r="J365" s="29" t="s">
@@ -27911,7 +27904,75 @@
         <v>1612828800</v>
       </c>
       <c r="L365" s="29" t="s">
-        <v>2107</v>
+        <v>2106</v>
+      </c>
+    </row>
+    <row r="366" spans="1:12" s="22" customFormat="1">
+      <c r="A366" s="16">
+        <v>365</v>
+      </c>
+      <c r="B366" s="65">
+        <v>1</v>
+      </c>
+      <c r="C366" s="66" t="s">
+        <v>2129</v>
+      </c>
+      <c r="D366" s="66" t="s">
+        <v>2131</v>
+      </c>
+      <c r="E366" s="65"/>
+      <c r="F366" s="65"/>
+      <c r="G366" s="65">
+        <v>399</v>
+      </c>
+      <c r="H366" s="65" t="b">
+        <v>1</v>
+      </c>
+      <c r="I366" s="67" t="b">
+        <v>1</v>
+      </c>
+      <c r="J366" s="65" t="s">
+        <v>455</v>
+      </c>
+      <c r="K366" s="65">
+        <v>1615248000</v>
+      </c>
+      <c r="L366" s="66" t="s">
+        <v>2126</v>
+      </c>
+    </row>
+    <row r="367" spans="1:12" s="22" customFormat="1">
+      <c r="A367" s="16">
+        <v>366</v>
+      </c>
+      <c r="B367" s="65">
+        <v>1</v>
+      </c>
+      <c r="C367" s="66" t="s">
+        <v>2130</v>
+      </c>
+      <c r="D367" s="66" t="s">
+        <v>2132</v>
+      </c>
+      <c r="E367" s="65"/>
+      <c r="F367" s="65"/>
+      <c r="G367" s="65">
+        <v>400</v>
+      </c>
+      <c r="H367" s="65" t="b">
+        <v>1</v>
+      </c>
+      <c r="I367" s="67" t="b">
+        <v>1</v>
+      </c>
+      <c r="J367" s="66" t="s">
+        <v>1134</v>
+      </c>
+      <c r="K367" s="65">
+        <v>1615248000</v>
+      </c>
+      <c r="L367" s="66" t="s">
+        <v>2126</v>
       </c>
     </row>
   </sheetData>
@@ -27925,13 +27986,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:I978"/>
+  <dimension ref="A1:I979"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C946" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C955" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A966" sqref="A966:A969"/>
+      <selection pane="bottomRight" activeCell="B979" sqref="B979"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -49729,7 +49790,7 @@
         <v>1</v>
       </c>
       <c r="G909" s="10" t="s">
-        <v>2064</v>
+        <v>2063</v>
       </c>
     </row>
     <row r="910" spans="1:9" s="8" customFormat="1">
@@ -50052,7 +50113,7 @@
         <v>1</v>
       </c>
       <c r="G923" s="10" t="s">
-        <v>2119</v>
+        <v>2118</v>
       </c>
       <c r="H923" s="8"/>
     </row>
@@ -50088,7 +50149,7 @@
         <v>374</v>
       </c>
       <c r="C925" s="10" t="s">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="D925" s="10" t="s">
         <v>1905</v>
@@ -50123,7 +50184,7 @@
         <v>1</v>
       </c>
       <c r="G926" s="10" t="s">
-        <v>2024</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="927" spans="1:8" s="8" customFormat="1">
@@ -50137,7 +50198,7 @@
         <v>1989</v>
       </c>
       <c r="D927" s="10" t="s">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="E927" s="8">
         <v>2</v>
@@ -50146,7 +50207,7 @@
         <v>2</v>
       </c>
       <c r="G927" s="10" t="s">
-        <v>2025</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="928" spans="1:8" s="8" customFormat="1">
@@ -50169,7 +50230,7 @@
         <v>1</v>
       </c>
       <c r="G928" s="10" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
     </row>
     <row r="929" spans="1:8" s="8" customFormat="1">
@@ -50192,7 +50253,7 @@
         <v>1</v>
       </c>
       <c r="G929" s="10" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
     </row>
     <row r="930" spans="1:8" s="8" customFormat="1">
@@ -50215,7 +50276,7 @@
         <v>1</v>
       </c>
       <c r="G930" s="10" t="s">
-        <v>2030</v>
+        <v>2029</v>
       </c>
     </row>
     <row r="931" spans="1:8" s="8" customFormat="1">
@@ -50261,7 +50322,7 @@
         <v>1</v>
       </c>
       <c r="G932" s="10" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
     </row>
     <row r="933" spans="1:8">
@@ -50296,19 +50357,19 @@
         <v>380</v>
       </c>
       <c r="C934" s="8" t="s">
+        <v>2034</v>
+      </c>
+      <c r="D934" s="106" t="s">
         <v>2035</v>
       </c>
-      <c r="D934" s="107" t="s">
+      <c r="E934" s="8">
+        <v>2</v>
+      </c>
+      <c r="F934" s="8">
+        <v>1</v>
+      </c>
+      <c r="G934" s="8" t="s">
         <v>2036</v>
-      </c>
-      <c r="E934" s="8">
-        <v>2</v>
-      </c>
-      <c r="F934" s="8">
-        <v>1</v>
-      </c>
-      <c r="G934" s="8" t="s">
-        <v>2037</v>
       </c>
       <c r="H934" s="8"/>
     </row>
@@ -50332,7 +50393,7 @@
         <v>2</v>
       </c>
       <c r="G935" s="10" t="s">
-        <v>2038</v>
+        <v>2037</v>
       </c>
       <c r="H935" s="8"/>
     </row>
@@ -50344,19 +50405,19 @@
         <v>380</v>
       </c>
       <c r="C936" s="8" t="s">
+        <v>2038</v>
+      </c>
+      <c r="D936" s="10" t="s">
         <v>2039</v>
       </c>
-      <c r="D936" s="10" t="s">
+      <c r="E936" s="8">
+        <v>2</v>
+      </c>
+      <c r="F936" s="8">
+        <v>2</v>
+      </c>
+      <c r="G936" s="8" t="s">
         <v>2040</v>
-      </c>
-      <c r="E936" s="8">
-        <v>2</v>
-      </c>
-      <c r="F936" s="8">
-        <v>2</v>
-      </c>
-      <c r="G936" s="8" t="s">
-        <v>2041</v>
       </c>
       <c r="H936" s="8"/>
     </row>
@@ -50380,7 +50441,7 @@
         <v>1</v>
       </c>
       <c r="G937" s="10" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
     </row>
     <row r="938" spans="1:8">
@@ -50427,7 +50488,7 @@
         <v>2</v>
       </c>
       <c r="G939" s="10" t="s">
-        <v>2050</v>
+        <v>2049</v>
       </c>
       <c r="H939" s="8"/>
     </row>
@@ -50451,7 +50512,7 @@
         <v>3</v>
       </c>
       <c r="G940" s="10" t="s">
-        <v>2051</v>
+        <v>2050</v>
       </c>
       <c r="H940" s="8"/>
     </row>
@@ -50475,7 +50536,7 @@
         <v>1</v>
       </c>
       <c r="G941" s="10" t="s">
-        <v>2052</v>
+        <v>2051</v>
       </c>
       <c r="H941" s="8"/>
     </row>
@@ -50499,7 +50560,7 @@
         <v>1</v>
       </c>
       <c r="G942" s="10" t="s">
-        <v>2053</v>
+        <v>2052</v>
       </c>
       <c r="H942" s="8"/>
     </row>
@@ -50523,7 +50584,7 @@
         <v>1</v>
       </c>
       <c r="G943" s="10" t="s">
-        <v>2054</v>
+        <v>2053</v>
       </c>
       <c r="H943" s="8"/>
     </row>
@@ -50547,7 +50608,7 @@
         <v>1</v>
       </c>
       <c r="G944" s="10" t="s">
-        <v>2052</v>
+        <v>2051</v>
       </c>
       <c r="H944" s="8"/>
     </row>
@@ -50571,7 +50632,7 @@
         <v>1</v>
       </c>
       <c r="G945" s="10" t="s">
-        <v>2053</v>
+        <v>2052</v>
       </c>
       <c r="H945" s="8"/>
     </row>
@@ -50595,7 +50656,7 @@
         <v>1</v>
       </c>
       <c r="G946" s="10" t="s">
-        <v>2054</v>
+        <v>2053</v>
       </c>
       <c r="H946" s="8"/>
     </row>
@@ -50619,7 +50680,7 @@
         <v>1</v>
       </c>
       <c r="G947" s="10" t="s">
-        <v>2059</v>
+        <v>2058</v>
       </c>
     </row>
     <row r="948" spans="1:8" s="8" customFormat="1">
@@ -50630,7 +50691,7 @@
         <v>386</v>
       </c>
       <c r="C948" s="10" t="s">
-        <v>2060</v>
+        <v>2059</v>
       </c>
       <c r="D948" s="10">
         <v>1</v>
@@ -50642,7 +50703,7 @@
         <v>1</v>
       </c>
       <c r="G948" s="10" t="s">
-        <v>2061</v>
+        <v>2060</v>
       </c>
     </row>
     <row r="949" spans="1:8">
@@ -50665,7 +50726,7 @@
         <v>1</v>
       </c>
       <c r="G949" s="9" t="s">
-        <v>2067</v>
+        <v>2066</v>
       </c>
     </row>
     <row r="950" spans="1:8" s="8" customFormat="1">
@@ -50676,10 +50737,10 @@
         <v>388</v>
       </c>
       <c r="C950" s="10" t="s">
-        <v>2072</v>
+        <v>2071</v>
       </c>
       <c r="D950" s="10" t="s">
-        <v>2081</v>
+        <v>2080</v>
       </c>
       <c r="E950" s="8">
         <v>5</v>
@@ -50699,10 +50760,10 @@
         <v>388</v>
       </c>
       <c r="C951" s="10" t="s">
-        <v>2072</v>
+        <v>2071</v>
       </c>
       <c r="D951" s="10" t="s">
-        <v>2081</v>
+        <v>2080</v>
       </c>
       <c r="E951" s="8">
         <v>2</v>
@@ -50757,7 +50818,7 @@
         <v>2</v>
       </c>
       <c r="G953" s="10" t="s">
-        <v>2079</v>
+        <v>2078</v>
       </c>
     </row>
     <row r="954" spans="1:8" s="8" customFormat="1">
@@ -50780,7 +50841,7 @@
         <v>1</v>
       </c>
       <c r="G954" s="10" t="s">
-        <v>2080</v>
+        <v>2079</v>
       </c>
     </row>
     <row r="955" spans="1:8" s="8" customFormat="1">
@@ -50803,7 +50864,7 @@
         <v>1</v>
       </c>
       <c r="G955" s="10" t="s">
-        <v>2053</v>
+        <v>2052</v>
       </c>
     </row>
     <row r="956" spans="1:8" s="8" customFormat="1">
@@ -50826,7 +50887,7 @@
         <v>1</v>
       </c>
       <c r="G956" s="10" t="s">
-        <v>2054</v>
+        <v>2053</v>
       </c>
     </row>
     <row r="957" spans="1:8" s="8" customFormat="1">
@@ -50849,7 +50910,7 @@
         <v>1</v>
       </c>
       <c r="G957" s="10" t="s">
-        <v>2052</v>
+        <v>2051</v>
       </c>
     </row>
     <row r="958" spans="1:8" s="8" customFormat="1">
@@ -50860,7 +50921,7 @@
         <v>391</v>
       </c>
       <c r="C958" s="10" t="s">
-        <v>1117</v>
+        <v>2127</v>
       </c>
       <c r="D958" s="8">
         <v>12</v>
@@ -50872,7 +50933,7 @@
         <v>1</v>
       </c>
       <c r="G958" s="10" t="s">
-        <v>2053</v>
+        <v>2052</v>
       </c>
     </row>
     <row r="959" spans="1:8" s="8" customFormat="1">
@@ -50895,266 +50956,358 @@
         <v>1</v>
       </c>
       <c r="G959" s="10" t="s">
-        <v>2054</v>
-      </c>
-    </row>
-    <row r="960" spans="1:8" s="20" customFormat="1">
+        <v>2053</v>
+      </c>
+    </row>
+    <row r="960" spans="1:8" s="8" customFormat="1">
       <c r="A960" s="8">
         <v>959</v>
       </c>
-      <c r="B960" s="20">
+      <c r="B960" s="8">
         <v>392</v>
       </c>
-      <c r="C960" s="20" t="s">
+      <c r="C960" s="8" t="s">
         <v>852</v>
       </c>
-      <c r="D960" s="20" t="s">
+      <c r="D960" s="8" t="s">
         <v>853</v>
       </c>
-      <c r="E960" s="20">
+      <c r="E960" s="8">
         <v>5</v>
       </c>
-      <c r="F960" s="20">
-        <v>1</v>
-      </c>
-      <c r="G960" s="20" t="s">
-        <v>2054</v>
-      </c>
-    </row>
-    <row r="961" spans="1:7" s="8" customFormat="1">
+      <c r="F960" s="8">
+        <v>1</v>
+      </c>
+      <c r="G960" s="8" t="s">
+        <v>2053</v>
+      </c>
+    </row>
+    <row r="961" spans="1:9" s="8" customFormat="1">
       <c r="A961" s="8">
         <v>960</v>
       </c>
-      <c r="B961" s="14">
+      <c r="B961" s="8">
         <v>393</v>
       </c>
-      <c r="C961" s="15" t="s">
+      <c r="C961" s="10" t="s">
         <v>1143</v>
       </c>
-      <c r="D961" s="15" t="s">
+      <c r="D961" s="10" t="s">
         <v>1960</v>
       </c>
-      <c r="E961" s="14">
+      <c r="E961" s="8">
         <v>5</v>
       </c>
-      <c r="F961" s="14">
-        <v>1</v>
-      </c>
-      <c r="G961" s="15" t="s">
-        <v>2093</v>
-      </c>
-    </row>
-    <row r="962" spans="1:7" s="8" customFormat="1">
+      <c r="F961" s="8">
+        <v>1</v>
+      </c>
+      <c r="G961" s="10" t="s">
+        <v>2092</v>
+      </c>
+    </row>
+    <row r="962" spans="1:9" s="8" customFormat="1">
       <c r="A962" s="8">
         <v>961</v>
       </c>
-      <c r="B962" s="14">
+      <c r="B962" s="8">
         <v>394</v>
       </c>
-      <c r="C962" s="15" t="s">
+      <c r="C962" s="10" t="s">
         <v>1143</v>
       </c>
-      <c r="D962" s="15" t="s">
+      <c r="D962" s="10" t="s">
         <v>1960</v>
       </c>
-      <c r="E962" s="14">
-        <v>2</v>
-      </c>
-      <c r="F962" s="14">
-        <v>1</v>
-      </c>
-      <c r="G962" s="15" t="s">
-        <v>2094</v>
-      </c>
-    </row>
-    <row r="963" spans="1:7" s="8" customFormat="1">
+      <c r="E962" s="8">
+        <v>2</v>
+      </c>
+      <c r="F962" s="8">
+        <v>1</v>
+      </c>
+      <c r="G962" s="10" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="963" spans="1:9" s="8" customFormat="1">
       <c r="A963" s="8">
         <v>962</v>
       </c>
-      <c r="B963" s="14">
+      <c r="B963" s="8">
         <v>395</v>
       </c>
-      <c r="C963" s="15" t="s">
+      <c r="C963" s="10" t="s">
         <v>1142</v>
       </c>
-      <c r="D963" s="15" t="s">
+      <c r="D963" s="10" t="s">
         <v>1960</v>
       </c>
-      <c r="E963" s="14">
-        <v>2</v>
-      </c>
-      <c r="F963" s="14">
-        <v>1</v>
-      </c>
-      <c r="G963" s="15" t="s">
-        <v>2094</v>
-      </c>
-    </row>
-    <row r="964" spans="1:7" s="8" customFormat="1">
+      <c r="E963" s="8">
+        <v>2</v>
+      </c>
+      <c r="F963" s="8">
+        <v>1</v>
+      </c>
+      <c r="G963" s="10" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="964" spans="1:9" s="8" customFormat="1">
       <c r="A964" s="8">
         <v>963</v>
       </c>
-      <c r="B964" s="14">
+      <c r="B964" s="8">
         <v>396</v>
       </c>
-      <c r="C964" s="15" t="s">
+      <c r="C964" s="10" t="s">
         <v>1142</v>
       </c>
-      <c r="D964" s="80" t="s">
+      <c r="D964" s="64" t="s">
         <v>1818</v>
       </c>
-      <c r="E964" s="14">
-        <v>2</v>
-      </c>
-      <c r="F964" s="14">
-        <v>1</v>
-      </c>
-      <c r="G964" s="14" t="s">
-        <v>2108</v>
-      </c>
-    </row>
-    <row r="965" spans="1:7" s="8" customFormat="1">
+      <c r="E964" s="8">
+        <v>2</v>
+      </c>
+      <c r="F964" s="8">
+        <v>1</v>
+      </c>
+      <c r="G964" s="8" t="s">
+        <v>2107</v>
+      </c>
+    </row>
+    <row r="965" spans="1:9" s="8" customFormat="1">
       <c r="A965" s="8">
         <v>964</v>
       </c>
-      <c r="B965" s="14">
+      <c r="B965" s="8">
         <v>396</v>
       </c>
-      <c r="C965" s="15" t="s">
+      <c r="C965" s="10" t="s">
         <v>1142</v>
       </c>
-      <c r="D965" s="80" t="s">
+      <c r="D965" s="64" t="s">
         <v>1917</v>
       </c>
-      <c r="E965" s="14">
-        <v>2</v>
-      </c>
-      <c r="F965" s="14">
-        <v>2</v>
-      </c>
-      <c r="G965" s="15" t="s">
-        <v>2109</v>
-      </c>
-    </row>
-    <row r="966" spans="1:7" s="115" customFormat="1">
-      <c r="A966" s="115">
+      <c r="E965" s="8">
+        <v>2</v>
+      </c>
+      <c r="F965" s="8">
+        <v>2</v>
+      </c>
+      <c r="G965" s="10" t="s">
+        <v>2108</v>
+      </c>
+    </row>
+    <row r="966" spans="1:9" s="8" customFormat="1">
+      <c r="A966" s="8">
         <v>965</v>
       </c>
-      <c r="B966" s="115">
+      <c r="B966" s="8">
         <v>397</v>
       </c>
-      <c r="C966" s="116" t="s">
+      <c r="C966" s="10" t="s">
         <v>1142</v>
       </c>
-      <c r="D966" s="117" t="s">
+      <c r="D966" s="64" t="s">
         <v>1960</v>
       </c>
-      <c r="E966" s="115">
+      <c r="E966" s="8">
         <v>5</v>
       </c>
-      <c r="F966" s="115">
-        <v>2</v>
-      </c>
-      <c r="G966" s="116" t="s">
+      <c r="F966" s="8">
+        <v>2</v>
+      </c>
+      <c r="G966" s="10" t="s">
+        <v>2124</v>
+      </c>
+    </row>
+    <row r="967" spans="1:9" s="8" customFormat="1">
+      <c r="A967" s="8">
+        <v>966</v>
+      </c>
+      <c r="B967" s="8">
+        <v>397</v>
+      </c>
+      <c r="C967" s="8" t="s">
+        <v>852</v>
+      </c>
+      <c r="D967" s="8" t="s">
+        <v>853</v>
+      </c>
+      <c r="E967" s="8">
+        <v>2</v>
+      </c>
+      <c r="F967" s="8">
+        <v>1</v>
+      </c>
+      <c r="G967" s="10" t="s">
+        <v>1844</v>
+      </c>
+    </row>
+    <row r="968" spans="1:9" s="8" customFormat="1">
+      <c r="A968" s="8">
+        <v>967</v>
+      </c>
+      <c r="B968" s="8">
+        <v>398</v>
+      </c>
+      <c r="C968" s="10" t="s">
+        <v>1142</v>
+      </c>
+      <c r="D968" s="64" t="s">
+        <v>1960</v>
+      </c>
+      <c r="E968" s="8">
+        <v>2</v>
+      </c>
+      <c r="F968" s="8">
+        <v>2</v>
+      </c>
+      <c r="G968" s="10" t="s">
         <v>2125</v>
       </c>
     </row>
-    <row r="967" spans="1:7" s="115" customFormat="1">
-      <c r="A967" s="115">
-        <v>966</v>
-      </c>
-      <c r="B967" s="115">
-        <v>397</v>
-      </c>
-      <c r="C967" s="115" t="s">
+    <row r="969" spans="1:9" s="8" customFormat="1">
+      <c r="A969" s="8">
+        <v>968</v>
+      </c>
+      <c r="B969" s="8">
+        <v>398</v>
+      </c>
+      <c r="C969" s="8" t="s">
         <v>852</v>
       </c>
-      <c r="D967" s="115" t="s">
+      <c r="D969" s="8" t="s">
         <v>853</v>
       </c>
-      <c r="E967" s="115">
-        <v>2</v>
-      </c>
-      <c r="F967" s="115">
-        <v>1</v>
-      </c>
-      <c r="G967" s="116" t="s">
+      <c r="E969" s="8">
+        <v>2</v>
+      </c>
+      <c r="F969" s="8">
+        <v>1</v>
+      </c>
+      <c r="G969" s="10" t="s">
         <v>1844</v>
       </c>
     </row>
-    <row r="968" spans="1:7" s="115" customFormat="1">
-      <c r="A968" s="115">
-        <v>967</v>
-      </c>
-      <c r="B968" s="115">
-        <v>398</v>
-      </c>
-      <c r="C968" s="116" t="s">
+    <row r="970" spans="1:9">
+      <c r="A970" s="8">
+        <v>969</v>
+      </c>
+      <c r="B970" s="20">
+        <v>399</v>
+      </c>
+      <c r="C970" s="21" t="s">
         <v>1142</v>
       </c>
-      <c r="D968" s="117" t="s">
-        <v>1960</v>
-      </c>
-      <c r="E968" s="115">
-        <v>2</v>
-      </c>
-      <c r="F968" s="115">
-        <v>2</v>
-      </c>
-      <c r="G968" s="116" t="s">
-        <v>2126</v>
-      </c>
-    </row>
-    <row r="969" spans="1:7" s="115" customFormat="1">
-      <c r="A969" s="115">
-        <v>968</v>
-      </c>
-      <c r="B969" s="115">
-        <v>398</v>
-      </c>
-      <c r="C969" s="115" t="s">
-        <v>852</v>
-      </c>
-      <c r="D969" s="115" t="s">
-        <v>853</v>
-      </c>
-      <c r="E969" s="115">
-        <v>2</v>
-      </c>
-      <c r="F969" s="115">
-        <v>1</v>
-      </c>
-      <c r="G969" s="116" t="s">
-        <v>1844</v>
-      </c>
-    </row>
-    <row r="970" spans="1:7" s="8" customFormat="1">
-      <c r="C970" s="10"/>
-      <c r="D970" s="10"/>
-      <c r="G970" s="10"/>
-    </row>
-    <row r="971" spans="1:7" s="8" customFormat="1"/>
-    <row r="972" spans="1:7" s="8" customFormat="1">
-      <c r="C972" s="10"/>
-      <c r="D972" s="10"/>
-      <c r="G972" s="10"/>
-    </row>
-    <row r="973" spans="1:7" s="8" customFormat="1">
-      <c r="C973" s="10"/>
-      <c r="D973" s="10"/>
-      <c r="G973" s="10"/>
-    </row>
-    <row r="974" spans="1:7" s="8" customFormat="1">
+      <c r="D970" s="21" t="s">
+        <v>1905</v>
+      </c>
+      <c r="E970" s="20">
+        <v>5</v>
+      </c>
+      <c r="F970" s="20">
+        <v>1</v>
+      </c>
+      <c r="G970" s="21" t="s">
+        <v>1883</v>
+      </c>
+      <c r="H970" s="8"/>
+      <c r="I970" s="8"/>
+    </row>
+    <row r="971" spans="1:9">
+      <c r="A971" s="8">
+        <v>970</v>
+      </c>
+      <c r="B971" s="20">
+        <v>399</v>
+      </c>
+      <c r="C971" s="21" t="s">
+        <v>1129</v>
+      </c>
+      <c r="D971" s="21">
+        <v>5</v>
+      </c>
+      <c r="E971" s="20">
+        <v>3</v>
+      </c>
+      <c r="F971" s="20">
+        <v>1</v>
+      </c>
+      <c r="G971" s="21" t="s">
+        <v>2128</v>
+      </c>
+      <c r="H971" s="8"/>
+      <c r="I971" s="8"/>
+    </row>
+    <row r="972" spans="1:9">
+      <c r="A972" s="8">
+        <v>971</v>
+      </c>
+      <c r="B972" s="20">
+        <v>400</v>
+      </c>
+      <c r="C972" s="21" t="s">
+        <v>1142</v>
+      </c>
+      <c r="D972" s="21" t="s">
+        <v>1905</v>
+      </c>
+      <c r="E972" s="20">
+        <v>2</v>
+      </c>
+      <c r="F972" s="20">
+        <v>1</v>
+      </c>
+      <c r="G972" s="21" t="s">
+        <v>1894</v>
+      </c>
+      <c r="H972" s="8" t="s">
+        <v>863</v>
+      </c>
+      <c r="I972" s="8" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="973" spans="1:9">
+      <c r="A973" s="8">
+        <v>972</v>
+      </c>
+      <c r="B973" s="20">
+        <v>400</v>
+      </c>
+      <c r="C973" s="21" t="s">
+        <v>1129</v>
+      </c>
+      <c r="D973" s="21">
+        <v>5</v>
+      </c>
+      <c r="E973" s="20">
+        <v>3</v>
+      </c>
+      <c r="F973" s="20">
+        <v>1</v>
+      </c>
+      <c r="G973" s="21" t="s">
+        <v>2128</v>
+      </c>
+      <c r="H973" s="8" t="s">
+        <v>863</v>
+      </c>
+      <c r="I973" s="8" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="974" spans="1:9" s="8" customFormat="1">
       <c r="C974" s="10"/>
       <c r="D974" s="10"/>
       <c r="G974" s="10"/>
     </row>
-    <row r="975" spans="1:7" s="8" customFormat="1"/>
-    <row r="976" spans="1:7" s="8" customFormat="1">
-      <c r="C976" s="10"/>
-      <c r="D976" s="10"/>
-      <c r="G976" s="10"/>
-    </row>
+    <row r="975" spans="1:9" s="8" customFormat="1">
+      <c r="C975" s="10"/>
+      <c r="D975" s="10"/>
+      <c r="G975" s="10"/>
+    </row>
+    <row r="976" spans="1:9" s="8" customFormat="1"/>
     <row r="977" spans="3:7" s="8" customFormat="1">
       <c r="C977" s="10"/>
       <c r="D977" s="10"/>
@@ -51164,6 +51317,11 @@
       <c r="C978" s="10"/>
       <c r="D978" s="10"/>
       <c r="G978" s="10"/>
+    </row>
+    <row r="979" spans="3:7" s="8" customFormat="1">
+      <c r="C979" s="10"/>
+      <c r="D979" s="10"/>
+      <c r="G979" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>

--- a/config_3.9/permission_server_config.xlsx
+++ b/config_3.9/permission_server_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4986" uniqueCount="2148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4988" uniqueCount="2150">
   <si>
     <t>key|唯一标识</t>
   </si>
@@ -9905,6 +9905,14 @@
   </si>
   <si>
     <t>时间为3.9号8点以后登录的新玩家</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>xyxtg_enter_limit</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>小游戏托管限制</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -10747,11 +10755,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Q469"/>
+  <dimension ref="A1:Q471"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A437" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A220" sqref="A220"/>
+      <selection pane="bottomLeft" activeCell="B472" sqref="B472"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -15567,6 +15575,17 @@
       </c>
       <c r="C469" s="3">
         <v>26</v>
+      </c>
+    </row>
+    <row r="471" spans="1:3">
+      <c r="A471" s="3" t="s">
+        <v>2148</v>
+      </c>
+      <c r="B471" s="3" t="s">
+        <v>2149</v>
+      </c>
+      <c r="C471" s="3">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -28243,7 +28262,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:I979"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C948" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>

--- a/config_3.9/permission_server_config.xlsx
+++ b/config_3.9/permission_server_config.xlsx
@@ -9813,10 +9813,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>非cjj且大于V</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>cjj且大于V5</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -9886,6 +9882,10 @@
   </si>
   <si>
     <t>actp_rank_xxlzb_005_rank</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>非cjj且大于V5</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -15563,10 +15563,10 @@
   <dimension ref="A1:O373"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D347" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D344" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B373" sqref="B373"/>
+      <selection pane="bottomRight" activeCell="D367" sqref="D367"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -25419,7 +25419,7 @@
         <v>1615248000</v>
       </c>
       <c r="L289" s="72" t="s">
-        <v>2126</v>
+        <v>2125</v>
       </c>
     </row>
     <row r="290" spans="1:12" s="73" customFormat="1">
@@ -25453,7 +25453,7 @@
         <v>1615248000</v>
       </c>
       <c r="L290" s="71" t="s">
-        <v>2126</v>
+        <v>2125</v>
       </c>
     </row>
     <row r="291" spans="1:12" s="73" customFormat="1">
@@ -25487,7 +25487,7 @@
         <v>1615248000</v>
       </c>
       <c r="L291" s="71" t="s">
-        <v>2126</v>
+        <v>2125</v>
       </c>
     </row>
     <row r="292" spans="1:12" s="73" customFormat="1">
@@ -25521,7 +25521,7 @@
         <v>1615248000</v>
       </c>
       <c r="L292" s="71" t="s">
-        <v>2126</v>
+        <v>2125</v>
       </c>
     </row>
     <row r="293" spans="1:12">
@@ -27921,7 +27921,7 @@
         <v>2122</v>
       </c>
       <c r="D366" s="66" t="s">
-        <v>2124</v>
+        <v>2139</v>
       </c>
       <c r="E366" s="65"/>
       <c r="F366" s="65"/>
@@ -27955,7 +27955,7 @@
         <v>2123</v>
       </c>
       <c r="D367" s="66" t="s">
-        <v>2125</v>
+        <v>2124</v>
       </c>
       <c r="E367" s="65"/>
       <c r="F367" s="65"/>
@@ -27975,7 +27975,7 @@
         <v>1615248000</v>
       </c>
       <c r="L367" s="66" t="s">
-        <v>2127</v>
+        <v>2126</v>
       </c>
     </row>
     <row r="368" spans="1:12">
@@ -27986,10 +27986,10 @@
         <v>1</v>
       </c>
       <c r="C368" s="66" t="s">
+        <v>2127</v>
+      </c>
+      <c r="D368" s="66" t="s">
         <v>2128</v>
-      </c>
-      <c r="D368" s="66" t="s">
-        <v>2129</v>
       </c>
       <c r="E368" s="65"/>
       <c r="F368" s="65"/>
@@ -28020,10 +28020,10 @@
         <v>1</v>
       </c>
       <c r="C369" s="66" t="s">
+        <v>2129</v>
+      </c>
+      <c r="D369" s="66" t="s">
         <v>2130</v>
-      </c>
-      <c r="D369" s="66" t="s">
-        <v>2131</v>
       </c>
       <c r="E369" s="65"/>
       <c r="F369" s="65"/>
@@ -28054,10 +28054,10 @@
         <v>1</v>
       </c>
       <c r="C370" s="66" t="s">
-        <v>2133</v>
+        <v>2132</v>
       </c>
       <c r="D370" s="16" t="s">
-        <v>2135</v>
+        <v>2134</v>
       </c>
       <c r="E370" s="65"/>
       <c r="F370" s="65"/>
@@ -28088,10 +28088,10 @@
         <v>1</v>
       </c>
       <c r="C371" s="66" t="s">
-        <v>2134</v>
+        <v>2133</v>
       </c>
       <c r="D371" s="16" t="s">
-        <v>2136</v>
+        <v>2135</v>
       </c>
       <c r="E371" s="65"/>
       <c r="F371" s="65"/>
@@ -28122,10 +28122,10 @@
         <v>1</v>
       </c>
       <c r="C372" s="58" t="s">
-        <v>2138</v>
+        <v>2137</v>
       </c>
       <c r="D372" s="66" t="s">
-        <v>2137</v>
+        <v>2136</v>
       </c>
       <c r="E372" s="65"/>
       <c r="F372" s="65"/>
@@ -28156,7 +28156,7 @@
         <v>1</v>
       </c>
       <c r="C373" s="58" t="s">
-        <v>2139</v>
+        <v>2138</v>
       </c>
       <c r="D373" s="66" t="s">
         <v>2087</v>
@@ -51521,7 +51521,7 @@
         <v>1</v>
       </c>
       <c r="G974" s="21" t="s">
-        <v>2132</v>
+        <v>2131</v>
       </c>
     </row>
     <row r="975" spans="1:9" s="8" customFormat="1"/>

--- a/config_3.9/permission_server_config.xlsx
+++ b/config_3.9/permission_server_config.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4969" uniqueCount="2140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6487" uniqueCount="2141">
   <si>
     <t>key|唯一标识</t>
   </si>
@@ -9845,10 +9845,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>actp_own_task_gehk_v4v12</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>大于等于V4</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -9886,6 +9882,14 @@
   </si>
   <si>
     <t>非cjj且大于V5</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_own_task_p_gehk_v4v12</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_own_task_p_gehk_v3</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -15566,7 +15570,7 @@
       <pane xSplit="3" ySplit="1" topLeftCell="D344" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D367" sqref="D367"/>
+      <selection pane="bottomRight" activeCell="C368" sqref="C368"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -27921,7 +27925,7 @@
         <v>2122</v>
       </c>
       <c r="D366" s="66" t="s">
-        <v>2139</v>
+        <v>2138</v>
       </c>
       <c r="E366" s="65"/>
       <c r="F366" s="65"/>
@@ -27986,7 +27990,7 @@
         <v>1</v>
       </c>
       <c r="C368" s="66" t="s">
-        <v>2127</v>
+        <v>2140</v>
       </c>
       <c r="D368" s="66" t="s">
         <v>2128</v>
@@ -28020,10 +28024,10 @@
         <v>1</v>
       </c>
       <c r="C369" s="66" t="s">
+        <v>2139</v>
+      </c>
+      <c r="D369" s="66" t="s">
         <v>2129</v>
-      </c>
-      <c r="D369" s="66" t="s">
-        <v>2130</v>
       </c>
       <c r="E369" s="65"/>
       <c r="F369" s="65"/>
@@ -28054,10 +28058,10 @@
         <v>1</v>
       </c>
       <c r="C370" s="66" t="s">
-        <v>2132</v>
+        <v>2131</v>
       </c>
       <c r="D370" s="16" t="s">
-        <v>2134</v>
+        <v>2133</v>
       </c>
       <c r="E370" s="65"/>
       <c r="F370" s="65"/>
@@ -28088,10 +28092,10 @@
         <v>1</v>
       </c>
       <c r="C371" s="66" t="s">
-        <v>2133</v>
+        <v>2132</v>
       </c>
       <c r="D371" s="16" t="s">
-        <v>2135</v>
+        <v>2134</v>
       </c>
       <c r="E371" s="65"/>
       <c r="F371" s="65"/>
@@ -28122,10 +28126,10 @@
         <v>1</v>
       </c>
       <c r="C372" s="58" t="s">
-        <v>2137</v>
+        <v>2136</v>
       </c>
       <c r="D372" s="66" t="s">
-        <v>2136</v>
+        <v>2135</v>
       </c>
       <c r="E372" s="65"/>
       <c r="F372" s="65"/>
@@ -28156,7 +28160,7 @@
         <v>1</v>
       </c>
       <c r="C373" s="58" t="s">
-        <v>2138</v>
+        <v>2137</v>
       </c>
       <c r="D373" s="66" t="s">
         <v>2087</v>
@@ -28199,7 +28203,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C955" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A956" sqref="A956:A974"/>
+      <selection pane="bottomRight" activeCell="B973" sqref="B973:G974"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -51521,7 +51525,7 @@
         <v>1</v>
       </c>
       <c r="G974" s="21" t="s">
-        <v>2131</v>
+        <v>2130</v>
       </c>
     </row>
     <row r="975" spans="1:9" s="8" customFormat="1"/>

--- a/config_3.9/permission_server_config.xlsx
+++ b/config_3.9/permission_server_config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_3.9\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_3.9\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6487" uniqueCount="2141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4981" uniqueCount="2143">
   <si>
     <t>key|唯一标识</t>
   </si>
@@ -9824,23 +9824,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>actp_own_task_gehk</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_v3</t>
-    </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>小于等于V3</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -9890,6 +9873,18 @@
   </si>
   <si>
     <t>actp_own_task_p_gehk_v3</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>是CPL</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>是官方</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_official</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -10734,9 +10729,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Q469"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A442" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B462" sqref="B462"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A182" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C202" sqref="C202"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -13323,7 +13318,7 @@
         <v>322</v>
       </c>
       <c r="C201" s="18">
-        <v>80</v>
+        <v>403</v>
       </c>
       <c r="D201" s="31" t="s">
         <v>323</v>
@@ -13338,7 +13333,7 @@
         <v>1157</v>
       </c>
       <c r="C202" s="57">
-        <v>81</v>
+        <v>404</v>
       </c>
       <c r="D202" s="56" t="s">
         <v>324</v>
@@ -15566,7 +15561,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:O373"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D344" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -27925,7 +27920,7 @@
         <v>2122</v>
       </c>
       <c r="D366" s="66" t="s">
-        <v>2138</v>
+        <v>2137</v>
       </c>
       <c r="E366" s="65"/>
       <c r="F366" s="65"/>
@@ -27990,10 +27985,10 @@
         <v>1</v>
       </c>
       <c r="C368" s="66" t="s">
-        <v>2140</v>
+        <v>2139</v>
       </c>
       <c r="D368" s="66" t="s">
-        <v>2128</v>
+        <v>2127</v>
       </c>
       <c r="E368" s="65"/>
       <c r="F368" s="65"/>
@@ -28024,10 +28019,10 @@
         <v>1</v>
       </c>
       <c r="C369" s="66" t="s">
-        <v>2139</v>
+        <v>2138</v>
       </c>
       <c r="D369" s="66" t="s">
-        <v>2129</v>
+        <v>2128</v>
       </c>
       <c r="E369" s="65"/>
       <c r="F369" s="65"/>
@@ -28058,10 +28053,10 @@
         <v>1</v>
       </c>
       <c r="C370" s="66" t="s">
-        <v>2131</v>
+        <v>2130</v>
       </c>
       <c r="D370" s="16" t="s">
-        <v>2133</v>
+        <v>2132</v>
       </c>
       <c r="E370" s="65"/>
       <c r="F370" s="65"/>
@@ -28092,10 +28087,10 @@
         <v>1</v>
       </c>
       <c r="C371" s="66" t="s">
-        <v>2132</v>
+        <v>2131</v>
       </c>
       <c r="D371" s="16" t="s">
-        <v>2134</v>
+        <v>2133</v>
       </c>
       <c r="E371" s="65"/>
       <c r="F371" s="65"/>
@@ -28126,10 +28121,10 @@
         <v>1</v>
       </c>
       <c r="C372" s="58" t="s">
-        <v>2136</v>
+        <v>2135</v>
       </c>
       <c r="D372" s="66" t="s">
-        <v>2135</v>
+        <v>2134</v>
       </c>
       <c r="E372" s="65"/>
       <c r="F372" s="65"/>
@@ -28160,7 +28155,7 @@
         <v>1</v>
       </c>
       <c r="C373" s="58" t="s">
-        <v>2137</v>
+        <v>2136</v>
       </c>
       <c r="D373" s="66" t="s">
         <v>2087</v>
@@ -28203,7 +28198,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C955" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B973" sqref="B973:G974"/>
+      <selection pane="bottomRight" activeCell="A976" sqref="A976"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -51525,24 +51520,100 @@
         <v>1</v>
       </c>
       <c r="G974" s="21" t="s">
-        <v>2130</v>
-      </c>
-    </row>
-    <row r="975" spans="1:9" s="8" customFormat="1"/>
+        <v>2129</v>
+      </c>
+    </row>
+    <row r="975" spans="1:9" s="8" customFormat="1">
+      <c r="A975" s="8">
+        <v>974</v>
+      </c>
+      <c r="B975" s="8">
+        <v>403</v>
+      </c>
+      <c r="C975" s="95" t="s">
+        <v>1032</v>
+      </c>
+      <c r="D975" s="95" t="s">
+        <v>1818</v>
+      </c>
+      <c r="E975" s="8">
+        <v>2</v>
+      </c>
+      <c r="F975" s="8">
+        <v>1</v>
+      </c>
+      <c r="G975" s="8" t="s">
+        <v>2140</v>
+      </c>
+    </row>
     <row r="976" spans="1:9" s="8" customFormat="1">
-      <c r="C976" s="10"/>
-      <c r="D976" s="10"/>
-      <c r="G976" s="10"/>
-    </row>
-    <row r="977" spans="3:7" s="8" customFormat="1">
-      <c r="C977" s="10"/>
-      <c r="D977" s="10"/>
-      <c r="G977" s="10"/>
-    </row>
-    <row r="978" spans="3:7" s="8" customFormat="1">
-      <c r="C978" s="10"/>
-      <c r="D978" s="10"/>
-      <c r="G978" s="10"/>
+      <c r="A976" s="8">
+        <v>975</v>
+      </c>
+      <c r="B976" s="8">
+        <v>403</v>
+      </c>
+      <c r="C976" s="95" t="s">
+        <v>1142</v>
+      </c>
+      <c r="D976" s="95" t="s">
+        <v>1600</v>
+      </c>
+      <c r="E976" s="8">
+        <v>2</v>
+      </c>
+      <c r="F976" s="8">
+        <v>1</v>
+      </c>
+      <c r="G976" s="10" t="s">
+        <v>2141</v>
+      </c>
+    </row>
+    <row r="977" spans="1:7" s="8" customFormat="1">
+      <c r="A977" s="8">
+        <v>976</v>
+      </c>
+      <c r="B977" s="8">
+        <v>404</v>
+      </c>
+      <c r="C977" s="95" t="s">
+        <v>1032</v>
+      </c>
+      <c r="D977" s="95" t="s">
+        <v>1818</v>
+      </c>
+      <c r="E977" s="8">
+        <v>2</v>
+      </c>
+      <c r="F977" s="8">
+        <v>1</v>
+      </c>
+      <c r="G977" s="8" t="s">
+        <v>2140</v>
+      </c>
+    </row>
+    <row r="978" spans="1:7" s="8" customFormat="1">
+      <c r="A978" s="8">
+        <v>977</v>
+      </c>
+      <c r="B978" s="8">
+        <v>404</v>
+      </c>
+      <c r="C978" s="95" t="s">
+        <v>1142</v>
+      </c>
+      <c r="D978" s="95" t="s">
+        <v>2142</v>
+      </c>
+      <c r="E978" s="8">
+        <v>2</v>
+      </c>
+      <c r="F978" s="8">
+        <v>1</v>
+      </c>
+      <c r="G978" s="10" t="s">
+        <v>2141</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>

--- a/config_3.9/permission_server_config.xlsx
+++ b/config_3.9/permission_server_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4981" uniqueCount="2143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4986" uniqueCount="2148">
   <si>
     <t>key|唯一标识</t>
   </si>
@@ -9653,238 +9653,258 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
+    <t>actp_rank_gdn_004_jzbd_rank</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_rank_xxlzb_004_rank</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>集字榜单--非cjj</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>消消乐争霸--cjj</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021年2月12日23:59:59结束</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021年2月12日23:59:59结束</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>不是cjj</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>是cjj</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>xyxtg_bet_limit_1</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>xyxtg_bet_limit_2</t>
+  </si>
+  <si>
+    <t>xyxtg_bet_limit_3</t>
+  </si>
+  <si>
+    <t>xyxtg_bet_limit_4</t>
+  </si>
+  <si>
+    <t>xyxtg_bet_limit_5</t>
+  </si>
+  <si>
+    <t>小游戏托管-10次</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>小游戏托管-30次</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>小游戏托管-50次</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>小游戏托管-100次</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>小游戏托管-20次</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_show_gift_bag_xyfl</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>全cpl</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021年2月12日23:59:59结束</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>3d捕鱼cpl</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>冲金鸡cpl</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_buy_gift_bag_class_fclb_free_002</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_buy_gift_bag_class_fclb_v1v7_002</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_buy_gift_bag_class_fclb_v8v12_002</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>财神模式下注10000鲸币</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>财神模式下注20万鲸币</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>财神模式下注100万鲸币</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>财神模式下注500万鲸币</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂时不用</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢乐福利（欢乐捕鱼）--非cps</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>is_dynamic_codi|条件是否动态达成，TRUE第一次及其以后某个身份   FALSE第一次的获得这个任务的身份</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>不是冲金鸡</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>是冲金鸡</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021年3月15日23:59:59结束</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>vip_level</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>大于V5</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_no_cjj_gej_exchange_V5</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_cjj_gej_exchange_V5</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>cjj且大于V5</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021年3月15日23:59:59结束</t>
+  </si>
+  <si>
+    <t>2021年3月15日23:59:59结束</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>小于等于V3</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>大于等于V4</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>大于V4</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_own_task_p_xrxsfl_hlby</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_own_task_p_xrxsfl_cjj</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>新人限时福利（欢乐捕鱼）</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>新人限时福利（冲金鸡）</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>礼盒排行榜--非cjj</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_rank_kh315_008_lhphb_rank</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_rank_xxlzb_005_rank</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>非cjj且大于V5</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_own_task_p_gehk_v4v12</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_own_task_p_gehk_v3</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>是CPL</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>是官方</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_official</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
     <t>actp_own_task_1000276</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>actp_rank_gdn_004_jzbd_rank</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>actp_rank_xxlzb_004_rank</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>集字榜单--非cjj</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>消消乐争霸--cjj</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>2021年2月12日23:59:59结束</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>2021年2月12日23:59:59结束</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>不是cjj</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>是cjj</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>xyxtg_bet_limit_1</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>xyxtg_bet_limit_2</t>
-  </si>
-  <si>
-    <t>xyxtg_bet_limit_3</t>
-  </si>
-  <si>
-    <t>xyxtg_bet_limit_4</t>
-  </si>
-  <si>
-    <t>xyxtg_bet_limit_5</t>
-  </si>
-  <si>
-    <t>小游戏托管-10次</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>小游戏托管-30次</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>小游戏托管-50次</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>小游戏托管-100次</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>小游戏托管-20次</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>actp_show_gift_bag_xyfl</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>全cpl</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>2021年2月12日23:59:59结束</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>3d捕鱼cpl</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>冲金鸡cpl</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>actp_buy_gift_bag_class_fclb_free_002</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>actp_buy_gift_bag_class_fclb_v1v7_002</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>actp_buy_gift_bag_class_fclb_v8v12_002</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>财神模式下注10000鲸币</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>财神模式下注20万鲸币</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>财神模式下注100万鲸币</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>财神模式下注500万鲸币</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>暂时不用</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>欢乐福利（欢乐捕鱼）--非cps</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>is_dynamic_codi|条件是否动态达成，TRUE第一次及其以后某个身份   FALSE第一次的获得这个任务的身份</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>不是冲金鸡</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>是冲金鸡</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>2021年3月15日23:59:59结束</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>vip_level</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>大于V5</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>actp_no_cjj_gej_exchange_V5</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>actp_cjj_gej_exchange_V5</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>cjj且大于V5</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>2021年3月15日23:59:59结束</t>
-  </si>
-  <si>
-    <t>2021年3月15日23:59:59结束</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>小于等于V3</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>大于等于V4</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>大于V4</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>actp_own_task_p_xrxsfl_hlby</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>actp_own_task_p_xrxsfl_cjj</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>新人限时福利（欢乐捕鱼）</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>新人限时福利（冲金鸡）</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>礼盒排行榜--非cjj</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>actp_rank_kh315_008_lhphb_rank</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>actp_rank_xxlzb_005_rank</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>非cjj且大于V5</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>actp_own_task_p_gehk_v4v12</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>actp_own_task_p_gehk_v3</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>是CPL</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>是官方</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_official</t>
+    <t>actp_own_task_95</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>深海探险新人权限</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>day_delay</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>day_delay</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间为3.9号8点以后登录的新玩家</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -10729,9 +10749,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Q469"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A182" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C202" sqref="C202"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A437" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A220" sqref="A220"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -11750,7 +11770,7 @@
         <v>111</v>
       </c>
       <c r="B59" s="49" t="s">
-        <v>2110</v>
+        <v>2109</v>
       </c>
       <c r="C59" s="9">
         <v>22</v>
@@ -11765,7 +11785,7 @@
         <v>112</v>
       </c>
       <c r="B60" s="49" t="s">
-        <v>2111</v>
+        <v>2110</v>
       </c>
       <c r="C60" s="9">
         <v>22</v>
@@ -11780,7 +11800,7 @@
         <v>113</v>
       </c>
       <c r="B61" s="49" t="s">
-        <v>2112</v>
+        <v>2111</v>
       </c>
       <c r="C61" s="9">
         <v>22</v>
@@ -11795,7 +11815,7 @@
         <v>114</v>
       </c>
       <c r="B62" s="49" t="s">
-        <v>2113</v>
+        <v>2112</v>
       </c>
       <c r="C62" s="9">
         <v>24</v>
@@ -11809,7 +11829,7 @@
         <v>115</v>
       </c>
       <c r="B63" s="49" t="s">
-        <v>2114</v>
+        <v>2113</v>
       </c>
       <c r="C63" s="9">
         <v>22</v>
@@ -11823,7 +11843,7 @@
         <v>116</v>
       </c>
       <c r="B64" s="49" t="s">
-        <v>2114</v>
+        <v>2113</v>
       </c>
       <c r="C64" s="9">
         <v>22</v>
@@ -11838,7 +11858,7 @@
         <v>117</v>
       </c>
       <c r="B65" s="49" t="s">
-        <v>2114</v>
+        <v>2113</v>
       </c>
       <c r="C65" s="53">
         <v>22</v>
@@ -11853,7 +11873,7 @@
         <v>118</v>
       </c>
       <c r="B66" s="49" t="s">
-        <v>2114</v>
+        <v>2113</v>
       </c>
       <c r="C66" s="53">
         <v>23</v>
@@ -11867,7 +11887,7 @@
         <v>119</v>
       </c>
       <c r="B67" s="49" t="s">
-        <v>2114</v>
+        <v>2113</v>
       </c>
       <c r="C67" s="9">
         <v>24</v>
@@ -11885,7 +11905,7 @@
         <v>120</v>
       </c>
       <c r="B68" s="49" t="s">
-        <v>2114</v>
+        <v>2113</v>
       </c>
       <c r="C68" s="9">
         <v>25</v>
@@ -15499,18 +15519,18 @@
     </row>
     <row r="465" spans="1:3">
       <c r="A465" s="3" t="s">
-        <v>2092</v>
+        <v>2091</v>
       </c>
       <c r="B465" s="3" t="s">
-        <v>2097</v>
+        <v>2096</v>
       </c>
     </row>
     <row r="466" spans="1:3">
       <c r="A466" s="3" t="s">
-        <v>2093</v>
+        <v>2092</v>
       </c>
       <c r="B466" s="27" t="s">
-        <v>2101</v>
+        <v>2100</v>
       </c>
       <c r="C466" s="3">
         <v>22</v>
@@ -15518,10 +15538,10 @@
     </row>
     <row r="467" spans="1:3">
       <c r="A467" s="3" t="s">
-        <v>2094</v>
+        <v>2093</v>
       </c>
       <c r="B467" s="27" t="s">
-        <v>2098</v>
+        <v>2097</v>
       </c>
       <c r="C467" s="3">
         <v>23</v>
@@ -15529,10 +15549,10 @@
     </row>
     <row r="468" spans="1:3">
       <c r="A468" s="3" t="s">
-        <v>2095</v>
+        <v>2094</v>
       </c>
       <c r="B468" s="27" t="s">
-        <v>2099</v>
+        <v>2098</v>
       </c>
       <c r="C468" s="3">
         <v>24</v>
@@ -15540,10 +15560,10 @@
     </row>
     <row r="469" spans="1:3">
       <c r="A469" s="3" t="s">
-        <v>2096</v>
+        <v>2095</v>
       </c>
       <c r="B469" s="27" t="s">
-        <v>2100</v>
+        <v>2099</v>
       </c>
       <c r="C469" s="3">
         <v>26</v>
@@ -15559,13 +15579,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:O373"/>
+  <dimension ref="A1:O374"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D344" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="E350" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C368" sqref="C368"/>
+      <selection pane="bottomRight" activeCell="H374" sqref="H374"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -15607,7 +15627,7 @@
         <v>2</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>2116</v>
+        <v>2115</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>450</v>
@@ -25418,7 +25438,7 @@
         <v>1615248000</v>
       </c>
       <c r="L289" s="72" t="s">
-        <v>2125</v>
+        <v>2124</v>
       </c>
     </row>
     <row r="290" spans="1:12" s="73" customFormat="1">
@@ -25452,7 +25472,7 @@
         <v>1615248000</v>
       </c>
       <c r="L290" s="71" t="s">
-        <v>2125</v>
+        <v>2124</v>
       </c>
     </row>
     <row r="291" spans="1:12" s="73" customFormat="1">
@@ -25486,7 +25506,7 @@
         <v>1615248000</v>
       </c>
       <c r="L291" s="71" t="s">
-        <v>2125</v>
+        <v>2124</v>
       </c>
     </row>
     <row r="292" spans="1:12" s="73" customFormat="1">
@@ -25520,7 +25540,7 @@
         <v>1615248000</v>
       </c>
       <c r="L292" s="71" t="s">
-        <v>2125</v>
+        <v>2124</v>
       </c>
     </row>
     <row r="293" spans="1:12">
@@ -27410,7 +27430,7 @@
         <v>2081</v>
       </c>
       <c r="D351" s="66" t="s">
-        <v>2115</v>
+        <v>2114</v>
       </c>
       <c r="E351" s="66"/>
       <c r="F351" s="66"/>
@@ -27509,7 +27529,7 @@
         <v>0</v>
       </c>
       <c r="C354" s="16" t="s">
-        <v>2107</v>
+        <v>2106</v>
       </c>
       <c r="D354" s="16" t="s">
         <v>2042</v>
@@ -27543,7 +27563,7 @@
         <v>0</v>
       </c>
       <c r="C355" s="16" t="s">
-        <v>2108</v>
+        <v>2107</v>
       </c>
       <c r="D355" s="16" t="s">
         <v>2044</v>
@@ -27577,7 +27597,7 @@
         <v>0</v>
       </c>
       <c r="C356" s="16" t="s">
-        <v>2109</v>
+        <v>2108</v>
       </c>
       <c r="D356" s="16" t="s">
         <v>2046</v>
@@ -27781,7 +27801,7 @@
         <v>0</v>
       </c>
       <c r="C362" s="106" t="s">
-        <v>2083</v>
+        <v>2142</v>
       </c>
       <c r="D362" s="16" t="s">
         <v>2063</v>
@@ -27815,10 +27835,10 @@
         <v>0</v>
       </c>
       <c r="C363" s="31" t="s">
-        <v>2084</v>
+        <v>2083</v>
       </c>
       <c r="D363" s="16" t="s">
-        <v>2086</v>
+        <v>2085</v>
       </c>
       <c r="E363" s="17"/>
       <c r="F363" s="17"/>
@@ -27838,7 +27858,7 @@
         <v>1612828800</v>
       </c>
       <c r="L363" s="16" t="s">
-        <v>2088</v>
+        <v>2087</v>
       </c>
     </row>
     <row r="364" spans="1:12" s="22" customFormat="1">
@@ -27849,10 +27869,10 @@
         <v>0</v>
       </c>
       <c r="C364" s="31" t="s">
-        <v>2085</v>
+        <v>2084</v>
       </c>
       <c r="D364" s="16" t="s">
-        <v>2087</v>
+        <v>2086</v>
       </c>
       <c r="E364" s="17"/>
       <c r="F364" s="17"/>
@@ -27872,7 +27892,7 @@
         <v>1612828800</v>
       </c>
       <c r="L364" s="16" t="s">
-        <v>2089</v>
+        <v>2088</v>
       </c>
     </row>
     <row r="365" spans="1:12" s="22" customFormat="1">
@@ -27883,10 +27903,10 @@
         <v>0</v>
       </c>
       <c r="C365" s="31" t="s">
+        <v>2101</v>
+      </c>
+      <c r="D365" s="16" t="s">
         <v>2102</v>
-      </c>
-      <c r="D365" s="16" t="s">
-        <v>2103</v>
       </c>
       <c r="E365" s="17"/>
       <c r="F365" s="17"/>
@@ -27906,7 +27926,7 @@
         <v>1612828800</v>
       </c>
       <c r="L365" s="16" t="s">
-        <v>2104</v>
+        <v>2103</v>
       </c>
     </row>
     <row r="366" spans="1:12" s="22" customFormat="1">
@@ -27917,10 +27937,10 @@
         <v>1</v>
       </c>
       <c r="C366" s="66" t="s">
-        <v>2122</v>
+        <v>2121</v>
       </c>
       <c r="D366" s="66" t="s">
-        <v>2137</v>
+        <v>2136</v>
       </c>
       <c r="E366" s="65"/>
       <c r="F366" s="65"/>
@@ -27940,7 +27960,7 @@
         <v>1615248000</v>
       </c>
       <c r="L366" s="66" t="s">
-        <v>2119</v>
+        <v>2118</v>
       </c>
     </row>
     <row r="367" spans="1:12" s="22" customFormat="1">
@@ -27951,10 +27971,10 @@
         <v>1</v>
       </c>
       <c r="C367" s="66" t="s">
+        <v>2122</v>
+      </c>
+      <c r="D367" s="66" t="s">
         <v>2123</v>
-      </c>
-      <c r="D367" s="66" t="s">
-        <v>2124</v>
       </c>
       <c r="E367" s="65"/>
       <c r="F367" s="65"/>
@@ -27974,7 +27994,7 @@
         <v>1615248000</v>
       </c>
       <c r="L367" s="66" t="s">
-        <v>2126</v>
+        <v>2125</v>
       </c>
     </row>
     <row r="368" spans="1:12">
@@ -27985,10 +28005,10 @@
         <v>1</v>
       </c>
       <c r="C368" s="66" t="s">
-        <v>2139</v>
+        <v>2138</v>
       </c>
       <c r="D368" s="66" t="s">
-        <v>2127</v>
+        <v>2126</v>
       </c>
       <c r="E368" s="65"/>
       <c r="F368" s="65"/>
@@ -28008,7 +28028,7 @@
         <v>1615248000</v>
       </c>
       <c r="L368" s="66" t="s">
-        <v>2119</v>
+        <v>2118</v>
       </c>
     </row>
     <row r="369" spans="1:12">
@@ -28019,10 +28039,10 @@
         <v>1</v>
       </c>
       <c r="C369" s="66" t="s">
-        <v>2138</v>
+        <v>2137</v>
       </c>
       <c r="D369" s="66" t="s">
-        <v>2128</v>
+        <v>2127</v>
       </c>
       <c r="E369" s="65"/>
       <c r="F369" s="65"/>
@@ -28042,7 +28062,7 @@
         <v>1615248000</v>
       </c>
       <c r="L369" s="66" t="s">
-        <v>2119</v>
+        <v>2118</v>
       </c>
     </row>
     <row r="370" spans="1:12">
@@ -28053,10 +28073,10 @@
         <v>1</v>
       </c>
       <c r="C370" s="66" t="s">
-        <v>2130</v>
+        <v>2129</v>
       </c>
       <c r="D370" s="16" t="s">
-        <v>2132</v>
+        <v>2131</v>
       </c>
       <c r="E370" s="65"/>
       <c r="F370" s="65"/>
@@ -28087,10 +28107,10 @@
         <v>1</v>
       </c>
       <c r="C371" s="66" t="s">
-        <v>2131</v>
+        <v>2130</v>
       </c>
       <c r="D371" s="16" t="s">
-        <v>2133</v>
+        <v>2132</v>
       </c>
       <c r="E371" s="65"/>
       <c r="F371" s="65"/>
@@ -28121,10 +28141,10 @@
         <v>1</v>
       </c>
       <c r="C372" s="58" t="s">
-        <v>2135</v>
+        <v>2134</v>
       </c>
       <c r="D372" s="66" t="s">
-        <v>2134</v>
+        <v>2133</v>
       </c>
       <c r="E372" s="65"/>
       <c r="F372" s="65"/>
@@ -28144,7 +28164,7 @@
         <v>1615248000</v>
       </c>
       <c r="L372" s="66" t="s">
-        <v>2119</v>
+        <v>2118</v>
       </c>
     </row>
     <row r="373" spans="1:12" s="22" customFormat="1">
@@ -28155,10 +28175,10 @@
         <v>1</v>
       </c>
       <c r="C373" s="58" t="s">
-        <v>2136</v>
+        <v>2135</v>
       </c>
       <c r="D373" s="66" t="s">
-        <v>2087</v>
+        <v>2086</v>
       </c>
       <c r="E373" s="65"/>
       <c r="F373" s="65"/>
@@ -28172,13 +28192,42 @@
         <v>1</v>
       </c>
       <c r="J373" s="66" t="s">
-        <v>455</v>
+        <v>2145</v>
       </c>
       <c r="K373" s="65">
         <v>1615248000</v>
       </c>
       <c r="L373" s="66" t="s">
-        <v>2119</v>
+        <v>2118</v>
+      </c>
+    </row>
+    <row r="374" spans="1:12">
+      <c r="A374" s="26">
+        <v>373</v>
+      </c>
+      <c r="B374" s="26">
+        <v>1</v>
+      </c>
+      <c r="C374" s="26" t="s">
+        <v>2143</v>
+      </c>
+      <c r="D374" s="26" t="s">
+        <v>2144</v>
+      </c>
+      <c r="G374" s="26">
+        <v>405</v>
+      </c>
+      <c r="H374" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="I374" s="109" t="b">
+        <v>1</v>
+      </c>
+      <c r="J374" s="26" t="s">
+        <v>2146</v>
+      </c>
+      <c r="K374" s="26">
+        <v>1615248000</v>
       </c>
     </row>
   </sheetData>
@@ -28192,13 +28241,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:I978"/>
+  <dimension ref="A1:I979"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C955" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C948" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A976" sqref="A976"/>
+      <selection pane="bottomRight" activeCell="C976" sqref="C976"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -51101,7 +51150,7 @@
         <v>391</v>
       </c>
       <c r="C957" s="10" t="s">
-        <v>2120</v>
+        <v>2119</v>
       </c>
       <c r="D957" s="8">
         <v>12</v>
@@ -51182,7 +51231,7 @@
         <v>1</v>
       </c>
       <c r="G960" s="10" t="s">
-        <v>2090</v>
+        <v>2089</v>
       </c>
     </row>
     <row r="961" spans="1:9" s="8" customFormat="1">
@@ -51205,7 +51254,7 @@
         <v>1</v>
       </c>
       <c r="G961" s="10" t="s">
-        <v>2091</v>
+        <v>2090</v>
       </c>
     </row>
     <row r="962" spans="1:9" s="8" customFormat="1">
@@ -51228,7 +51277,7 @@
         <v>1</v>
       </c>
       <c r="G962" s="10" t="s">
-        <v>2091</v>
+        <v>2090</v>
       </c>
     </row>
     <row r="963" spans="1:9" s="8" customFormat="1">
@@ -51251,7 +51300,7 @@
         <v>1</v>
       </c>
       <c r="G963" s="8" t="s">
-        <v>2105</v>
+        <v>2104</v>
       </c>
     </row>
     <row r="964" spans="1:9" s="8" customFormat="1">
@@ -51274,7 +51323,7 @@
         <v>2</v>
       </c>
       <c r="G964" s="10" t="s">
-        <v>2106</v>
+        <v>2105</v>
       </c>
     </row>
     <row r="965" spans="1:9" s="8" customFormat="1">
@@ -51297,7 +51346,7 @@
         <v>2</v>
       </c>
       <c r="G965" s="10" t="s">
-        <v>2117</v>
+        <v>2116</v>
       </c>
     </row>
     <row r="966" spans="1:9" s="8" customFormat="1">
@@ -51343,7 +51392,7 @@
         <v>2</v>
       </c>
       <c r="G967" s="10" t="s">
-        <v>2118</v>
+        <v>2117</v>
       </c>
     </row>
     <row r="968" spans="1:9" s="8" customFormat="1">
@@ -51414,7 +51463,7 @@
         <v>1</v>
       </c>
       <c r="G970" s="21" t="s">
-        <v>2121</v>
+        <v>2120</v>
       </c>
       <c r="H970" s="8"/>
       <c r="I970" s="8"/>
@@ -51468,7 +51517,7 @@
         <v>1</v>
       </c>
       <c r="G972" s="21" t="s">
-        <v>2121</v>
+        <v>2120</v>
       </c>
       <c r="H972" s="8" t="s">
         <v>863</v>
@@ -51520,7 +51569,7 @@
         <v>1</v>
       </c>
       <c r="G974" s="21" t="s">
-        <v>2129</v>
+        <v>2128</v>
       </c>
     </row>
     <row r="975" spans="1:9" s="8" customFormat="1">
@@ -51543,7 +51592,7 @@
         <v>1</v>
       </c>
       <c r="G975" s="8" t="s">
-        <v>2140</v>
+        <v>2139</v>
       </c>
     </row>
     <row r="976" spans="1:9" s="8" customFormat="1">
@@ -51566,7 +51615,7 @@
         <v>1</v>
       </c>
       <c r="G976" s="10" t="s">
-        <v>2141</v>
+        <v>2140</v>
       </c>
     </row>
     <row r="977" spans="1:7" s="8" customFormat="1">
@@ -51589,7 +51638,7 @@
         <v>1</v>
       </c>
       <c r="G977" s="8" t="s">
-        <v>2140</v>
+        <v>2139</v>
       </c>
     </row>
     <row r="978" spans="1:7" s="8" customFormat="1">
@@ -51603,7 +51652,7 @@
         <v>1142</v>
       </c>
       <c r="D978" s="95" t="s">
-        <v>2142</v>
+        <v>2141</v>
       </c>
       <c r="E978" s="8">
         <v>2</v>
@@ -51612,7 +51661,30 @@
         <v>1</v>
       </c>
       <c r="G978" s="10" t="s">
-        <v>2141</v>
+        <v>2140</v>
+      </c>
+    </row>
+    <row r="979" spans="1:7">
+      <c r="A979" s="9">
+        <v>978</v>
+      </c>
+      <c r="B979" s="9">
+        <v>405</v>
+      </c>
+      <c r="C979" s="10" t="s">
+        <v>1533</v>
+      </c>
+      <c r="D979" s="8">
+        <v>1615248000</v>
+      </c>
+      <c r="E979" s="9">
+        <v>3</v>
+      </c>
+      <c r="F979" s="9">
+        <v>1</v>
+      </c>
+      <c r="G979" s="49" t="s">
+        <v>2147</v>
       </c>
     </row>
   </sheetData>

--- a/config_3.9/permission_server_config.xlsx
+++ b/config_3.9/permission_server_config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_3.9\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_3.9\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -10757,7 +10757,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Q471"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A437" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B472" sqref="B472"/>
     </sheetView>
@@ -15600,11 +15600,11 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:O374"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="E350" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D350" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H374" sqref="H374"/>
+      <selection pane="bottomRight" activeCell="C380" sqref="C380"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -28266,7 +28266,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C948" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C976" sqref="C976"/>
+      <selection pane="bottomRight" activeCell="C962" sqref="C962"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
